--- a/Downscaleddata/pdfs/bottom o2_pdf.xlsx
+++ b/Downscaleddata/pdfs/bottom o2_pdf.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5089220142342787</v>
+        <v>-1.948410602452645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.781614573910323</v>
+        <v>-2.346652553308443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.781614573910323</v>
+        <v>-2.346652553308443</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003907295856080446</v>
+        <v>0.0001340528987638154</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5089220142342787</v>
+        <v>-1.948410602452645</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002278861977216261</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5089220142342787</v>
+        <v>-1.948410602452645</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002871058141753163</v>
+        <v>0.0001043157151410829</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4801265790328003</v>
+        <v>-1.907058462388685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7514488243386132</v>
+        <v>-2.298689883141277</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7514488243386132</v>
+        <v>-2.298689883141277</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004000831961146315</v>
+        <v>0.0001401513538925201</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4801265790328003</v>
+        <v>-1.907058462388685</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002278861977216261</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4801265790328003</v>
+        <v>-1.907058462388685</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002979198446920803</v>
+        <v>0.0001043157151410829</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4513311438313219</v>
+        <v>-1.865706322324727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7212830747669033</v>
+        <v>-2.250727212974111</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7212830747669033</v>
+        <v>-2.250727212974111</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000412749513435169</v>
+        <v>0.000148597392765976</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.4513311438313219</v>
+        <v>-1.865706322324727</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00022885379471272</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.4513311438313219</v>
+        <v>-1.865706322324727</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003125134899902587</v>
+        <v>0.0001043157151410829</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4225357086298434</v>
+        <v>-1.824354182260767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6911173251951935</v>
+        <v>-2.202764542806945</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6911173251951935</v>
+        <v>-2.202764542806945</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004296707472328776</v>
+        <v>0.0001600775582118615</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4225357086298434</v>
+        <v>-1.824354182260767</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002332347180992355</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4225357086298434</v>
+        <v>-1.824354182260767</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003319656501182278</v>
+        <v>0.0001043157151410829</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.393740273428365</v>
+        <v>-1.783002042196808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6609515756234837</v>
+        <v>-2.15480187263978</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6609515756234837</v>
+        <v>-2.15480187263978</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004519844629859044</v>
+        <v>0.0001761684536398843</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.393740273428365</v>
+        <v>-1.783002042196808</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002392158473196928</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.393740273428365</v>
+        <v>-1.783002042196808</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003575895104905367</v>
+        <v>0.0001043157151410829</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3649448382268866</v>
+        <v>-1.741649902132849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6307858260517738</v>
+        <v>-2.106839202472613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6307858260517738</v>
+        <v>-2.106839202472613</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004810435207260483</v>
+        <v>0.0001975574116096358</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3649448382268866</v>
+        <v>-1.741649902132849</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002472671994254557</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3649448382268866</v>
+        <v>-1.741649902132849</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00039580398044106</v>
+        <v>0.0001050504944190141</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3361494030254081</v>
+        <v>-1.70029776206889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.600620076480064</v>
+        <v>-2.058876532305447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.600620076480064</v>
+        <v>-2.058876532305447</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000519487513046335</v>
+        <v>0.0002252365256778486</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3361494030254081</v>
+        <v>-1.70029776206889</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002579596685798027</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3361494030254081</v>
+        <v>-1.70029776206889</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0004476081988922632</v>
+        <v>0.0001178118952189671</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3073539678239297</v>
+        <v>-1.658945622004931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5704543269083542</v>
+        <v>-2.010913862138281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5704543269083542</v>
+        <v>-2.010913862138281</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0005688850031244242</v>
+        <v>0.0002615351893962776</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.3073539678239297</v>
+        <v>-1.658945622004931</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00027245336635537</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3073539678239297</v>
+        <v>-1.658945622004931</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005225472985893094</v>
+        <v>0.0001366787752546621</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2785585326224512</v>
+        <v>-1.617593481940972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5402885773366444</v>
+        <v>-1.962951191971115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5402885773366444</v>
+        <v>-1.962951191971115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0006310948957236227</v>
+        <v>0.0003077026603490887</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2785585326224512</v>
+        <v>-1.617593481940972</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002913340111091976</v>
+        <v>0.0001409790132483976</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2785585326224512</v>
+        <v>-1.617593481940972</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006218476831456364</v>
+        <v>0.0001624883357888467</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2497630974209728</v>
+        <v>-1.576241341877013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001461081439584687</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5101228277649346</v>
+        <v>-1.91498852180395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5101228277649346</v>
+        <v>-1.91498852180395</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000708513692364839</v>
+        <v>0.0003645468804736203</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2497630974209728</v>
+        <v>-1.576241341877013</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003155366408004221</v>
+        <v>0.0001501488860653626</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.2497630974209728</v>
+        <v>-1.576241341877013</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007489194066387139</v>
+        <v>0.0001969256616545949</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2209676622194944</v>
+        <v>-1.534889201813054</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001476846300467984</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4799570781932248</v>
+        <v>-1.867025851636783</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4799570781932248</v>
+        <v>-1.867025851636783</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0008037611048929581</v>
+        <v>0.0004345358203006525</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.2209676622194944</v>
+        <v>-1.534889201813054</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003461820946305885</v>
+        <v>0.0001670658380189481</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.2209676622194944</v>
+        <v>-1.534889201813054</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0009126314769492433</v>
+        <v>0.0002429119120608419</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1921722270180159</v>
+        <v>-1.493537061749095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002085115802911228</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4497913286215149</v>
+        <v>-1.819063181469617</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001354296346338771</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4497913286215149</v>
+        <v>-1.819063181469617</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0009212854046130976</v>
+        <v>0.0005194415839261056</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1921722270180159</v>
+        <v>-1.493537061749095</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003845373105070866</v>
+        <v>0.000190675187289224</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1921722270180159</v>
+        <v>-1.493537061749095</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001117315638123462</v>
+        <v>0.0003035029948739174</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1633767918165375</v>
+        <v>-1.452184921685136</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002913890260555284</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4196255790498051</v>
+        <v>-1.771100511302452</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001981674135528529</v>
+        <v>0.0001372918713670068</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4196255790498051</v>
+        <v>-1.771100511302452</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001064632872693068</v>
+        <v>0.0006188940651984044</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1633767918165375</v>
+        <v>-1.452184921685136</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004321673509099229</v>
+        <v>0.0002229157207730681</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1633767918165375</v>
+        <v>-1.452184921685136</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001369884874352819</v>
+        <v>0.0003813160579222172</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.134581356615059</v>
+        <v>-1.410832781621177</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004031345044847101</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3894598294780953</v>
+        <v>-1.723137841135285</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0002036448225836222</v>
+        <v>0.0001500614898014366</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3894598294780953</v>
+        <v>-1.723137841135285</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001235432717310407</v>
+        <v>0.0007343472106150227</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.134581356615059</v>
+        <v>-1.410832781621177</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004919593786825151</v>
+        <v>0.0002715353936121929</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.134581356615059</v>
+        <v>-1.410832781621177</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001680211708910752</v>
+        <v>0.000480110875216648</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1057859214135806</v>
+        <v>-1.369480641557218</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005522592186586007</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3592940799063855</v>
+        <v>-1.67517517096812</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002134170238369295</v>
+        <v>0.0001693683219345278</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3592940799063855</v>
+        <v>-1.67517517096812</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001436801510845385</v>
+        <v>0.0008676145813637645</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1057859214135806</v>
+        <v>-1.369480641557218</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0005646074718152759</v>
+        <v>0.000342180661063928</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1057859214135806</v>
+        <v>-1.369480641557218</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002067647757868732</v>
+        <v>0.0006046125454831261</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.07699048621210214</v>
+        <v>-1.328128501493259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007492590372464885</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3291283303346756</v>
+        <v>-1.627212500800953</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0002291112581881781</v>
+        <v>0.0001980782600262698</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3291283303346756</v>
+        <v>-1.627212500800953</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00167180633942906</v>
+        <v>0.001016304597256386</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.07699048621210214</v>
+        <v>-1.328128501493259</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0006614625004598395</v>
+        <v>0.0004333218530389948</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.07699048621210214</v>
+        <v>-1.328128501493259</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002541141459387853</v>
+        <v>0.0007602660200585898</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.04819505101062371</v>
+        <v>-1.2867763614293</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00100691898166202</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2989625807629658</v>
+        <v>-1.579249830633787</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0002616359408612546</v>
+        <v>0.0002384552080014217</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2989625807629658</v>
+        <v>-1.579249830633787</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001944733856351222</v>
+        <v>0.001180032031086746</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.04819505101062371</v>
+        <v>-1.2867763614293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0007850094557417111</v>
+        <v>0.0005537457977014145</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.04819505101062371</v>
+        <v>-1.2867763614293</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003105242510053899</v>
+        <v>0.0009604837923906026</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01939961580914529</v>
+        <v>-1.245424221365341</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001340621245978695</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.268796831191256</v>
+        <v>-1.531287160466622</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003060827689850967</v>
+        <v>0.000295373261480652</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.268796831191256</v>
+        <v>-1.531287160466622</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002261455010563737</v>
+        <v>0.00135993576066962</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01939961580914529</v>
+        <v>-1.245424221365341</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0009361833947855924</v>
+        <v>0.0007026945120658445</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01939961580914529</v>
+        <v>-1.245424221365341</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003771423840937674</v>
+        <v>0.001203553070247888</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.009395819392333138</v>
+        <v>-1.204072081301382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001768643896647562</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2386310816195462</v>
+        <v>-1.483324490299456</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003676250320764124</v>
+        <v>0.0003699980458927838</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2386310816195462</v>
+        <v>-1.483324490299456</v>
       </c>
       <c r="G20" t="n">
-        <v>0.002620447143079811</v>
+        <v>0.001552071824790745</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009395819392333138</v>
+        <v>-1.204072081301382</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001120267054117447</v>
+        <v>0.0008832865889915998</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009395819392333138</v>
+        <v>-1.204072081301382</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004572865390905548</v>
+        <v>0.001499941007512119</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03819125459381156</v>
+        <v>-1.162719941237423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002312434493468894</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2084653320478363</v>
+        <v>-1.43536182013229</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000449504786682087</v>
+        <v>0.0004690549738559911</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2084653320478363</v>
+        <v>-1.43536182013229</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003026067666884764</v>
+        <v>0.001754977251291769</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03819125459381156</v>
+        <v>-1.162719941237423</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001348613197228617</v>
+        <v>0.001103644170398094</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03819125459381156</v>
+        <v>-1.162719941237423</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00551827752912108</v>
+        <v>0.001858295208347444</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06698668979528999</v>
+        <v>-1.121367801173464</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002996840129444245</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1782995824761265</v>
+        <v>-1.387399149965124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0005586146591554365</v>
+        <v>0.000590479939608787</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1782995824761265</v>
+        <v>-1.387399149965124</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003491652456610075</v>
+        <v>0.001976130081836359</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06698668979528999</v>
+        <v>-1.121367801173464</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001634236494843857</v>
+        <v>0.001362023633194039</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06698668979528999</v>
+        <v>-1.121367801173464</v>
       </c>
       <c r="K22" t="n">
-        <v>0.006612398584200692</v>
+        <v>0.002287311320616855</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.09578212499676853</v>
+        <v>-1.080015661109505</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00385027299891158</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1481338329044167</v>
+        <v>-1.339436479797958</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0007003817912889945</v>
+        <v>0.0007406576013287443</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1481338329044167</v>
+        <v>-1.339436479797958</v>
       </c>
       <c r="G23" t="n">
-        <v>0.004016309501680269</v>
+        <v>0.002219045783380245</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09578212499676853</v>
+        <v>-1.080015661109505</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001979393819673018</v>
+        <v>0.001658192272649217</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09578212499676853</v>
+        <v>-1.080015661109505</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007868210153462349</v>
+        <v>0.002799830901520481</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.124577560198247</v>
+        <v>-1.038663521045545</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004904788783875328</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1179680833327069</v>
+        <v>-1.291473809630792</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0008853502167483549</v>
+        <v>0.0009134342232071323</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1179680833327069</v>
+        <v>-1.291473809630792</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004605615602344961</v>
+        <v>0.002478505395719452</v>
       </c>
       <c r="H24" t="n">
-        <v>0.124577560198247</v>
+        <v>-1.038663521045545</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002395234126982909</v>
+        <v>0.001994242789527068</v>
       </c>
       <c r="J24" t="n">
-        <v>0.124577560198247</v>
+        <v>-1.038663521045545</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009301661001792038</v>
+        <v>0.003400701283719666</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1533729953997254</v>
+        <v>-0.9973113809815866</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006196054123837108</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.08780233376099711</v>
+        <v>-1.243511139463626</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001118659309490587</v>
+        <v>0.001118351937598135</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.08780233376099711</v>
+        <v>-1.243511139463626</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005255677313390652</v>
+        <v>0.002762468061966941</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1533729953997254</v>
+        <v>-0.9973113809815866</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00289596496488425</v>
+        <v>0.002373062458749649</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1533729953997254</v>
+        <v>-0.9973113809815866</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01094296565904578</v>
+        <v>0.004099840233225442</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1821684306012038</v>
+        <v>-0.9559592409176274</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007763179436587849</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0576365841892873</v>
+        <v>-1.19554846929646</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001409046574355725</v>
+        <v>0.001344937793686663</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0576365841892873</v>
+        <v>-1.19554846929646</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005970728894064703</v>
+        <v>0.003089068650036067</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1821684306012038</v>
+        <v>-0.9559592409176274</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003507425974367144</v>
+        <v>0.002789552831273211</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1821684306012038</v>
+        <v>-0.9559592409176274</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01279222217909327</v>
+        <v>0.004904292256705393</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2109638658026822</v>
+        <v>-0.9146071008536685</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009648394615016572</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.02747083461757749</v>
+        <v>-1.147585799129294</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001769850229910735</v>
+        <v>0.001585893192365416</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.02747083461757749</v>
+        <v>-1.147585799129294</v>
       </c>
       <c r="G27" t="n">
-        <v>0.006752440234436286</v>
+        <v>0.003458714327784842</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2109638658026822</v>
+        <v>-0.9146071008536685</v>
       </c>
       <c r="I27" t="n">
-        <v>0.004244350341981669</v>
+        <v>0.003240745652181294</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2109638658026822</v>
+        <v>-0.9146071008536685</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01486422223346704</v>
+        <v>0.005827886741204291</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2397593010041607</v>
+        <v>-0.8732549607897093</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01189654785193758</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002694914954132321</v>
+        <v>-1.099623128962128</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002228637875645162</v>
+        <v>0.00183517277567936</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002694914954132321</v>
+        <v>-1.099623128962128</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007604653460555067</v>
+        <v>0.003888478407479375</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2397593010041607</v>
+        <v>-0.8732549607897093</v>
       </c>
       <c r="I28" t="n">
-        <v>0.005116644660308436</v>
+        <v>0.003736486359737635</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2397593010041607</v>
+        <v>-0.8732549607897093</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01717286777785553</v>
+        <v>0.006890757974064</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2685547362056391</v>
+        <v>-0.8319028207257504</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01455441222494685</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03286066452584224</v>
+        <v>-1.051660458794962</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00278466685397079</v>
+        <v>0.00208257809055024</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03286066452584224</v>
+        <v>-1.051660458794962</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008536505574730192</v>
+        <v>0.004389230665715876</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2685547362056391</v>
+        <v>-0.8319028207257504</v>
       </c>
       <c r="I29" t="n">
-        <v>0.006153886249339207</v>
+        <v>0.004296693631202287</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2685547362056391</v>
+        <v>-0.8319028207257504</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01973309916321967</v>
+        <v>0.008096245758724786</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2973501714071176</v>
+        <v>-0.7905506806617912</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01766979083953982</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06302641409755205</v>
+        <v>-1.003697788627796</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003448119527534549</v>
+        <v>0.002326573181282282</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06302641409755205</v>
+        <v>-1.003697788627796</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009548510768194695</v>
+        <v>0.004980131641956712</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2973501714071176</v>
+        <v>-0.7905506806617912</v>
       </c>
       <c r="I30" t="n">
-        <v>0.007372712852599478</v>
+        <v>0.004909990095917552</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2973501714071176</v>
+        <v>-0.7905506806617912</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02258343213928843</v>
+        <v>0.009452632344393476</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.326145606608596</v>
+        <v>-0.7491985405978323</v>
       </c>
       <c r="C31" t="n">
-        <v>0.021305651186116</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09319216366926186</v>
+        <v>-0.9557351184606298</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004232878888286745</v>
+        <v>0.002560281735119401</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09319216366926186</v>
+        <v>-0.9557351184606298</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01064862282287933</v>
+        <v>0.005695328659876014</v>
       </c>
       <c r="H31" t="n">
-        <v>0.326145606608596</v>
+        <v>-0.7491985405978323</v>
       </c>
       <c r="I31" t="n">
-        <v>0.008798568020553895</v>
+        <v>0.005591268365338867</v>
       </c>
       <c r="J31" t="n">
-        <v>0.326145606608596</v>
+        <v>-0.7491985405978323</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02573713625858366</v>
+        <v>0.01097542485862895</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3549410418100745</v>
+        <v>-0.7078464005338732</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02550740147984808</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1233579132409717</v>
+        <v>-0.9077724482934637</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005165858687653986</v>
+        <v>0.002788825076333611</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1233579132409717</v>
+        <v>-0.9077724482934637</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0118367760711537</v>
+        <v>0.006557045373048933</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3549410418100745</v>
+        <v>-0.7078464005338732</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01046460134423458</v>
+        <v>0.006364711860414827</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3549410418100745</v>
+        <v>-0.7078464005338732</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02922583108423289</v>
+        <v>0.01269216809148297</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3837364770115529</v>
+        <v>-0.6664942604699142</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03030779252279131</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1535236628126815</v>
+        <v>-0.8598097781262979</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006252145602146</v>
+        <v>0.003020201684596097</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1535236628126815</v>
+        <v>-0.8598097781262979</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01312425683110379</v>
+        <v>0.007590556068254667</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3837364770115529</v>
+        <v>-0.6664942604699142</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01240162827212276</v>
+        <v>0.007231430166570883</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3837364770115529</v>
+        <v>-0.6664942604699142</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03309226486887805</v>
+        <v>0.01460407969871865</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4125319122130313</v>
+        <v>-0.6251421204059551</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03574510777689272</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1836894123843913</v>
+        <v>-0.8118471079591318</v>
       </c>
       <c r="E34" t="n">
-        <v>0.007500131321645809</v>
+        <v>0.003275804164878353</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1836894123843913</v>
+        <v>-0.8118471079591318</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01452299233106357</v>
+        <v>0.008826331727599519</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4125319122130313</v>
+        <v>-0.6251421204059551</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01466090679713485</v>
+        <v>0.008213075732585793</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4125319122130313</v>
+        <v>-0.6251421204059551</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03734562941622603</v>
+        <v>0.01672027159269954</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4413273474145097</v>
+        <v>-0.5837899803419959</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04185120632149721</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2138551619561011</v>
+        <v>-0.7638844377919658</v>
       </c>
       <c r="E35" t="n">
-        <v>0.008927858015136392</v>
+        <v>0.003572767241445873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2138551619561011</v>
+        <v>-0.7638844377919658</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01603870430045798</v>
+        <v>0.01030675304234303</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4413273474145097</v>
+        <v>-0.5837899803419959</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01724839962319293</v>
+        <v>0.009344008150940769</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4413273474145097</v>
+        <v>-0.5837899803419959</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04200377844174846</v>
+        <v>0.01906953223883491</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4701227826159882</v>
+        <v>-0.542437840278037</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04864979325623297</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244020911527811</v>
+        <v>-0.7159217676248</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0105507808796829</v>
+        <v>0.003930532912000485</v>
       </c>
       <c r="F36" t="n">
-        <v>0.244020911527811</v>
+        <v>-0.7159217676248</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0176912171147159</v>
+        <v>0.01205781573789533</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4701227826159882</v>
+        <v>-0.542437840278037</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02019536405522521</v>
+        <v>0.01065873360999576</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4701227826159882</v>
+        <v>-0.542437840278037</v>
       </c>
       <c r="K36" t="n">
-        <v>0.04711826251508201</v>
+        <v>0.02165524798309319</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4989182178174667</v>
+        <v>-0.5010857002140778</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05615474503232089</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2741866610995208</v>
+        <v>-0.6679590974576339</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01237752791683589</v>
+        <v>0.004385523307065904</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2741866610995208</v>
+        <v>-0.6679590974576339</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01947970293740551</v>
+        <v>0.01410195820452923</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4989182178174667</v>
+        <v>-0.5010857002140778</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02355026456004405</v>
+        <v>0.01215420732563159</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4989182178174667</v>
+        <v>-0.5010857002140778</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05270682147319521</v>
+        <v>0.02448698484265117</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.527713653018945</v>
+        <v>-0.4597335601501189</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06436857354491259</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3043524106712306</v>
+        <v>-0.6199964272904679</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01443698125435447</v>
+        <v>0.004969613741396039</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3043524106712306</v>
+        <v>-0.6199964272904679</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02143238350679953</v>
+        <v>0.01650557252736449</v>
       </c>
       <c r="H38" t="n">
-        <v>0.527713653018945</v>
+        <v>-0.4597335601501189</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02732810609092194</v>
+        <v>0.01385546657302376</v>
       </c>
       <c r="J38" t="n">
-        <v>0.527713653018945</v>
+        <v>-0.4597335601501189</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05882841577591915</v>
+        <v>0.0275777253593732</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5565090882204236</v>
+        <v>-0.4183814200861597</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07328111869388484</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3345181602429405</v>
+        <v>-0.5720337571233018</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01672399502685506</v>
+        <v>0.005724338473080949</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3345181602429405</v>
+        <v>-0.5720337571233018</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02362358144713646</v>
+        <v>0.0192514631527382</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5565090882204236</v>
+        <v>-0.4183814200861597</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03155647325017653</v>
+        <v>0.01578452970210877</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5565090882204236</v>
+        <v>-0.4183814200861597</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06552148902842229</v>
+        <v>0.03094730086800112</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5853045234219019</v>
+        <v>-0.3770292800222008</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08286856036772706</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3646839098146503</v>
+        <v>-0.524071086956136</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01926985946834392</v>
+        <v>0.006659091380194603</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3646839098146503</v>
+        <v>-0.524071086956136</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02605481435714811</v>
+        <v>0.02235936882386866</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5853045234219019</v>
+        <v>-0.3770292800222008</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03631560403153616</v>
+        <v>0.01794041326018199</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5853045234219019</v>
+        <v>-0.3770292800222008</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07282707525884562</v>
+        <v>0.03458154101172854</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6140999586233804</v>
+        <v>-0.3356771399582417</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09309283651035938</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3948496593863601</v>
+        <v>-0.47610841678897</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02210909671973155</v>
+        <v>0.007828465499303635</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3948496593863601</v>
+        <v>-0.47610841678897</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02875034851971073</v>
+        <v>0.02588417029910818</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6140999586233804</v>
+        <v>-0.3356771399582417</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04161694819680044</v>
+        <v>0.02032833723014429</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6140999586233804</v>
+        <v>-0.3356771399582417</v>
       </c>
       <c r="K41" t="n">
-        <v>0.08079124067027635</v>
+        <v>0.03847969440398074</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6428953938248587</v>
+        <v>-0.2943249998942827</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1039015434746985</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4250154089580699</v>
+        <v>-0.4281457466218039</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02527491141659188</v>
+        <v>0.009222315478919099</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4250154089580699</v>
+        <v>-0.4281457466218039</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03178895097826185</v>
+        <v>0.0297993962595042</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6428953938248587</v>
+        <v>-0.2943249998942827</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04750542389740425</v>
+        <v>0.02296151570251354</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6428953938248587</v>
+        <v>-0.2943249998942827</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08943528494367883</v>
+        <v>0.04266204358387436</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6716908290263373</v>
+        <v>-0.2529728598303236</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1152283780367037</v>
+        <v>0.0001461081453750912</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4551811585297797</v>
+        <v>-0.3801830764546381</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02877968936087699</v>
+        <v>0.01087991515815954</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4551811585297797</v>
+        <v>-0.3801830764546381</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03523007764144271</v>
+        <v>0.03411932658010969</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6716908290263373</v>
+        <v>-0.2529728598303236</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05407048337142502</v>
+        <v>0.0258447336880978</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6716908290263373</v>
+        <v>-0.2529728598303236</v>
       </c>
       <c r="K43" t="n">
-        <v>0.09883430504979358</v>
+        <v>0.04711441527678904</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7004862642278158</v>
+        <v>-0.2116207197663647</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1269941575194196</v>
+        <v>0.0001669239932264424</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4853469081014895</v>
+        <v>-0.3322204062874721</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03267011356776241</v>
+        <v>0.01279549662543435</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4853469081014895</v>
+        <v>-0.3322204062874721</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0390888213879817</v>
+        <v>0.03884982598269826</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7004862642278158</v>
+        <v>-0.2116207197663647</v>
       </c>
       <c r="I44" t="n">
-        <v>0.06133980584269719</v>
+        <v>0.02896349109008386</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7004862642278158</v>
+        <v>-0.2116207197663647</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1090287687752953</v>
+        <v>0.05181696775260602</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7292816994292941</v>
+        <v>-0.1702685797024055</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1391084262795436</v>
+        <v>0.0002690214417930576</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5155126576731993</v>
+        <v>-0.2842577361203062</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03695648518113861</v>
+        <v>0.01500355626193531</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5155126576731993</v>
+        <v>-0.2842577361203062</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04343988254398758</v>
+        <v>0.04397886419519828</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7292816994292941</v>
+        <v>-0.1702685797024055</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06937179792325703</v>
+        <v>0.03231699098382031</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7292816994292941</v>
+        <v>-0.1702685797024055</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1199929164039276</v>
+        <v>0.05678233682818862</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7580771346307726</v>
+        <v>-0.1289164396384466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1514716247029637</v>
+        <v>0.0004305645817727047</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5456784072449091</v>
+        <v>-0.23629506595314</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04166937817868134</v>
+        <v>0.01750259706949298</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5456784072449091</v>
+        <v>-0.23629506595314</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04836103443877636</v>
+        <v>0.04949592208162193</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7580771346307726</v>
+        <v>-0.1289164396384466</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07823469308821847</v>
+        <v>0.03593099833832098</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7580771346307726</v>
+        <v>-0.1289164396384466</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1317967567974911</v>
+        <v>0.06199497050835708</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.786872569832251</v>
+        <v>-0.08756429957448741</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1639777626949758</v>
+        <v>0.0006675064921499628</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5758441568166189</v>
+        <v>-0.1883323957859742</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04687609823442969</v>
+        <v>0.02031612075894022</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5758441568166189</v>
+        <v>-0.1883323957859742</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05389524473029182</v>
+        <v>0.05538573994908047</v>
       </c>
       <c r="H47" t="n">
-        <v>0.786872569832251</v>
+        <v>-0.08756429957448741</v>
       </c>
       <c r="I47" t="n">
-        <v>0.08801201779563049</v>
+        <v>0.03977913642478202</v>
       </c>
       <c r="J47" t="n">
-        <v>0.786872569832251</v>
+        <v>-0.08756429957448741</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1444391780914862</v>
+        <v>0.06743086379052576</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8156680050337295</v>
+        <v>-0.04621215951052848</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1765175056770214</v>
+        <v>0.001027756833285285</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6060099063883287</v>
+        <v>-0.1403697256188079</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05262620927255179</v>
+        <v>0.02345437440950317</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6060099063883287</v>
+        <v>-0.1403697256188079</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06017831752381657</v>
+        <v>0.06162696336090673</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8156680050337295</v>
+        <v>-0.04621215951052848</v>
       </c>
       <c r="I48" t="n">
-        <v>0.09870542341684818</v>
+        <v>0.04388422619650556</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8156680050337295</v>
+        <v>-0.04621215951052848</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1579310486720607</v>
+        <v>0.07309531643953045</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8444634402352078</v>
+        <v>-0.00486001944656933</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1889815497934042</v>
+        <v>0.001535016819141524</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6361756559600386</v>
+        <v>-0.09240705545164207</v>
       </c>
       <c r="E49" t="n">
-        <v>0.05894654576372873</v>
+        <v>0.02693607409960217</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6361756559600386</v>
+        <v>-0.09240705545164207</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06724429429834788</v>
+        <v>0.06820283681089953</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8444634402352078</v>
+        <v>-0.00486001944656933</v>
       </c>
       <c r="I49" t="n">
-        <v>0.110335132768643</v>
+        <v>0.04824413247536825</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8444634402352078</v>
+        <v>-0.00486001944656933</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1722336480895449</v>
+        <v>0.07898037989640815</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8732588754366863</v>
+        <v>0.03649212061738982</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2012557351815344</v>
+        <v>0.002276594224018124</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6663414055317484</v>
+        <v>-0.04444438528447625</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06591304493584502</v>
+        <v>0.03078051910919817</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6663414055317484</v>
+        <v>-0.04444438528447625</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07522323431753745</v>
+        <v>0.07507937432846039</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8732588754366863</v>
+        <v>0.03649212061738982</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1230166666081701</v>
+        <v>0.05288924949864324</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8732588754366863</v>
+        <v>0.03649212061738982</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1872869632102132</v>
+        <v>0.08506646718334603</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9020543106381649</v>
+        <v>0.07784426068134875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2132381577787084</v>
+        <v>0.003280884405823874</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6965071551034582</v>
+        <v>0.003518284882690015</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07355948203545347</v>
+        <v>0.03498453621368251</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6965071551034582</v>
+        <v>0.003518284882690015</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08418231439456961</v>
+        <v>0.08224141591927153</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9020543106381649</v>
+        <v>0.07784426068134875</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1366752520901047</v>
+        <v>0.05780720997366007</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9020543106381649</v>
+        <v>0.07784426068134875</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2031062273452914</v>
+        <v>0.09136327070693158</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9308497458396432</v>
+        <v>0.1191964007453077</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2248454641193272</v>
+        <v>0.004693562180389319</v>
       </c>
       <c r="D52" t="n">
-        <v>0.726672904675168</v>
+        <v>0.05148095504985584</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08196174738698195</v>
+        <v>0.03959489984962602</v>
       </c>
       <c r="F52" t="n">
-        <v>0.726672904675168</v>
+        <v>0.05148095504985584</v>
       </c>
       <c r="G52" t="n">
-        <v>0.09414792488931896</v>
+        <v>0.08963278971214834</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9308497458396432</v>
+        <v>0.1191964007453077</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1512575726752566</v>
+        <v>0.06303415037324213</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9308497458396432</v>
+        <v>0.1191964007453077</v>
       </c>
       <c r="K52" t="n">
-        <v>0.219579926732278</v>
+        <v>0.09786133909791785</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9596451810411217</v>
+        <v>0.1605485408092671</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2360045484409957</v>
+        <v>0.006536863028148667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7568386542468778</v>
+        <v>0.09944362521702166</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09120684297743956</v>
+        <v>0.04458313881180736</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7568386542468778</v>
+        <v>0.09944362521702166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1053246907157947</v>
+        <v>0.0972462985180136</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9596451810411217</v>
+        <v>0.1605485408092671</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1667732555076437</v>
+        <v>0.06857325439216649</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9596451810411217</v>
+        <v>0.1605485408092671</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2365912879934193</v>
+        <v>0.1045553080189297</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9884406162426</v>
+        <v>0.201900680873226</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2466581488199759</v>
+        <v>0.009033197688389262</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7870044038185876</v>
+        <v>0.1474062953841879</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1012847557566095</v>
+        <v>0.04998293850545505</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7870044038185876</v>
+        <v>0.1474062953841879</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1176612039863549</v>
+        <v>0.1050090865363272</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9884406162426</v>
+        <v>0.201900680873226</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1831401716918899</v>
+        <v>0.07443402929769048</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9884406162426</v>
+        <v>0.201900680873226</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2540028543814793</v>
+        <v>0.11144617963943</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.017236051444079</v>
+        <v>0.2432528209371849</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2567663730484074</v>
+        <v>0.01217667206237825</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8171701533902974</v>
+        <v>0.1953689655513537</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1122904789751475</v>
+        <v>0.05579290807450909</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8171701533902974</v>
+        <v>0.1953689655513537</v>
       </c>
       <c r="G55" t="n">
-        <v>0.131171272176072</v>
+        <v>0.1128739387417002</v>
       </c>
       <c r="H55" t="n">
-        <v>1.017236051444079</v>
+        <v>0.2432528209371849</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2002051760259711</v>
+        <v>0.08062493675554673</v>
       </c>
       <c r="J55" t="n">
-        <v>1.017236051444079</v>
+        <v>0.2432528209371849</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2717344681504081</v>
+        <v>0.1185267564117983</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.046031486645557</v>
+        <v>0.2846049610011439</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2663074347770723</v>
+        <v>0.01627698153015062</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8473359029620074</v>
+        <v>0.2433316357185196</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1243012487369135</v>
+        <v>0.06199788138713574</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8473359029620074</v>
+        <v>0.2433316357185196</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1459896187417618</v>
+        <v>0.1207996300191816</v>
       </c>
       <c r="H56" t="n">
-        <v>1.046031486645557</v>
+        <v>0.2846049610011439</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2178264740190265</v>
+        <v>0.08714968431746251</v>
       </c>
       <c r="J56" t="n">
-        <v>1.046031486645557</v>
+        <v>0.2846049610011439</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2895860842973364</v>
+        <v>0.125797513923172</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.074826921847035</v>
+        <v>0.3259571010651032</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2752775563274047</v>
+        <v>0.02127843864322701</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8775016525337173</v>
+        <v>0.2912943058856858</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1372496625836766</v>
+        <v>0.06860581540734147</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8775016525337173</v>
+        <v>0.2912943058856858</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1620000958127107</v>
+        <v>0.1287142204609664</v>
       </c>
       <c r="H57" t="n">
-        <v>1.074826921847035</v>
+        <v>0.3259571010651032</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2358479333490871</v>
+        <v>0.09399107129405582</v>
       </c>
       <c r="J57" t="n">
-        <v>1.074826921847035</v>
+        <v>0.3259571010651032</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3073604513420979</v>
+        <v>0.133240455287734</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.103622357048514</v>
+        <v>0.3673092411290622</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2836900443334691</v>
+        <v>0.02753589695126912</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9076674021054271</v>
+        <v>0.3392569760528517</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1512287866371379</v>
+        <v>0.07560090681863164</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9076674021054271</v>
+        <v>0.3392569760528517</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1791243813966726</v>
+        <v>0.1365576352807724</v>
       </c>
       <c r="H58" t="n">
-        <v>1.103622357048514</v>
+        <v>0.3673092411290622</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2541084971254007</v>
+        <v>0.1011378613287059</v>
       </c>
       <c r="J58" t="n">
-        <v>1.103622357048514</v>
+        <v>0.3673092411290622</v>
       </c>
       <c r="K58" t="n">
-        <v>0.3248884665517565</v>
+        <v>0.1408459461739446</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.132417792249992</v>
+        <v>0.4086613811930211</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2915735947455316</v>
+        <v>0.03494456820568827</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9378331516771369</v>
+        <v>0.3872196462200175</v>
       </c>
       <c r="E59" t="n">
-        <v>0.166230006837592</v>
+        <v>0.08297472455040211</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9378331516771369</v>
+        <v>0.3872196462200175</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1973793990346479</v>
+        <v>0.144278757229105</v>
       </c>
       <c r="H59" t="n">
-        <v>1.132417792249992</v>
+        <v>0.4086613811930211</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2723767515840247</v>
+        <v>0.1085683709942271</v>
       </c>
       <c r="J59" t="n">
-        <v>1.132417792249992</v>
+        <v>0.4086613811930211</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3419394401779109</v>
+        <v>0.1485877888916378</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.161213227451471</v>
+        <v>0.45001352125698</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2989699307618112</v>
+        <v>0.04384544712440715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9679989012488467</v>
+        <v>0.4351823163871837</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1821118578385602</v>
+        <v>0.09069217318939837</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9679989012488467</v>
+        <v>0.4351823163871837</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2165194779367783</v>
+        <v>0.1518210243203039</v>
       </c>
       <c r="H60" t="n">
-        <v>1.161213227451471</v>
+        <v>0.45001352125698</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2904515040715402</v>
+        <v>0.1162438338704988</v>
       </c>
       <c r="J60" t="n">
-        <v>1.161213227451471</v>
+        <v>0.45001352125698</v>
       </c>
       <c r="K60" t="n">
-        <v>0.3583361787578346</v>
+        <v>0.1564372939593562</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.190008662652949</v>
+        <v>0.4913656613209394</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3059309170969101</v>
+        <v>0.05406734010370318</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9981646508205565</v>
+        <v>0.4831449865543496</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1989070970789231</v>
+        <v>0.09874112884237313</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9981646508205565</v>
+        <v>0.4831449865543496</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2363830329930239</v>
+        <v>0.159140588869714</v>
       </c>
       <c r="H61" t="n">
-        <v>1.190008662652949</v>
+        <v>0.4913656613209394</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3081281182651883</v>
+        <v>0.1241271541049171</v>
       </c>
       <c r="J61" t="n">
-        <v>1.190008662652949</v>
+        <v>0.4913656613209394</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3739070974492377</v>
+        <v>0.1643795016917329</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.218804097854428</v>
+        <v>0.5327178013848983</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3125153232657386</v>
+        <v>0.06586843403621115</v>
       </c>
       <c r="D62" t="n">
-        <v>1.028330400392266</v>
+        <v>0.5311076567215158</v>
       </c>
       <c r="E62" t="n">
-        <v>0.216481251290889</v>
+        <v>0.107084716200403</v>
       </c>
       <c r="F62" t="n">
-        <v>1.028330400392266</v>
+        <v>0.5311076567215158</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2567911753226263</v>
+        <v>0.1661994775555207</v>
       </c>
       <c r="H62" t="n">
-        <v>1.218804097854428</v>
+        <v>0.5327178013848983</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3252076180013992</v>
+        <v>0.1321799815068246</v>
       </c>
       <c r="J62" t="n">
-        <v>1.218804097854428</v>
+        <v>0.5327178013848983</v>
       </c>
       <c r="K62" t="n">
-        <v>0.3884198249922276</v>
+        <v>0.1723608069139129</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.247599533055906</v>
+        <v>0.5740699414488573</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3187854247342786</v>
+        <v>0.07900076919461688</v>
       </c>
       <c r="D63" t="n">
-        <v>1.058496149963976</v>
+        <v>0.5790703268886817</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2346273560742843</v>
+        <v>0.1156744166898768</v>
       </c>
       <c r="F63" t="n">
-        <v>1.058496149963976</v>
+        <v>0.5790703268886817</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2774344559606456</v>
+        <v>0.1729977653932168</v>
       </c>
       <c r="H63" t="n">
-        <v>1.247599533055906</v>
+        <v>0.5740699414488573</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3414944326530701</v>
+        <v>0.1403484571329238</v>
       </c>
       <c r="J63" t="n">
-        <v>1.247599533055906</v>
+        <v>0.5740699414488573</v>
       </c>
       <c r="K63" t="n">
-        <v>0.4017196874607477</v>
+        <v>0.1803441462373984</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.276394968257385</v>
+        <v>0.6154220815128162</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3248036325046069</v>
+        <v>0.09357492596931986</v>
       </c>
       <c r="D64" t="n">
-        <v>1.088661899535686</v>
+        <v>0.6270329970558475</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2532191851012036</v>
+        <v>0.1244831994685873</v>
       </c>
       <c r="F64" t="n">
-        <v>1.088661899535686</v>
+        <v>0.6270329970558475</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2980763623126917</v>
+        <v>0.1795341464711799</v>
       </c>
       <c r="H64" t="n">
-        <v>1.276394968257385</v>
+        <v>0.6154220815128162</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3568592863881206</v>
+        <v>0.1486012692347343</v>
       </c>
       <c r="J64" t="n">
-        <v>1.276394968257385</v>
+        <v>0.6154220815128162</v>
       </c>
       <c r="K64" t="n">
-        <v>0.4136773328084532</v>
+        <v>0.1883040276220677</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.305190403458863</v>
+        <v>0.6567742215767756</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3306293289792138</v>
+        <v>0.1092713803377431</v>
       </c>
       <c r="D65" t="n">
-        <v>1.118827649107396</v>
+        <v>0.6749956672230137</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2720403798072364</v>
+        <v>0.1334435456398483</v>
       </c>
       <c r="F65" t="n">
-        <v>1.118827649107396</v>
+        <v>0.6749956672230137</v>
       </c>
       <c r="G65" t="n">
-        <v>0.318390272448078</v>
+        <v>0.1858175849119008</v>
       </c>
       <c r="H65" t="n">
-        <v>1.305190403458863</v>
+        <v>0.6567742215767756</v>
       </c>
       <c r="I65" t="n">
-        <v>0.371124606648745</v>
+        <v>0.1568814955727218</v>
       </c>
       <c r="J65" t="n">
-        <v>1.305190403458863</v>
+        <v>0.6567742215767756</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4241736214042205</v>
+        <v>0.1961964403432814</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.333985838660341</v>
+        <v>0.6981263616407345</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3363160622475949</v>
+        <v>0.1260196655406048</v>
       </c>
       <c r="D66" t="n">
-        <v>1.148993398679106</v>
+        <v>0.7229583373901796</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2908282794724921</v>
+        <v>0.1425290101379122</v>
       </c>
       <c r="F66" t="n">
-        <v>1.148993398679106</v>
+        <v>0.7229583373901796</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3380593990906938</v>
+        <v>0.1919072776242171</v>
       </c>
       <c r="H66" t="n">
-        <v>1.333985838660341</v>
+        <v>0.6981263616407345</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3841333065587997</v>
+        <v>0.1651778514556713</v>
       </c>
       <c r="J66" t="n">
-        <v>1.333985838660341</v>
+        <v>0.6981263616407345</v>
       </c>
       <c r="K66" t="n">
-        <v>0.4331923054366963</v>
+        <v>0.2039956348475636</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.36278127386182</v>
+        <v>0.7394785017046934</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3419092150505517</v>
+        <v>0.1434561772564705</v>
       </c>
       <c r="D67" t="n">
-        <v>1.179159148250815</v>
+        <v>0.7709210075573454</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3093577396678118</v>
+        <v>0.1516617535962269</v>
       </c>
       <c r="F67" t="n">
-        <v>1.179159148250815</v>
+        <v>0.7709210075573454</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3567795954371322</v>
+        <v>0.1978243053040816</v>
       </c>
       <c r="H67" t="n">
-        <v>1.36278127386182</v>
+        <v>0.7394785017046934</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3958959011093356</v>
+        <v>0.1734328699172511</v>
       </c>
       <c r="J67" t="n">
-        <v>1.36278127386182</v>
+        <v>0.7394785017046934</v>
       </c>
       <c r="K67" t="n">
-        <v>0.4406257589242716</v>
+        <v>0.2116830611490548</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.391576709063298</v>
+        <v>0.7808306417686528</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3474442224571042</v>
+        <v>0.161349593017189</v>
       </c>
       <c r="D68" t="n">
-        <v>1.209324897822525</v>
+        <v>0.8188836777245116</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3273676208714351</v>
+        <v>0.1608188573741992</v>
       </c>
       <c r="F68" t="n">
-        <v>1.209324897822525</v>
+        <v>0.8188836777245116</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3743491134406694</v>
+        <v>0.2036372856828173</v>
       </c>
       <c r="H68" t="n">
-        <v>1.391576709063298</v>
+        <v>0.7808306417686528</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4063357796338548</v>
+        <v>0.1816585658394326</v>
       </c>
       <c r="J68" t="n">
-        <v>1.391576709063298</v>
+        <v>0.7808306417686528</v>
       </c>
       <c r="K68" t="n">
-        <v>0.4464358850057793</v>
+        <v>0.2192326215366424</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.420372144264777</v>
+        <v>0.8221827818326117</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3529446891696406</v>
+        <v>0.179341865947434</v>
       </c>
       <c r="D69" t="n">
-        <v>1.239490647394235</v>
+        <v>0.8668463478916775</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3445719789944837</v>
+        <v>0.1699458934431511</v>
       </c>
       <c r="F69" t="n">
-        <v>1.239490647394235</v>
+        <v>0.8668463478916775</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3904610067745494</v>
+        <v>0.209377484607602</v>
       </c>
       <c r="H69" t="n">
-        <v>1.420372144264777</v>
+        <v>0.8221827818326117</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4153527241923192</v>
+        <v>0.1898140825408221</v>
       </c>
       <c r="J69" t="n">
-        <v>1.420372144264777</v>
+        <v>0.8221827818326117</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4507325687605407</v>
+        <v>0.2266234838129074</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.449167579466255</v>
+        <v>0.8635349218965707</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3584234903610835</v>
+        <v>0.1971175662104591</v>
       </c>
       <c r="D70" t="n">
-        <v>1.269656396965945</v>
+        <v>0.9148090180588433</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3608190897987476</v>
+        <v>0.1789911840147862</v>
       </c>
       <c r="F70" t="n">
-        <v>1.269656396965945</v>
+        <v>0.9148090180588433</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4048764631342874</v>
+        <v>0.2151180027070372</v>
       </c>
       <c r="H70" t="n">
-        <v>1.449167579466255</v>
+        <v>0.8635349218965707</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4229927687304458</v>
+        <v>0.1978951616861374</v>
       </c>
       <c r="J70" t="n">
-        <v>1.449167579466255</v>
+        <v>0.8635349218965707</v>
       </c>
       <c r="K70" t="n">
-        <v>0.4535247188815334</v>
+        <v>0.2338780207578296</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.477963014667734</v>
+        <v>0.9048870619605296</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3638802125531756</v>
+        <v>0.2143854346881092</v>
       </c>
       <c r="D71" t="n">
-        <v>1.299822146537655</v>
+        <v>0.9627716882260096</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3758823279852955</v>
+        <v>0.1879325648626516</v>
       </c>
       <c r="F71" t="n">
-        <v>1.299822146537655</v>
+        <v>0.9627716882260096</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4175938746789872</v>
+        <v>0.2208807366554339</v>
       </c>
       <c r="H71" t="n">
-        <v>1.477963014667734</v>
+        <v>0.9048870619605296</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4292959788515114</v>
+        <v>0.205891457509051</v>
       </c>
       <c r="J71" t="n">
-        <v>1.477963014667734</v>
+        <v>0.9048870619605296</v>
       </c>
       <c r="K71" t="n">
-        <v>0.4549039876243121</v>
+        <v>0.2409817401324409</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.506758449869212</v>
+        <v>0.946239202024489</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3693024807975081</v>
+        <v>0.2308552120472565</v>
       </c>
       <c r="D72" t="n">
-        <v>1.329987896109365</v>
+        <v>1.010734358393175</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3894827079354042</v>
+        <v>0.1967199044859147</v>
       </c>
       <c r="F72" t="n">
-        <v>1.329987896109365</v>
+        <v>1.010734358393175</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4283518486525234</v>
+        <v>0.2267144309484562</v>
       </c>
       <c r="H72" t="n">
-        <v>1.506758449869212</v>
+        <v>0.946239202024489</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4343348100196027</v>
+        <v>0.2137847571974224</v>
       </c>
       <c r="J72" t="n">
-        <v>1.506758449869212</v>
+        <v>0.946239202024489</v>
       </c>
       <c r="K72" t="n">
-        <v>0.4549351540616827</v>
+        <v>0.2479101339905214</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.53555388507069</v>
+        <v>0.9875913420884479</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3746672299138759</v>
+        <v>0.2463555647396178</v>
       </c>
       <c r="D73" t="n">
-        <v>1.360153645681074</v>
+        <v>1.058697028560342</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4016841117527008</v>
+        <v>0.2053366129646418</v>
       </c>
       <c r="F73" t="n">
-        <v>1.360153645681074</v>
+        <v>1.058697028560342</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4371748693320532</v>
+        <v>0.2326133597112059</v>
       </c>
       <c r="H73" t="n">
-        <v>1.53555388507069</v>
+        <v>0.9875913420884479</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4381160288976199</v>
+        <v>0.2215443441699678</v>
       </c>
       <c r="J73" t="n">
-        <v>1.53555388507069</v>
+        <v>0.9875913420884479</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4537556911381743</v>
+        <v>0.2546840489492446</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.564349320272169</v>
+        <v>1.028943482152407</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3799417338716939</v>
+        <v>0.2607192267533589</v>
       </c>
       <c r="D74" t="n">
-        <v>1.390319395252784</v>
+        <v>1.106659698727507</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4123149339303335</v>
+        <v>0.2137253241949593</v>
       </c>
       <c r="F74" t="n">
-        <v>1.390319395252784</v>
+        <v>1.106659698727507</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4441890453132877</v>
+        <v>0.2385710347578149</v>
       </c>
       <c r="H74" t="n">
-        <v>1.564349320272169</v>
+        <v>1.028943482152407</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4407527567588341</v>
+        <v>0.2291533224708426</v>
       </c>
       <c r="J74" t="n">
-        <v>1.564349320272169</v>
+        <v>1.028943482152407</v>
       </c>
       <c r="K74" t="n">
-        <v>0.4514639845568345</v>
+        <v>0.2612971653504275</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.593144755473647</v>
+        <v>1.070295622216366</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3850848324195955</v>
+        <v>0.2739184692047226</v>
       </c>
       <c r="D75" t="n">
-        <v>1.420485144824494</v>
+        <v>1.154622368894673</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4212376905791311</v>
+        <v>0.2218776632578262</v>
       </c>
       <c r="F75" t="n">
-        <v>1.420485144824494</v>
+        <v>1.154622368894673</v>
       </c>
       <c r="G75" t="n">
-        <v>0.449296638864646</v>
+        <v>0.2445822871757013</v>
       </c>
       <c r="H75" t="n">
-        <v>1.593144755473647</v>
+        <v>1.070295622216366</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4423944774712339</v>
+        <v>0.2365794936640251</v>
       </c>
       <c r="J75" t="n">
-        <v>1.593144755473647</v>
+        <v>1.070295622216366</v>
       </c>
       <c r="K75" t="n">
-        <v>0.4481990324807051</v>
+        <v>0.2677175239035805</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.621940190675126</v>
+        <v>1.111647762280325</v>
       </c>
       <c r="C76" t="n">
-        <v>0.390048303397257</v>
+        <v>0.2859525451116745</v>
       </c>
       <c r="D76" t="n">
-        <v>1.450650894396204</v>
+        <v>1.20258503906184</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4286542814631114</v>
+        <v>0.2297523573787807</v>
       </c>
       <c r="F76" t="n">
-        <v>1.450650894396204</v>
+        <v>1.20258503906184</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4526548774404586</v>
+        <v>0.2505902746868726</v>
       </c>
       <c r="H76" t="n">
-        <v>1.621940190675126</v>
+        <v>1.111647762280325</v>
       </c>
       <c r="I76" t="n">
-        <v>0.4430730035015019</v>
+        <v>0.2437560858655762</v>
       </c>
       <c r="J76" t="n">
-        <v>1.621940190675126</v>
+        <v>1.111647762280325</v>
       </c>
       <c r="K76" t="n">
-        <v>0.44410136952184</v>
+        <v>0.2739329847565819</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.650735625876604</v>
+        <v>1.152999902344284</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3947783498460752</v>
+        <v>0.2969193154647669</v>
       </c>
       <c r="D77" t="n">
-        <v>1.480816643967914</v>
+        <v>1.250547709229005</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4345061456152755</v>
+        <v>0.2373209053856985</v>
       </c>
       <c r="F77" t="n">
-        <v>1.480816643967914</v>
+        <v>1.250547709229005</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4544386649723878</v>
+        <v>0.2565311068123164</v>
       </c>
       <c r="H77" t="n">
-        <v>1.650735625876604</v>
+        <v>1.152999902344284</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4429538765244371</v>
+        <v>0.2506658090782438</v>
       </c>
       <c r="J77" t="n">
-        <v>1.650735625876604</v>
+        <v>1.152999902344284</v>
       </c>
       <c r="K77" t="n">
-        <v>0.4392677912191215</v>
+        <v>0.2799268539122302</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.679531061078082</v>
+        <v>1.194352042408243</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3992171899720441</v>
+        <v>0.3069562106262808</v>
       </c>
       <c r="D78" t="n">
-        <v>1.510982393539623</v>
+        <v>1.298510379396171</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4388028947040622</v>
+        <v>0.2445738300464244</v>
       </c>
       <c r="F78" t="n">
-        <v>1.510982393539623</v>
+        <v>1.298510379396171</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4547495096918519</v>
+        <v>0.2623611329252901</v>
       </c>
       <c r="H78" t="n">
-        <v>1.679531061078082</v>
+        <v>1.194352042408243</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4421355878203759</v>
+        <v>0.2572594307461018</v>
       </c>
       <c r="J78" t="n">
-        <v>1.679531061078082</v>
+        <v>1.194352042408243</v>
       </c>
       <c r="K78" t="n">
-        <v>0.4338034877820124</v>
+        <v>0.2856430381769564</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.708326496279561</v>
+        <v>1.235704182472202</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4033047514697448</v>
+        <v>0.3162318528786019</v>
       </c>
       <c r="D79" t="n">
-        <v>1.541148143111333</v>
+        <v>1.346473049563337</v>
       </c>
       <c r="E79" t="n">
-        <v>0.441783295686356</v>
+        <v>0.2514888006334196</v>
       </c>
       <c r="F79" t="n">
-        <v>1.541148143111333</v>
+        <v>1.346473049563337</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4537951210229411</v>
+        <v>0.2679732829911234</v>
       </c>
       <c r="H79" t="n">
-        <v>1.708326496279561</v>
+        <v>1.235704182472202</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4407362417859074</v>
+        <v>0.263497684081376</v>
       </c>
       <c r="J79" t="n">
-        <v>1.708326496279561</v>
+        <v>1.235704182472202</v>
       </c>
       <c r="K79" t="n">
-        <v>0.4278720642927317</v>
+        <v>0.2910475252121313</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.73712193148104</v>
+        <v>1.277056322536161</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4069804769317876</v>
+        <v>0.3249404967492661</v>
       </c>
       <c r="D80" t="n">
-        <v>1.571313892683043</v>
+        <v>1.394435719730503</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4434882259369586</v>
+        <v>0.258079491170009</v>
       </c>
       <c r="F80" t="n">
-        <v>1.571313892683043</v>
+        <v>1.394435719730503</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4517361358497934</v>
+        <v>0.2732904795556466</v>
       </c>
       <c r="H80" t="n">
-        <v>1.73712193148104</v>
+        <v>1.277056322536161</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4388678674553245</v>
+        <v>0.2693588403736792</v>
       </c>
       <c r="J80" t="n">
-        <v>1.73712193148104</v>
+        <v>1.277056322536161</v>
       </c>
       <c r="K80" t="n">
-        <v>0.4215799696526609</v>
+        <v>0.2961060724034505</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.765917366682518</v>
+        <v>1.31840846260012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4101852426651291</v>
+        <v>0.3332507971606046</v>
       </c>
       <c r="D81" t="n">
-        <v>1.601479642254753</v>
+        <v>1.442398389897669</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4440480294059285</v>
+        <v>0.2643630549169356</v>
       </c>
       <c r="F81" t="n">
-        <v>1.601479642254753</v>
+        <v>1.442398389897669</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4487155119306232</v>
+        <v>0.278233664051241</v>
       </c>
       <c r="H81" t="n">
-        <v>1.765917366682518</v>
+        <v>1.31840846260012</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4366287982395454</v>
+        <v>0.2748529625955808</v>
       </c>
       <c r="J81" t="n">
-        <v>1.765917366682518</v>
+        <v>1.31840846260012</v>
       </c>
       <c r="K81" t="n">
-        <v>0.4150318290610397</v>
+        <v>0.3007876929530205</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.794712801883996</v>
+        <v>1.359760602664079</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4128633794218619</v>
+        <v>0.3413235101069582</v>
       </c>
       <c r="D82" t="n">
-        <v>1.631645391826463</v>
+        <v>1.490361060064835</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4436796165148073</v>
+        <v>0.2703570328073716</v>
       </c>
       <c r="F82" t="n">
-        <v>1.631645391826463</v>
+        <v>1.490361060064835</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4449181909533587</v>
+        <v>0.2827429417363277</v>
       </c>
       <c r="H82" t="n">
-        <v>1.794712801883996</v>
+        <v>1.359760602664079</v>
       </c>
       <c r="I82" t="n">
-        <v>0.434137132780651</v>
+        <v>0.279988748315834</v>
       </c>
       <c r="J82" t="n">
-        <v>1.794712801883996</v>
+        <v>1.359760602664079</v>
       </c>
       <c r="K82" t="n">
-        <v>0.4083278506031802</v>
+        <v>0.3050256220057445</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.823508237085475</v>
+        <v>1.401112742728039</v>
       </c>
       <c r="C83" t="n">
-        <v>0.414964762100339</v>
+        <v>0.3492663577208066</v>
       </c>
       <c r="D83" t="n">
-        <v>1.661811141398172</v>
+        <v>1.538323730232001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4425199052376357</v>
+        <v>0.2761262627885431</v>
       </c>
       <c r="F83" t="n">
-        <v>1.661811141398172</v>
+        <v>1.538323730232001</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4404890908868841</v>
+        <v>0.2867395952382875</v>
       </c>
       <c r="H83" t="n">
-        <v>1.823508237085475</v>
+        <v>1.401112742728039</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4314819008036764</v>
+        <v>0.2848108918128418</v>
       </c>
       <c r="J83" t="n">
-        <v>1.823508237085475</v>
+        <v>1.401112742728039</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4015841970395706</v>
+        <v>0.3088179393147777</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.852303672286953</v>
+        <v>1.442464882791997</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4164469094827692</v>
+        <v>0.3571494745442767</v>
       </c>
       <c r="D84" t="n">
-        <v>1.691976890969882</v>
+        <v>1.586286400399167</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4407140064811008</v>
+        <v>0.2817213311630088</v>
       </c>
       <c r="F84" t="n">
-        <v>1.691976890969882</v>
+        <v>1.586286400399167</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4355793020761559</v>
+        <v>0.2902331620366288</v>
       </c>
       <c r="H84" t="n">
-        <v>1.852303672286953</v>
+        <v>1.442464882791997</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4287271790533375</v>
+        <v>0.2893542792560909</v>
       </c>
       <c r="J84" t="n">
-        <v>1.852303672286953</v>
+        <v>1.442464882791997</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3949032366979129</v>
+        <v>0.3121278382472342</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.881099107488432</v>
+        <v>1.483817022855956</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4172770085552479</v>
+        <v>0.3649843671510505</v>
       </c>
       <c r="D85" t="n">
-        <v>1.722142640541592</v>
+        <v>1.634249070566333</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4384362349856346</v>
+        <v>0.2871942531387414</v>
       </c>
       <c r="F85" t="n">
-        <v>1.722142640541592</v>
+        <v>1.634249070566333</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4303007759542555</v>
+        <v>0.2931921527250127</v>
       </c>
       <c r="H85" t="n">
-        <v>1.881099107488432</v>
+        <v>1.483817022855956</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4259709766611654</v>
+        <v>0.2937313916329633</v>
       </c>
       <c r="J85" t="n">
-        <v>1.881099107488432</v>
+        <v>1.483817022855956</v>
       </c>
       <c r="K85" t="n">
-        <v>0.388388867030926</v>
+        <v>0.3149517108615437</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.90989454268991</v>
+        <v>1.525169162919915</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4174337552802519</v>
+        <v>0.3727439373193779</v>
       </c>
       <c r="D86" t="n">
-        <v>1.752308390113302</v>
+        <v>1.682211740733499</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4358641436582461</v>
+        <v>0.2926054985318973</v>
       </c>
       <c r="F86" t="n">
-        <v>1.752308390113302</v>
+        <v>1.682211740733499</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4247776980934428</v>
+        <v>0.2956316486858827</v>
       </c>
       <c r="H86" t="n">
-        <v>1.90989454268991</v>
+        <v>1.525169162919915</v>
       </c>
       <c r="I86" t="n">
-        <v>0.423300238349432</v>
+        <v>0.2979933108724418</v>
       </c>
       <c r="J86" t="n">
-        <v>1.90989454268991</v>
+        <v>1.525169162919915</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3821317192493992</v>
+        <v>0.3173026574512409</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.938689977891388</v>
+        <v>1.566521302983875</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4169088890139793</v>
+        <v>0.3803335547630901</v>
       </c>
       <c r="D87" t="n">
-        <v>1.782474139685012</v>
+        <v>1.730174410900665</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4331546335399411</v>
+        <v>0.2980237965024782</v>
       </c>
       <c r="F87" t="n">
-        <v>1.782474139685012</v>
+        <v>1.730174410900665</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4191300153829819</v>
+        <v>0.2976123673009725</v>
       </c>
       <c r="H87" t="n">
-        <v>1.938689977891388</v>
+        <v>1.566521302983875</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4207538044890852</v>
+        <v>0.3021969765435676</v>
       </c>
       <c r="J87" t="n">
-        <v>1.938689977891388</v>
+        <v>1.566521302983875</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3761960334830538</v>
+        <v>0.3191700340680101</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.967485413092867</v>
+        <v>1.607873443047834</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4156858407239089</v>
+        <v>0.3876631625138815</v>
       </c>
       <c r="D88" t="n">
-        <v>1.812639889256721</v>
+        <v>1.778137081067831</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4304487427469099</v>
+        <v>0.3034421909068002</v>
       </c>
       <c r="F88" t="n">
-        <v>1.812639889256721</v>
+        <v>1.778137081067831</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4134606633370006</v>
+        <v>0.2991730205644776</v>
       </c>
       <c r="H88" t="n">
-        <v>1.967485413092867</v>
+        <v>1.607873443047834</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4183861921817052</v>
+        <v>0.3064720954820778</v>
       </c>
       <c r="J88" t="n">
-        <v>1.967485413092867</v>
+        <v>1.607873443047834</v>
       </c>
       <c r="K88" t="n">
-        <v>0.370670427997172</v>
+        <v>0.3205952187761103</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.996280848294345</v>
+        <v>1.649225583111793</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4138016164096278</v>
+        <v>0.3945377973796336</v>
       </c>
       <c r="D89" t="n">
-        <v>1.842805638828431</v>
+        <v>1.826099751234997</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4278510422445319</v>
+        <v>0.3089218586131806</v>
       </c>
       <c r="F89" t="n">
-        <v>1.842805638828431</v>
+        <v>1.826099751234997</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4078907491887648</v>
+        <v>0.3003741689097986</v>
       </c>
       <c r="H89" t="n">
-        <v>1.996280848294345</v>
+        <v>1.649225583111793</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4162715833091481</v>
+        <v>0.3108413772823321</v>
       </c>
       <c r="J89" t="n">
-        <v>1.996280848294345</v>
+        <v>1.649225583111793</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3656185129600712</v>
+        <v>0.3216240952777321</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.025076283495824</v>
+        <v>1.690577723175752</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4113023032137376</v>
+        <v>0.4008594855755374</v>
       </c>
       <c r="D90" t="n">
-        <v>1.872971388400141</v>
+        <v>1.874062421402163</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4254816098035077</v>
+        <v>0.3144228663361457</v>
       </c>
       <c r="F90" t="n">
-        <v>1.872971388400141</v>
+        <v>1.874062421402163</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4024621176099525</v>
+        <v>0.3013257879794528</v>
       </c>
       <c r="H90" t="n">
-        <v>2.025076283495824</v>
+        <v>1.690577723175752</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4144102735368136</v>
+        <v>0.3153144900240559</v>
       </c>
       <c r="J90" t="n">
-        <v>2.025076283495824</v>
+        <v>1.690577723175752</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3610838950880431</v>
+        <v>0.3222934818273636</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.053871718697303</v>
+        <v>1.731929863239711</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4082385037910043</v>
+        <v>0.4063488900365232</v>
       </c>
       <c r="D91" t="n">
-        <v>1.903137137971851</v>
+        <v>1.922025091569329</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4234444764840779</v>
+        <v>0.3199212260272807</v>
       </c>
       <c r="F91" t="n">
-        <v>1.903137137971851</v>
+        <v>1.922025091569329</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3972980843155499</v>
+        <v>0.3020731481524195</v>
       </c>
       <c r="H91" t="n">
-        <v>2.053871718697303</v>
+        <v>1.731929863239711</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4128344933013905</v>
+        <v>0.3199706340656864</v>
       </c>
       <c r="J91" t="n">
-        <v>2.053871718697303</v>
+        <v>1.731929863239711</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3571188171919484</v>
+        <v>0.3226418446525129</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.082667153898781</v>
+        <v>1.77328200330367</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4046727970659174</v>
+        <v>0.410961082698254</v>
       </c>
       <c r="D92" t="n">
-        <v>1.933302887543561</v>
+        <v>1.969987761736495</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4217373116270506</v>
+        <v>0.3253699568477744</v>
       </c>
       <c r="F92" t="n">
-        <v>1.933302887543561</v>
+        <v>1.969987761736495</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3924850478796594</v>
+        <v>0.3026933866536721</v>
       </c>
       <c r="H92" t="n">
-        <v>2.082667153898781</v>
+        <v>1.77328200330367</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4115605949031971</v>
+        <v>0.3247403988857917</v>
       </c>
       <c r="J92" t="n">
-        <v>2.082667153898781</v>
+        <v>1.77328200330367</v>
       </c>
       <c r="K92" t="n">
-        <v>0.3537073823059543</v>
+        <v>0.3227480287471172</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.111462589100259</v>
+        <v>1.814634143367629</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4006774916672662</v>
+        <v>0.4143630450812817</v>
       </c>
       <c r="D93" t="n">
-        <v>1.963468637115271</v>
+        <v>2.017950431903661</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4204151089766516</v>
+        <v>0.3306895338850352</v>
       </c>
       <c r="F93" t="n">
-        <v>1.963468637115271</v>
+        <v>2.017950431903661</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3880418516569404</v>
+        <v>0.3032503855864722</v>
       </c>
       <c r="H93" t="n">
-        <v>2.111462589100259</v>
+        <v>1.814634143367629</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4105640243942464</v>
+        <v>0.3296075692381373</v>
       </c>
       <c r="J93" t="n">
-        <v>2.111462589100259</v>
+        <v>1.814634143367629</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3508841835960009</v>
+        <v>0.3226665259080703</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.140258024301738</v>
+        <v>1.855986283431588</v>
       </c>
       <c r="C94" t="n">
-        <v>0.396331860589776</v>
+        <v>0.4166200317554223</v>
       </c>
       <c r="D94" t="n">
-        <v>1.99363438668698</v>
+        <v>2.065913102070827</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4195007283553075</v>
+        <v>0.3357950146886126</v>
       </c>
       <c r="F94" t="n">
-        <v>1.99363438668698</v>
+        <v>2.065913102070827</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3840729620766994</v>
+        <v>0.3037712954049829</v>
       </c>
       <c r="H94" t="n">
-        <v>2.140258024301738</v>
+        <v>1.855986283431588</v>
       </c>
       <c r="I94" t="n">
-        <v>0.4098508640029887</v>
+        <v>0.334509541995993</v>
       </c>
       <c r="J94" t="n">
-        <v>2.140258024301738</v>
+        <v>1.855986283431588</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3486369308486447</v>
+        <v>0.322434580053204</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.169053459503216</v>
+        <v>1.897338423495547</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3917190173595074</v>
+        <v>0.4173975198490425</v>
       </c>
       <c r="D95" t="n">
-        <v>2.02380013625869</v>
+        <v>2.113875772237993</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4188945357925505</v>
+        <v>0.3406021102088949</v>
       </c>
       <c r="F95" t="n">
-        <v>2.02380013625869</v>
+        <v>2.113875772237993</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3805620536906996</v>
+        <v>0.3042508258811877</v>
       </c>
       <c r="H95" t="n">
-        <v>2.169053459503216</v>
+        <v>1.897338423495547</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4093711056139611</v>
+        <v>0.339369161361011</v>
       </c>
       <c r="J95" t="n">
-        <v>2.169053459503216</v>
+        <v>1.897338423495547</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3469138614923405</v>
+        <v>0.3221063860492229</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.197848894704694</v>
+        <v>1.938690563559506</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3869226290082161</v>
+        <v>0.4169088832908157</v>
       </c>
       <c r="D96" t="n">
-        <v>2.0539658858304</v>
+        <v>2.161838442405159</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4185731540258408</v>
+        <v>0.3450085177396805</v>
       </c>
       <c r="F96" t="n">
-        <v>2.0539658858304</v>
+        <v>2.161838442405159</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3775442941755612</v>
+        <v>0.3047274345426268</v>
       </c>
       <c r="H96" t="n">
-        <v>2.197848894704694</v>
+        <v>1.938690563559506</v>
       </c>
       <c r="I96" t="n">
-        <v>0.40907152400324</v>
+        <v>0.3441129044764111</v>
       </c>
       <c r="J96" t="n">
-        <v>2.197848894704694</v>
+        <v>1.938690563559506</v>
       </c>
       <c r="K96" t="n">
-        <v>0.3457176541149417</v>
+        <v>0.3217324307336309</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.226644329906173</v>
+        <v>1.980042703623465</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3820236802134699</v>
+        <v>0.4148863747767704</v>
       </c>
       <c r="D97" t="n">
-        <v>2.08413163540211</v>
+        <v>2.209801112572325</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4184799086072397</v>
+        <v>0.3489411469878614</v>
       </c>
       <c r="F97" t="n">
-        <v>2.08413163540211</v>
+        <v>2.209801112572325</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3750356067502541</v>
+        <v>0.3051586631390195</v>
       </c>
       <c r="H97" t="n">
-        <v>2.226644329906173</v>
+        <v>1.980042703623465</v>
       </c>
       <c r="I97" t="n">
-        <v>0.4089133420227539</v>
+        <v>0.348624385319533</v>
       </c>
       <c r="J97" t="n">
-        <v>2.226644329906173</v>
+        <v>1.980042703623465</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3449900260266626</v>
+        <v>0.3213333572249353</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.255439765107651</v>
+        <v>2.021394843687424</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3770975031958294</v>
+        <v>0.4116822765421561</v>
       </c>
       <c r="D98" t="n">
-        <v>2.11429738497382</v>
+        <v>2.257763782739491</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4185029552904971</v>
+        <v>0.3523040964333617</v>
       </c>
       <c r="F98" t="n">
-        <v>2.11429738497382</v>
+        <v>2.257763782739491</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3729764415900457</v>
+        <v>0.3055047538395666</v>
       </c>
       <c r="H98" t="n">
-        <v>2.255439765107651</v>
+        <v>2.021394843687424</v>
       </c>
       <c r="I98" t="n">
-        <v>0.408825074702324</v>
+        <v>0.3528310144562667</v>
       </c>
       <c r="J98" t="n">
-        <v>2.255439765107651</v>
+        <v>2.021394843687424</v>
       </c>
       <c r="K98" t="n">
-        <v>0.344675538607047</v>
+        <v>0.3209243230139665</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.28423520030913</v>
+        <v>2.062746983751383</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3722112683998296</v>
+        <v>0.4071707168717762</v>
       </c>
       <c r="D99" t="n">
-        <v>2.144463134545529</v>
+        <v>2.305726452906657</v>
       </c>
       <c r="E99" t="n">
-        <v>0.418552882683493</v>
+        <v>0.3550669928285688</v>
       </c>
       <c r="F99" t="n">
-        <v>2.144463134545529</v>
+        <v>2.305726452906657</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3713608447471218</v>
+        <v>0.3057407631283705</v>
       </c>
       <c r="H99" t="n">
-        <v>2.28423520030913</v>
+        <v>2.062746983751383</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4087588742228815</v>
+        <v>0.3566654338861448</v>
       </c>
       <c r="J99" t="n">
-        <v>2.28423520030913</v>
+        <v>2.062746983751383</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3447190724627796</v>
+        <v>0.320522012830339</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.313030635510609</v>
+        <v>2.104099123815342</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3674220927130327</v>
+        <v>0.4017644054025543</v>
       </c>
       <c r="D100" t="n">
-        <v>2.174628884117239</v>
+        <v>2.353689123073823</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4185254917382625</v>
+        <v>0.3571440084109978</v>
       </c>
       <c r="F100" t="n">
-        <v>2.174628884117239</v>
+        <v>2.353689123073823</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3701184637645442</v>
+        <v>0.3057897294024592</v>
       </c>
       <c r="H100" t="n">
-        <v>2.313030635510609</v>
+        <v>2.104099123815342</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4086486505881045</v>
+        <v>0.3600101096025852</v>
       </c>
       <c r="J100" t="n">
-        <v>2.313030635510609</v>
+        <v>2.104099123815342</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3450830917253738</v>
+        <v>0.3201193764467425</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.341826070712087</v>
+        <v>2.145451263879302</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3627758681601089</v>
+        <v>0.3955143178925725</v>
       </c>
       <c r="D101" t="n">
-        <v>2.204794633688949</v>
+        <v>2.401651793240989</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4183508248205435</v>
+        <v>0.35856412916949</v>
       </c>
       <c r="F101" t="n">
-        <v>2.204794633688949</v>
+        <v>2.401651793240989</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3691785234486792</v>
+        <v>0.3056137496084186</v>
       </c>
       <c r="H101" t="n">
-        <v>2.341826070712087</v>
+        <v>2.145451263879302</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4084403916258832</v>
+        <v>0.3628372416427846</v>
       </c>
       <c r="J101" t="n">
-        <v>2.341826070712087</v>
+        <v>2.145451263879302</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3457099513675368</v>
+        <v>0.3197041745411998</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.370621505913565</v>
+        <v>2.18680340394326</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3583068496466211</v>
+        <v>0.3887907041209137</v>
       </c>
       <c r="D102" t="n">
-        <v>2.234960383260659</v>
+        <v>2.449614463408155</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4179483419272585</v>
+        <v>0.3592657791575545</v>
       </c>
       <c r="F102" t="n">
-        <v>2.234960383260659</v>
+        <v>2.449614463408155</v>
       </c>
       <c r="G102" t="n">
-        <v>0.368486758760122</v>
+        <v>0.3051286373764155</v>
       </c>
       <c r="H102" t="n">
-        <v>2.370621505913565</v>
+        <v>2.18680340394326</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4080686358495141</v>
+        <v>0.3651080699901151</v>
       </c>
       <c r="J102" t="n">
-        <v>2.370621505913565</v>
+        <v>2.18680340394326</v>
       </c>
       <c r="K102" t="n">
-        <v>0.3465487013394385</v>
+        <v>0.3192484596124529</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.399416941115044</v>
+        <v>2.228155544007219</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3540379717964415</v>
+        <v>0.3817649809624707</v>
       </c>
       <c r="D103" t="n">
-        <v>2.265126132832369</v>
+        <v>2.497577133575321</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4172169144968428</v>
+        <v>0.3593181890802884</v>
       </c>
       <c r="F103" t="n">
-        <v>2.265126132832369</v>
+        <v>2.497577133575321</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3679592474364378</v>
+        <v>0.3043059992325258</v>
       </c>
       <c r="H103" t="n">
-        <v>2.399416941115044</v>
+        <v>2.228155544007219</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4075230600323923</v>
+        <v>0.3667584061219843</v>
       </c>
       <c r="J103" t="n">
-        <v>2.399416941115044</v>
+        <v>2.228155544007219</v>
       </c>
       <c r="K103" t="n">
-        <v>0.3475639239104528</v>
+        <v>0.3187266294346513</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.428212376316522</v>
+        <v>2.269507684071179</v>
       </c>
       <c r="C104" t="n">
-        <v>0.349981799330112</v>
+        <v>0.3746969879729765</v>
       </c>
       <c r="D104" t="n">
-        <v>2.295291882404078</v>
+        <v>2.545539803742487</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4161301226336548</v>
+        <v>0.3586851668829083</v>
       </c>
       <c r="F104" t="n">
-        <v>2.295291882404078</v>
+        <v>2.545539803742487</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3675205381238942</v>
+        <v>0.3030704758185098</v>
       </c>
       <c r="H104" t="n">
-        <v>2.428212376316522</v>
+        <v>2.269507684071179</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4067863894359926</v>
+        <v>0.367807920351686</v>
       </c>
       <c r="J104" t="n">
-        <v>2.428212376316522</v>
+        <v>2.269507684071179</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3487188073005942</v>
+        <v>0.3181161772239208</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.457007811518</v>
+        <v>2.310859824135137</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3461419598207459</v>
+        <v>0.367780093951534</v>
       </c>
       <c r="D105" t="n">
-        <v>2.325457631975788</v>
+        <v>2.593502473909653</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4146542948607227</v>
+        <v>0.3574683444959041</v>
       </c>
       <c r="F105" t="n">
-        <v>2.325457631975788</v>
+        <v>2.593502473909653</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3671098074487796</v>
+        <v>0.3013871169836881</v>
       </c>
       <c r="H105" t="n">
-        <v>2.457007811518</v>
+        <v>2.310859824135137</v>
       </c>
       <c r="I105" t="n">
-        <v>0.4058426438046904</v>
+        <v>0.3682414937225449</v>
       </c>
       <c r="J105" t="n">
-        <v>2.457007811518</v>
+        <v>2.310859824135137</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3499843581498275</v>
+        <v>0.3173735671957719</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.485803246719479</v>
+        <v>2.352211964199097</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3425148682214618</v>
+        <v>0.3611342993961817</v>
       </c>
       <c r="D106" t="n">
-        <v>2.355623381547498</v>
+        <v>2.641465144076819</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4127469692267874</v>
+        <v>0.3556689805434523</v>
       </c>
       <c r="F106" t="n">
-        <v>2.355623381547498</v>
+        <v>2.641465144076819</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3666431796038525</v>
+        <v>0.2992184292506394</v>
       </c>
       <c r="H106" t="n">
-        <v>2.485803246719479</v>
+        <v>2.352211964199097</v>
       </c>
       <c r="I106" t="n">
-        <v>0.4046872922607277</v>
+        <v>0.3680937649522717</v>
       </c>
       <c r="J106" t="n">
-        <v>2.485803246719479</v>
+        <v>2.352211964199097</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3513395774253397</v>
+        <v>0.3164612181848366</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.514598681920957</v>
+        <v>2.393564104263055</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3390985071152216</v>
+        <v>0.3548972293758004</v>
       </c>
       <c r="D107" t="n">
-        <v>2.385789131119208</v>
+        <v>2.689427814243984</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4104128648712435</v>
+        <v>0.35335237467565</v>
       </c>
       <c r="F107" t="n">
-        <v>2.385789131119208</v>
+        <v>2.689427814243984</v>
       </c>
       <c r="G107" t="n">
-        <v>0.366104455635631</v>
+        <v>0.2965317755404405</v>
       </c>
       <c r="H107" t="n">
-        <v>2.514598681920957</v>
+        <v>2.393564104263055</v>
       </c>
       <c r="I107" t="n">
-        <v>0.4033762753267568</v>
+        <v>0.3673520847877265</v>
       </c>
       <c r="J107" t="n">
-        <v>2.514598681920957</v>
+        <v>2.393564104263055</v>
       </c>
       <c r="K107" t="n">
-        <v>0.352763970742658</v>
+        <v>0.3153596775988584</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.543394117122436</v>
+        <v>2.434916244327014</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3358741171291769</v>
+        <v>0.3490701212456928</v>
       </c>
       <c r="D108" t="n">
-        <v>2.415954880690918</v>
+        <v>2.737390484411151</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4076941553585236</v>
+        <v>0.3505724672515578</v>
       </c>
       <c r="F108" t="n">
-        <v>2.415954880690918</v>
+        <v>2.737390484411151</v>
       </c>
       <c r="G108" t="n">
-        <v>0.3654533441686604</v>
+        <v>0.2933487194620638</v>
       </c>
       <c r="H108" t="n">
-        <v>2.543394117122436</v>
+        <v>2.434916244327014</v>
       </c>
       <c r="I108" t="n">
-        <v>0.4019347998313943</v>
+        <v>0.3661052166180033</v>
       </c>
       <c r="J108" t="n">
-        <v>2.543394117122436</v>
+        <v>2.434916244327014</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3542358680061252</v>
+        <v>0.3140300687394923</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.572189552323914</v>
+        <v>2.476268384390974</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3328241841768267</v>
+        <v>0.3437117442495124</v>
       </c>
       <c r="D109" t="n">
-        <v>2.446120630262628</v>
+        <v>2.785353154578317</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4046051309140484</v>
+        <v>0.347346569028279</v>
       </c>
       <c r="F109" t="n">
-        <v>2.446120630262628</v>
+        <v>2.785353154578317</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3646776929652321</v>
+        <v>0.2896231133899093</v>
       </c>
       <c r="H109" t="n">
-        <v>2.572189552323914</v>
+        <v>2.476268384390974</v>
       </c>
       <c r="I109" t="n">
-        <v>0.400395029260884</v>
+        <v>0.3643490700031902</v>
       </c>
       <c r="J109" t="n">
-        <v>2.572189552323914</v>
+        <v>2.476268384390974</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3557443876871136</v>
+        <v>0.3124474660483789</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.600984987525393</v>
+        <v>2.517620524454932</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3299321642934208</v>
+        <v>0.3387585742117194</v>
       </c>
       <c r="D110" t="n">
-        <v>2.476286379834338</v>
+        <v>2.833315824745482</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4011762098760793</v>
+        <v>0.3436696432688617</v>
       </c>
       <c r="F110" t="n">
-        <v>2.476286379834338</v>
+        <v>2.833315824745482</v>
       </c>
       <c r="G110" t="n">
-        <v>0.363769280040952</v>
+        <v>0.2854292930413336</v>
       </c>
       <c r="H110" t="n">
-        <v>2.600984987525393</v>
+        <v>2.517620524454932</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3988229576209401</v>
+        <v>0.3621567700761947</v>
       </c>
       <c r="J110" t="n">
-        <v>2.600984987525393</v>
+        <v>2.517620524454932</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3572545822300464</v>
+        <v>0.3105999974276372</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.629780422726871</v>
+        <v>2.558972664518892</v>
       </c>
       <c r="C111" t="n">
-        <v>0.327180558471021</v>
+        <v>0.334212594351796</v>
       </c>
       <c r="D111" t="n">
-        <v>2.506452129406048</v>
+        <v>2.881278494912649</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3975012142219293</v>
+        <v>0.3395829062392645</v>
       </c>
       <c r="F111" t="n">
-        <v>2.506452129406048</v>
+        <v>2.881278494912649</v>
       </c>
       <c r="G111" t="n">
-        <v>0.362722878304189</v>
+        <v>0.2807743099093912</v>
       </c>
       <c r="H111" t="n">
-        <v>2.629780422726871</v>
+        <v>2.558972664518892</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3972566048592783</v>
+        <v>0.3595310554135043</v>
       </c>
       <c r="J111" t="n">
-        <v>2.629780422726871</v>
+        <v>2.558972664518892</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3587400527597281</v>
+        <v>0.3084721112158305</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.65857585792835</v>
+        <v>2.600324804582851</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3245507766612374</v>
+        <v>0.3299959126349887</v>
       </c>
       <c r="D112" t="n">
-        <v>2.536617878977757</v>
+        <v>2.929241165079815</v>
       </c>
       <c r="E112" t="n">
-        <v>0.393641250594129</v>
+        <v>0.3350112734880792</v>
       </c>
       <c r="F112" t="n">
-        <v>2.536617878977757</v>
+        <v>2.929241165079815</v>
       </c>
       <c r="G112" t="n">
-        <v>0.3615823679186979</v>
+        <v>0.2756905425949667</v>
       </c>
       <c r="H112" t="n">
-        <v>2.65857585792835</v>
+        <v>2.600324804582851</v>
       </c>
       <c r="I112" t="n">
-        <v>0.395754750540836</v>
+        <v>0.3565378102766326</v>
       </c>
       <c r="J112" t="n">
-        <v>2.65857585792835</v>
+        <v>2.600324804582851</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3601676259243353</v>
+        <v>0.3060474230476745</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.687371293129828</v>
+        <v>2.64167694464681</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3220225981550127</v>
+        <v>0.3260817858000488</v>
       </c>
       <c r="D113" t="n">
-        <v>2.566783628549467</v>
+        <v>2.97720383524698</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3896660055865601</v>
+        <v>0.3299165906511796</v>
       </c>
       <c r="F113" t="n">
-        <v>2.566783628549467</v>
+        <v>2.97720383524698</v>
       </c>
       <c r="G113" t="n">
-        <v>0.3603706753655044</v>
+        <v>0.2702667321546581</v>
       </c>
       <c r="H113" t="n">
-        <v>2.687371293129828</v>
+        <v>2.64167694464681</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3943215547243547</v>
+        <v>0.3531768314401821</v>
       </c>
       <c r="J113" t="n">
-        <v>2.687371293129828</v>
+        <v>2.64167694464681</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3614949463458821</v>
+        <v>0.3033081786580873</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.716166728331307</v>
+        <v>2.683029084710769</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3195733663722821</v>
+        <v>0.3223955204091833</v>
       </c>
       <c r="D114" t="n">
-        <v>2.596949378121177</v>
+        <v>3.025166505414147</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3856554191162686</v>
+        <v>0.3242557415803898</v>
       </c>
       <c r="F114" t="n">
-        <v>2.596949378121177</v>
+        <v>3.025166505414147</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3591178937591696</v>
+        <v>0.2645104107187158</v>
       </c>
       <c r="H114" t="n">
-        <v>2.716166728331307</v>
+        <v>2.683029084710769</v>
       </c>
       <c r="I114" t="n">
-        <v>0.392989131397551</v>
+        <v>0.3494272880356401</v>
       </c>
       <c r="J114" t="n">
-        <v>2.716166728331307</v>
+        <v>2.683029084710769</v>
       </c>
       <c r="K114" t="n">
-        <v>0.3626514881501436</v>
+        <v>0.3002678216614621</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.744962163532785</v>
+        <v>2.724381224774728</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3171770935766592</v>
+        <v>0.3188853294409319</v>
       </c>
       <c r="D115" t="n">
-        <v>2.627115127692887</v>
+        <v>3.073129175581313</v>
       </c>
       <c r="E115" t="n">
-        <v>0.381672842079688</v>
+        <v>0.3178732528255895</v>
       </c>
       <c r="F115" t="n">
-        <v>2.627115127692887</v>
+        <v>3.073129175581313</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3578307425978723</v>
+        <v>0.2585007045225511</v>
       </c>
       <c r="H115" t="n">
-        <v>2.744962163532785</v>
+        <v>2.724381224774728</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3917543611667488</v>
+        <v>0.3453252257697346</v>
       </c>
       <c r="J115" t="n">
-        <v>2.744962163532785</v>
+        <v>2.724381224774728</v>
       </c>
       <c r="K115" t="n">
-        <v>0.363559273683299</v>
+        <v>0.296918310035674</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.773757598734263</v>
+        <v>2.765733364838687</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3148036665627648</v>
+        <v>0.3154642038567064</v>
       </c>
       <c r="D116" t="n">
-        <v>2.657280877264597</v>
+        <v>3.121091845748478</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3777782206686943</v>
+        <v>0.3107821605089015</v>
       </c>
       <c r="F116" t="n">
-        <v>2.657280877264597</v>
+        <v>3.121091845748478</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3565207291129179</v>
+        <v>0.2522783579663343</v>
       </c>
       <c r="H116" t="n">
-        <v>2.773757598734263</v>
+        <v>2.765733364838687</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3905578928641283</v>
+        <v>0.3408284823982244</v>
       </c>
       <c r="J116" t="n">
-        <v>2.773757598734263</v>
+        <v>2.765733364838687</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3641511634286804</v>
+        <v>0.293244122664856</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.802553033935742</v>
+        <v>2.807085504902646</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3124183361391176</v>
+        <v>0.3120408711423562</v>
       </c>
       <c r="D117" t="n">
-        <v>2.687446626836306</v>
+        <v>3.169054515915644</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3740005525986485</v>
+        <v>0.3028200294897245</v>
       </c>
       <c r="F117" t="n">
-        <v>2.687446626836306</v>
+        <v>3.169054515915644</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3552220725986834</v>
+        <v>0.2458518202151025</v>
       </c>
       <c r="H117" t="n">
-        <v>2.802553033935742</v>
+        <v>2.807085504902646</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3893476308419692</v>
+        <v>0.3359001739613062</v>
       </c>
       <c r="J117" t="n">
-        <v>2.802553033935742</v>
+        <v>2.807085504902646</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3643422432796716</v>
+        <v>0.2892492395945318</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.83134846913722</v>
+        <v>2.848437644966605</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3099816422833114</v>
+        <v>0.3084947345660937</v>
       </c>
       <c r="D118" t="n">
-        <v>2.717612376408016</v>
+        <v>3.217017186082811</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3703578858276044</v>
+        <v>0.2940092025383228</v>
       </c>
       <c r="F118" t="n">
-        <v>2.717612376408016</v>
+        <v>3.217017186082811</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3539190497209656</v>
+        <v>0.2392447436782581</v>
       </c>
       <c r="H118" t="n">
-        <v>2.83134846913722</v>
+        <v>2.848437644966605</v>
       </c>
       <c r="I118" t="n">
-        <v>0.3880486277510794</v>
+        <v>0.330503220849336</v>
       </c>
       <c r="J118" t="n">
-        <v>2.83134846913722</v>
+        <v>2.848437644966605</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3640228162213216</v>
+        <v>0.2848938431132753</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.860143904338698</v>
+        <v>2.889789785030564</v>
       </c>
       <c r="C119" t="n">
-        <v>0.307449876913553</v>
+        <v>0.3046957819017377</v>
       </c>
       <c r="D119" t="n">
-        <v>2.747778125979726</v>
+        <v>3.264979856249977</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3668296318590993</v>
+        <v>0.2842594983113481</v>
       </c>
       <c r="F119" t="n">
-        <v>2.747778125979726</v>
+        <v>3.264979856249977</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3525490823194205</v>
+        <v>0.2324511610148628</v>
       </c>
       <c r="H119" t="n">
-        <v>2.860143904338698</v>
+        <v>2.889789785030564</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3865296619621512</v>
+        <v>0.3246055981566178</v>
       </c>
       <c r="J119" t="n">
-        <v>2.860143904338698</v>
+        <v>2.889789785030564</v>
       </c>
       <c r="K119" t="n">
-        <v>0.3630941971032463</v>
+        <v>0.2801890689548392</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.888939339540177</v>
+        <v>2.931141925094523</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3047761232573843</v>
+        <v>0.30049381401257</v>
       </c>
       <c r="D120" t="n">
-        <v>2.777943875551436</v>
+        <v>3.312942526417142</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3633785804550512</v>
+        <v>0.2736188682830499</v>
       </c>
       <c r="F120" t="n">
-        <v>2.777943875551436</v>
+        <v>3.312942526417142</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3511021373080905</v>
+        <v>0.2254576458357462</v>
       </c>
       <c r="H120" t="n">
-        <v>2.888939339540177</v>
+        <v>2.931141925094523</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3846243500779251</v>
+        <v>0.318169008454198</v>
       </c>
       <c r="J120" t="n">
-        <v>2.888939339540177</v>
+        <v>2.931141925094523</v>
       </c>
       <c r="K120" t="n">
-        <v>0.3614396829430973</v>
+        <v>0.2751304753019279</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.917734774741656</v>
+        <v>2.972494065158482</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3019118422338888</v>
+        <v>0.2957593848025368</v>
       </c>
       <c r="D121" t="n">
-        <v>2.808109625123146</v>
+        <v>3.360905196584309</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3599181169881005</v>
+        <v>0.2621192352592205</v>
       </c>
       <c r="F121" t="n">
-        <v>2.808109625123146</v>
+        <v>3.360905196584309</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3494995673749329</v>
+        <v>0.2182277095051394</v>
       </c>
       <c r="H121" t="n">
-        <v>2.917734774741656</v>
+        <v>2.972494065158482</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3822161213579364</v>
+        <v>0.3111269548384691</v>
       </c>
       <c r="J121" t="n">
-        <v>2.917734774741656</v>
+        <v>2.972494065158482</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3590220305066744</v>
+        <v>0.2696899400812012</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.946530209943134</v>
+        <v>3.013846205222441</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2988089100867119</v>
+        <v>0.2903504268458387</v>
       </c>
       <c r="D122" t="n">
-        <v>2.838275374694855</v>
+        <v>3.408867866751475</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3563549690058095</v>
+        <v>0.2498424959154735</v>
       </c>
       <c r="F122" t="n">
-        <v>2.838275374694855</v>
+        <v>3.408867866751475</v>
       </c>
       <c r="G122" t="n">
-        <v>0.3476921258807323</v>
+        <v>0.210738896623906</v>
       </c>
       <c r="H122" t="n">
-        <v>2.946530209943134</v>
+        <v>3.013846205222441</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3791179295235695</v>
+        <v>0.3034728651737318</v>
       </c>
       <c r="J122" t="n">
-        <v>2.946530209943134</v>
+        <v>3.013846205222441</v>
       </c>
       <c r="K122" t="n">
-        <v>0.355696601266595</v>
+        <v>0.2638563488385582</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.975325645144613</v>
+        <v>3.055198345286401</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2954219552918405</v>
+        <v>0.2842018120781075</v>
       </c>
       <c r="D123" t="n">
-        <v>2.868441124266565</v>
+        <v>3.45683053691864</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3525962273805973</v>
+        <v>0.2369419173188827</v>
       </c>
       <c r="F123" t="n">
-        <v>2.868441124266565</v>
+        <v>3.45683053691864</v>
       </c>
       <c r="G123" t="n">
-        <v>0.3455672015672041</v>
+        <v>0.20296658766774</v>
       </c>
       <c r="H123" t="n">
-        <v>2.975325645144613</v>
+        <v>3.055198345286401</v>
       </c>
       <c r="I123" t="n">
-        <v>0.3751663145900361</v>
+        <v>0.2951774078641501</v>
       </c>
       <c r="J123" t="n">
-        <v>2.975325645144613</v>
+        <v>3.055198345286401</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3513935371478686</v>
+        <v>0.2576138508565753</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.004121080346091</v>
+        <v>3.096550485350359</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2917108028006137</v>
+        <v>0.2772304110324794</v>
       </c>
       <c r="D124" t="n">
-        <v>2.898606873838275</v>
+        <v>3.504793207085807</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3484846217877254</v>
+        <v>0.2235052116819571</v>
       </c>
       <c r="F124" t="n">
-        <v>2.898606873838275</v>
+        <v>3.504793207085807</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3429933480163179</v>
+        <v>0.1948499205940566</v>
       </c>
       <c r="H124" t="n">
-        <v>3.004121080346091</v>
+        <v>3.096550485350359</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3702263101266244</v>
+        <v>0.286259877388495</v>
       </c>
       <c r="J124" t="n">
-        <v>3.004121080346091</v>
+        <v>3.096550485350359</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3461141774258102</v>
+        <v>0.2509615563815616</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.032916515547569</v>
+        <v>3.137902625414319</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2876428142493485</v>
+        <v>0.2694808325236637</v>
       </c>
       <c r="D125" t="n">
-        <v>2.928772623409985</v>
+        <v>3.552755877252973</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3439038416201415</v>
+        <v>0.2097907796343355</v>
       </c>
       <c r="F125" t="n">
-        <v>2.928772623409985</v>
+        <v>3.552755877252973</v>
       </c>
       <c r="G125" t="n">
-        <v>0.3399053701937248</v>
+        <v>0.1864167758620977</v>
       </c>
       <c r="H125" t="n">
-        <v>3.032916515547569</v>
+        <v>3.137902625414319</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3640768257843131</v>
+        <v>0.2766522263039339</v>
       </c>
       <c r="J125" t="n">
-        <v>3.032916515547569</v>
+        <v>3.137902625414319</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3397550390149273</v>
+        <v>0.2439214208875713</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.061711950749048</v>
+        <v>3.179254765478277</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2831797197115314</v>
+        <v>0.2609600922025994</v>
       </c>
       <c r="D126" t="n">
-        <v>2.958938372981695</v>
+        <v>3.600718547420138</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3387620539603736</v>
+        <v>0.1959231775562039</v>
       </c>
       <c r="F126" t="n">
-        <v>2.958938372981695</v>
+        <v>3.600718547420138</v>
       </c>
       <c r="G126" t="n">
-        <v>0.3362050688124459</v>
+        <v>0.1776216538779655</v>
       </c>
       <c r="H126" t="n">
-        <v>3.061711950749048</v>
+        <v>3.179254765478277</v>
       </c>
       <c r="I126" t="n">
-        <v>0.3567175050710019</v>
+        <v>0.2664992458353733</v>
       </c>
       <c r="J126" t="n">
-        <v>3.061711950749048</v>
+        <v>3.179254765478277</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3323452771434674</v>
+        <v>0.2364814990057384</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.090507385950526</v>
+        <v>3.220606905542236</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2783212346265155</v>
+        <v>0.2518143946892887</v>
       </c>
       <c r="D127" t="n">
-        <v>2.989104122553405</v>
+        <v>3.648681217587304</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3329009759837125</v>
+        <v>0.1821334779224966</v>
       </c>
       <c r="F127" t="n">
-        <v>2.989104122553405</v>
+        <v>3.648681217587304</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3317900618020651</v>
+        <v>0.1685240494140206</v>
       </c>
       <c r="H127" t="n">
-        <v>3.090507385950526</v>
+        <v>3.220606905542236</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3480409425910933</v>
+        <v>0.2557737952699448</v>
       </c>
       <c r="J127" t="n">
-        <v>3.090507385950526</v>
+        <v>3.220606905542236</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3238907584044057</v>
+        <v>0.2286690554110139</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.119302821152004</v>
+        <v>3.261959045606196</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2730723749049296</v>
+        <v>0.2421330085549301</v>
       </c>
       <c r="D128" t="n">
-        <v>3.019269872125114</v>
+        <v>3.696643887754471</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3262557653227618</v>
+        <v>0.168591641273042</v>
       </c>
       <c r="F128" t="n">
-        <v>3.019269872125114</v>
+        <v>3.696643887754471</v>
       </c>
       <c r="G128" t="n">
-        <v>0.3265518557407999</v>
+        <v>0.1591461605858524</v>
       </c>
       <c r="H128" t="n">
-        <v>3.119302821152004</v>
+        <v>3.261959045606196</v>
       </c>
       <c r="I128" t="n">
-        <v>0.3379848247652598</v>
+        <v>0.2445503970926135</v>
       </c>
       <c r="J128" t="n">
-        <v>3.119302821152004</v>
+        <v>3.261959045606196</v>
       </c>
       <c r="K128" t="n">
-        <v>0.3143866631084355</v>
+        <v>0.220514347272219</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.148098256353483</v>
+        <v>3.303311185670154</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2674468165879735</v>
+        <v>0.232103951431755</v>
       </c>
       <c r="D129" t="n">
-        <v>3.049435621696824</v>
+        <v>3.744606557921636</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3188110570375425</v>
+        <v>0.1554654986727724</v>
       </c>
       <c r="F129" t="n">
-        <v>3.049435621696824</v>
+        <v>3.744606557921636</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3204351810359465</v>
+        <v>0.1495494549531321</v>
       </c>
       <c r="H129" t="n">
-        <v>3.148098256353483</v>
+        <v>3.303311185670154</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3266650196605613</v>
+        <v>0.2329551772307825</v>
       </c>
       <c r="J129" t="n">
-        <v>3.148098256353483</v>
+        <v>3.303311185670154</v>
       </c>
       <c r="K129" t="n">
-        <v>0.3039548171104671</v>
+        <v>0.2120364684746625</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.176893691554961</v>
+        <v>3.344663325734114</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2614696035533011</v>
+        <v>0.221858182435427</v>
       </c>
       <c r="D130" t="n">
-        <v>3.079601371268534</v>
+        <v>3.792569228088802</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3105229439448199</v>
+        <v>0.1429152782651117</v>
       </c>
       <c r="F130" t="n">
-        <v>3.079601371268534</v>
+        <v>3.792569228088802</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3133720945808627</v>
+        <v>0.1398390019851917</v>
       </c>
       <c r="H130" t="n">
-        <v>3.176893691554961</v>
+        <v>3.344663325734114</v>
       </c>
       <c r="I130" t="n">
-        <v>0.3140704137744644</v>
+        <v>0.2210692433443745</v>
       </c>
       <c r="J130" t="n">
-        <v>3.176893691554961</v>
+        <v>3.344663325734114</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2926422760381663</v>
+        <v>0.2033073347016308</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.20568912675644</v>
+        <v>3.386015465798073</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2551757681788611</v>
+        <v>0.2115508690183132</v>
       </c>
       <c r="D131" t="n">
-        <v>3.109767120840244</v>
+        <v>3.840531898255969</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3013448846134644</v>
+        <v>0.1310243498722599</v>
       </c>
       <c r="F131" t="n">
-        <v>3.109767120840244</v>
+        <v>3.840531898255969</v>
       </c>
       <c r="G131" t="n">
-        <v>0.3053637493616088</v>
+        <v>0.1300741184278153</v>
       </c>
       <c r="H131" t="n">
-        <v>3.20568912675644</v>
+        <v>3.386015465798073</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3003437904240154</v>
+        <v>0.2090115304102109</v>
       </c>
       <c r="J131" t="n">
-        <v>3.20568912675644</v>
+        <v>3.386015465798073</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2805231731001931</v>
+        <v>0.194363243832279</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.234484561957919</v>
+        <v>3.427367605862031</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2486083943857685</v>
+        <v>0.2013064381950465</v>
       </c>
       <c r="D132" t="n">
-        <v>3.139932870411954</v>
+        <v>3.888494568423134</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2913823450136434</v>
+        <v>0.1198953506285709</v>
       </c>
       <c r="F132" t="n">
-        <v>3.139932870411954</v>
+        <v>3.888494568423134</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2964061236670619</v>
+        <v>0.1203652766013723</v>
       </c>
       <c r="H132" t="n">
-        <v>3.234484561957919</v>
+        <v>3.427367605862031</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2856524528598023</v>
+        <v>0.1968975261662479</v>
       </c>
       <c r="J132" t="n">
-        <v>3.234484561957919</v>
+        <v>3.427367605862031</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2677490134815445</v>
+        <v>0.1852410988106993</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.263279997159397</v>
+        <v>3.468719745925991</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2418162805207535</v>
+        <v>0.1912001148169806</v>
       </c>
       <c r="D133" t="n">
-        <v>3.170098619983663</v>
+        <v>3.9364572385903</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2806904002817957</v>
+        <v>0.1095346992521012</v>
       </c>
       <c r="F133" t="n">
-        <v>3.170098619983663</v>
+        <v>3.9364572385903</v>
       </c>
       <c r="G133" t="n">
-        <v>0.2865242344691331</v>
+        <v>0.1108158612831491</v>
       </c>
       <c r="H133" t="n">
-        <v>3.263279997159397</v>
+        <v>3.468719745925991</v>
       </c>
       <c r="I133" t="n">
-        <v>0.270201770690258</v>
+        <v>0.1848762652064713</v>
       </c>
       <c r="J133" t="n">
-        <v>3.263279997159397</v>
+        <v>3.468719745925991</v>
       </c>
       <c r="K133" t="n">
-        <v>0.2544436383772346</v>
+        <v>0.1759874188728991</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.292075432360875</v>
+        <v>3.51007188598995</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2348513855986556</v>
+        <v>0.181318782502303</v>
       </c>
       <c r="D134" t="n">
-        <v>3.200264369555373</v>
+        <v>3.984419908757467</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2693289681699104</v>
+        <v>0.09999581446523836</v>
       </c>
       <c r="F134" t="n">
-        <v>3.200264369555373</v>
+        <v>3.984419908757467</v>
       </c>
       <c r="G134" t="n">
-        <v>0.2758134119010754</v>
+        <v>0.1015293194208451</v>
       </c>
       <c r="H134" t="n">
-        <v>3.292075432360875</v>
+        <v>3.51007188598995</v>
       </c>
       <c r="I134" t="n">
-        <v>0.25418230607789</v>
+        <v>0.1730565649577461</v>
       </c>
       <c r="J134" t="n">
-        <v>3.292075432360875</v>
+        <v>3.51007188598995</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2407233303163226</v>
+        <v>0.1666706410584181</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.320870867562354</v>
+        <v>3.551424026053909</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2277662506434819</v>
+        <v>0.1716568661601834</v>
       </c>
       <c r="D135" t="n">
-        <v>3.230430119127083</v>
+        <v>4.032382578924632</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2574180241886191</v>
+        <v>0.09121158638982114</v>
       </c>
       <c r="F135" t="n">
-        <v>3.230430119127083</v>
+        <v>4.032382578924632</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2643112321073303</v>
+        <v>0.09259521959946822</v>
       </c>
       <c r="H135" t="n">
-        <v>3.320870867562354</v>
+        <v>3.551424026053909</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2378100124287053</v>
+        <v>0.1615354171795416</v>
       </c>
       <c r="J135" t="n">
-        <v>3.320870867562354</v>
+        <v>3.551424026053909</v>
       </c>
       <c r="K135" t="n">
-        <v>0.22670859979835</v>
+        <v>0.1573369221620433</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.349666302763832</v>
+        <v>3.592776166117868</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2206115775932195</v>
+        <v>0.1622597047781799</v>
       </c>
       <c r="D136" t="n">
-        <v>3.260595868698793</v>
+        <v>4.080345249091798</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2450743315811546</v>
+        <v>0.08318321501269156</v>
       </c>
       <c r="F136" t="n">
-        <v>3.260595868698793</v>
+        <v>4.080345249091798</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2521288893757367</v>
+        <v>0.0840777399006194</v>
       </c>
       <c r="H136" t="n">
-        <v>3.349666302763832</v>
+        <v>3.592776166117868</v>
       </c>
       <c r="I136" t="n">
-        <v>0.2213212064688745</v>
+        <v>0.1504106271684441</v>
       </c>
       <c r="J136" t="n">
-        <v>3.349666302763832</v>
+        <v>3.592776166117868</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2125847144579611</v>
+        <v>0.1480252767550528</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.37846173796531</v>
+        <v>3.634128306181827</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2134341235295472</v>
+        <v>0.1530737265737968</v>
       </c>
       <c r="D137" t="n">
-        <v>3.290761618270503</v>
+        <v>4.128307919258964</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2324162664523387</v>
+        <v>0.07583379189823715</v>
       </c>
       <c r="F137" t="n">
-        <v>3.290761618270503</v>
+        <v>4.128307919258964</v>
       </c>
       <c r="G137" t="n">
-        <v>0.2394266301202458</v>
+        <v>0.07606043352274726</v>
       </c>
       <c r="H137" t="n">
-        <v>3.37846173796531</v>
+        <v>3.634128306181827</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2049271407361858</v>
+        <v>0.1397901224880954</v>
       </c>
       <c r="J137" t="n">
-        <v>3.37846173796531</v>
+        <v>3.634128306181827</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1984549500433375</v>
+        <v>0.138790143013615</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.407257173166789</v>
+        <v>3.675480446245786</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2062750312815711</v>
+        <v>0.1441185505116972</v>
       </c>
       <c r="D138" t="n">
-        <v>3.320927367842213</v>
+        <v>4.17627058942613</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2195856520805269</v>
+        <v>0.0690977725383511</v>
       </c>
       <c r="F138" t="n">
-        <v>3.320927367842213</v>
+        <v>4.17627058942613</v>
       </c>
       <c r="G138" t="n">
-        <v>0.2263478980888545</v>
+        <v>0.06858248614035699</v>
       </c>
       <c r="H138" t="n">
-        <v>3.407257173166789</v>
+        <v>3.675480446245786</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1888476346405488</v>
+        <v>0.1296693625335589</v>
       </c>
       <c r="J138" t="n">
-        <v>3.407257173166789</v>
+        <v>3.675480446245786</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1844552667771433</v>
+        <v>0.1296662905692514</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.436052608368267</v>
+        <v>3.716832586309745</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1991686730616146</v>
+        <v>0.1353310029354197</v>
       </c>
       <c r="D139" t="n">
-        <v>3.351093117413923</v>
+        <v>4.224233259593296</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2066735985119747</v>
+        <v>0.06294098704536903</v>
       </c>
       <c r="F139" t="n">
-        <v>3.351093117413923</v>
+        <v>4.224233259593296</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2130512074008985</v>
+        <v>0.06165069756818149</v>
       </c>
       <c r="H139" t="n">
-        <v>3.436052608368267</v>
+        <v>3.716832586309745</v>
       </c>
       <c r="I139" t="n">
-        <v>0.173200045783235</v>
+        <v>0.1201104492791977</v>
       </c>
       <c r="J139" t="n">
-        <v>3.436052608368267</v>
+        <v>3.716832586309745</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1706897953739532</v>
+        <v>0.1206886381835802</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.464848043569746</v>
+        <v>3.758184726373704</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1921420364507595</v>
+        <v>0.1267259466922131</v>
       </c>
       <c r="D140" t="n">
-        <v>3.381258866985632</v>
+        <v>4.272195929760462</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1938396756202197</v>
+        <v>0.0572670049946987</v>
       </c>
       <c r="F140" t="n">
-        <v>3.381258866985632</v>
+        <v>4.272195929760462</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1996924695394744</v>
+        <v>0.05532209419286968</v>
       </c>
       <c r="H140" t="n">
-        <v>3.464848043569746</v>
+        <v>3.758184726373704</v>
       </c>
       <c r="I140" t="n">
-        <v>0.1581678698611367</v>
+        <v>0.111144796277829</v>
       </c>
       <c r="J140" t="n">
-        <v>3.464848043569746</v>
+        <v>3.758184726373704</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1572668358034089</v>
+        <v>0.1118991990806401</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.493643478771224</v>
+        <v>3.799536866437663</v>
       </c>
       <c r="C141" t="n">
-        <v>0.185214636394882</v>
+        <v>0.1182544250973054</v>
       </c>
       <c r="D141" t="n">
-        <v>3.411424616557342</v>
+        <v>4.320158599927628</v>
       </c>
       <c r="E141" t="n">
-        <v>0.1811752959538051</v>
+        <v>0.05206588133741716</v>
       </c>
       <c r="F141" t="n">
-        <v>3.411424616557342</v>
+        <v>4.320158599927628</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1863759719044767</v>
+        <v>0.04955227533922238</v>
       </c>
       <c r="H141" t="n">
-        <v>3.493643478771224</v>
+        <v>3.799536866437663</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1438850155995298</v>
+        <v>0.1027426636416207</v>
       </c>
       <c r="J141" t="n">
-        <v>3.493643478771224</v>
+        <v>3.799536866437663</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1443303633827034</v>
+        <v>0.1033430695825811</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.522438913972703</v>
+        <v>3.840889006501623</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1783988969903358</v>
+        <v>0.1099389441290881</v>
       </c>
       <c r="D142" t="n">
-        <v>3.441590366129052</v>
+        <v>4.368121270094794</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1687471350384374</v>
+        <v>0.04725379705262833</v>
       </c>
       <c r="F142" t="n">
-        <v>3.441590366129052</v>
+        <v>4.368121270094794</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1732943499449535</v>
+        <v>0.04433755959051744</v>
       </c>
       <c r="H142" t="n">
-        <v>3.522438913972703</v>
+        <v>3.840889006501623</v>
       </c>
       <c r="I142" t="n">
-        <v>0.1303839320341854</v>
+        <v>0.0948688406199056</v>
       </c>
       <c r="J142" t="n">
-        <v>3.522438913972703</v>
+        <v>3.840889006501623</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1318891485245911</v>
+        <v>0.09505508483339402</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.551234349174181</v>
+        <v>3.882241146565581</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1717009159304411</v>
+        <v>0.1017519654259593</v>
       </c>
       <c r="D143" t="n">
-        <v>3.471756115700762</v>
+        <v>4.41608394026196</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1567373891179514</v>
+        <v>0.04283553949526419</v>
       </c>
       <c r="F143" t="n">
-        <v>3.471756115700762</v>
+        <v>4.41608394026196</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1605517182196207</v>
+        <v>0.03965072161044051</v>
       </c>
       <c r="H143" t="n">
-        <v>3.551234349174181</v>
+        <v>3.882241146565581</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1177580545763927</v>
+        <v>0.0875573241027679</v>
       </c>
       <c r="J143" t="n">
-        <v>3.551234349174181</v>
+        <v>3.882241146565581</v>
       </c>
       <c r="K143" t="n">
-        <v>0.12003294063989</v>
+        <v>0.08706974345191613</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.580029784375659</v>
+        <v>3.92359328662954</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1651215046148597</v>
+        <v>0.0937301905560491</v>
       </c>
       <c r="D144" t="n">
-        <v>3.501921865272472</v>
+        <v>4.464046610429127</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1451444529517589</v>
+        <v>0.03875776554499175</v>
       </c>
       <c r="F144" t="n">
-        <v>3.501921865272472</v>
+        <v>4.464046610429127</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1482574280720121</v>
+        <v>0.03544240311134326</v>
       </c>
       <c r="H144" t="n">
-        <v>3.580029784375659</v>
+        <v>3.92359328662954</v>
       </c>
       <c r="I144" t="n">
-        <v>0.1060418043910205</v>
+        <v>0.08072423104078284</v>
       </c>
       <c r="J144" t="n">
-        <v>3.580029784375659</v>
+        <v>3.92359328662954</v>
       </c>
       <c r="K144" t="n">
-        <v>0.108848482913923</v>
+        <v>0.07941405963394882</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.608825219577138</v>
+        <v>3.964945426693499</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1586618645956024</v>
+        <v>0.08586240477621908</v>
       </c>
       <c r="D145" t="n">
-        <v>3.532087614844182</v>
+        <v>4.512009280596292</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1340228192099568</v>
+        <v>0.03501072978316943</v>
       </c>
       <c r="F145" t="n">
-        <v>3.532087614844182</v>
+        <v>4.512009280596292</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1365291837725348</v>
+        <v>0.03167151447403018</v>
       </c>
       <c r="H145" t="n">
-        <v>3.608825219577138</v>
+        <v>3.964945426693499</v>
       </c>
       <c r="I145" t="n">
-        <v>0.09522135486379606</v>
+        <v>0.07434029099805578</v>
       </c>
       <c r="J145" t="n">
-        <v>3.608825219577138</v>
+        <v>3.964945426693499</v>
       </c>
       <c r="K145" t="n">
-        <v>0.09833576017073939</v>
+        <v>0.07212421489143069</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.637620654778616</v>
+        <v>4.006297566757459</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1523114869837369</v>
+        <v>0.07820258777061209</v>
       </c>
       <c r="D146" t="n">
-        <v>3.562253364415891</v>
+        <v>4.559971950763458</v>
       </c>
       <c r="E146" t="n">
-        <v>0.123486375405914</v>
+        <v>0.031583722193056</v>
       </c>
       <c r="F146" t="n">
-        <v>3.562253364415891</v>
+        <v>4.559971950763458</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1253684607584982</v>
+        <v>0.02830014232989535</v>
       </c>
       <c r="H146" t="n">
-        <v>3.637620654778616</v>
+        <v>4.006297566757459</v>
       </c>
       <c r="I146" t="n">
-        <v>0.08527743553230997</v>
+        <v>0.06841637741817475</v>
       </c>
       <c r="J146" t="n">
-        <v>3.637620654778616</v>
+        <v>4.006297566757459</v>
       </c>
       <c r="K146" t="n">
-        <v>0.08852584606210592</v>
+        <v>0.06522731283684716</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.666416089980095</v>
+        <v>4.047649706821417</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1460617746572198</v>
+        <v>0.07074965224400842</v>
       </c>
       <c r="D147" t="n">
-        <v>3.592419113987601</v>
+        <v>4.607934620930624</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1135384623933706</v>
+        <v>0.02845636659727939</v>
       </c>
       <c r="F147" t="n">
-        <v>3.592419113987601</v>
+        <v>4.607934620930624</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1148818991609442</v>
+        <v>0.02527203692081654</v>
       </c>
       <c r="H147" t="n">
-        <v>3.666416089980095</v>
+        <v>4.047649706821417</v>
       </c>
       <c r="I147" t="n">
-        <v>0.07619842568939131</v>
+        <v>0.06286976000048644</v>
       </c>
       <c r="J147" t="n">
-        <v>3.666416089980095</v>
+        <v>4.047649706821417</v>
       </c>
       <c r="K147" t="n">
-        <v>0.07942529337809999</v>
+        <v>0.05876398795865728</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.695211525181573</v>
+        <v>4.089001846885376</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1399044931956618</v>
+        <v>0.06357441170441087</v>
       </c>
       <c r="D148" t="n">
-        <v>3.622584863559311</v>
+        <v>4.65589729109779</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1041695169447728</v>
+        <v>0.02560052061284534</v>
       </c>
       <c r="F148" t="n">
-        <v>3.622584863559311</v>
+        <v>4.65589729109779</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1050371677371716</v>
+        <v>0.02254821218814737</v>
       </c>
       <c r="H148" t="n">
-        <v>3.695211525181573</v>
+        <v>4.089001846885376</v>
       </c>
       <c r="I148" t="n">
-        <v>0.06798763665618547</v>
+        <v>0.05769861865410388</v>
       </c>
       <c r="J148" t="n">
-        <v>3.695211525181573</v>
+        <v>4.089001846885376</v>
       </c>
       <c r="K148" t="n">
-        <v>0.07105135451919634</v>
+        <v>0.05273016213393401</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.724006960383051</v>
+        <v>4.130353986949336</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1338318518661887</v>
+        <v>0.05668038656432527</v>
       </c>
       <c r="D149" t="n">
-        <v>3.652750613131021</v>
+        <v>4.703859961264956</v>
       </c>
       <c r="E149" t="n">
-        <v>0.09542263153416911</v>
+        <v>0.02303301772824045</v>
       </c>
       <c r="F149" t="n">
-        <v>3.652750613131021</v>
+        <v>4.703859961264956</v>
       </c>
       <c r="G149" t="n">
-        <v>0.09585894736690215</v>
+        <v>0.02008976796140296</v>
       </c>
       <c r="H149" t="n">
-        <v>3.724006960383051</v>
+        <v>4.130353986949336</v>
       </c>
       <c r="I149" t="n">
-        <v>0.06052767631869008</v>
+        <v>0.05289051303852941</v>
       </c>
       <c r="J149" t="n">
-        <v>3.724006960383051</v>
+        <v>4.130353986949336</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06339519850395879</v>
+        <v>0.04714445011951485</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.75280239558453</v>
+        <v>4.171706127013294</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1278371534452933</v>
+        <v>0.05014889744935383</v>
       </c>
       <c r="D150" t="n">
-        <v>3.682916362702731</v>
+        <v>4.751822631432122</v>
       </c>
       <c r="E150" t="n">
-        <v>0.08725706520423923</v>
+        <v>0.02070767826502097</v>
       </c>
       <c r="F150" t="n">
-        <v>3.682916362702731</v>
+        <v>4.751822631432122</v>
       </c>
       <c r="G150" t="n">
-        <v>0.08738147012325857</v>
+        <v>0.01786542994274675</v>
       </c>
       <c r="H150" t="n">
-        <v>3.75280239558453</v>
+        <v>4.171706127013294</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05379919711575287</v>
+        <v>0.04839741138466509</v>
       </c>
       <c r="J150" t="n">
-        <v>3.75280239558453</v>
+        <v>4.171706127013294</v>
       </c>
       <c r="K150" t="n">
-        <v>0.05641592583256202</v>
+        <v>0.0420281324735187</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.781597830786009</v>
+        <v>4.213058267077253</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1219152439605658</v>
+        <v>0.04398093594450218</v>
       </c>
       <c r="D151" t="n">
-        <v>3.71308211227444</v>
+        <v>4.799785301599288</v>
       </c>
       <c r="E151" t="n">
-        <v>0.07967382869114056</v>
+        <v>0.01862665046821134</v>
       </c>
       <c r="F151" t="n">
-        <v>3.71308211227444</v>
+        <v>4.799785301599288</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07952288833747714</v>
+        <v>0.01584275556362279</v>
       </c>
       <c r="H151" t="n">
-        <v>3.781597830786009</v>
+        <v>4.213058267077253</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0477909749251083</v>
+        <v>0.04420847691418948</v>
       </c>
       <c r="J151" t="n">
-        <v>3.781597830786009</v>
+        <v>4.213058267077253</v>
       </c>
       <c r="K151" t="n">
-        <v>0.05008417229478342</v>
+        <v>0.03735317669601858</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.810393265987488</v>
+        <v>4.254410407141213</v>
       </c>
       <c r="C152" t="n">
-        <v>0.11606278538496</v>
+        <v>0.03825478197388563</v>
       </c>
       <c r="D152" t="n">
-        <v>3.74324786184615</v>
+        <v>4.847747971766454</v>
       </c>
       <c r="E152" t="n">
-        <v>0.07264941922646828</v>
+        <v>0.01674109147343976</v>
       </c>
       <c r="F152" t="n">
-        <v>3.74324786184615</v>
+        <v>4.847747971766454</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07228605821042654</v>
+        <v>0.01401450484326834</v>
       </c>
       <c r="H152" t="n">
-        <v>3.810393265987488</v>
+        <v>4.254410407141213</v>
       </c>
       <c r="I152" t="n">
-        <v>0.04238212958682185</v>
+        <v>0.04031754621462724</v>
       </c>
       <c r="J152" t="n">
-        <v>3.810393265987488</v>
+        <v>4.254410407141213</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0443759501332442</v>
+        <v>0.03313022430700867</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.839188701188966</v>
+        <v>4.295762547205172</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1102783862559856</v>
+        <v>0.03296080106246691</v>
       </c>
       <c r="D153" t="n">
-        <v>3.77341361141786</v>
+        <v>4.89571064193362</v>
       </c>
       <c r="E153" t="n">
-        <v>0.06613366470617159</v>
+        <v>0.0150347406643743</v>
       </c>
       <c r="F153" t="n">
-        <v>3.77341361141786</v>
+        <v>4.89571064193362</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06559338477075208</v>
+        <v>0.0123520924435225</v>
       </c>
       <c r="H153" t="n">
-        <v>3.839188701188966</v>
+        <v>4.295762547205172</v>
       </c>
       <c r="I153" t="n">
-        <v>0.03753435583092115</v>
+        <v>0.03669966739880896</v>
       </c>
       <c r="J153" t="n">
-        <v>3.839188701188966</v>
+        <v>4.295762547205172</v>
       </c>
       <c r="K153" t="n">
-        <v>0.03925970082045645</v>
+        <v>0.02933566707677816</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.867984136390444</v>
+        <v>4.33711468726913</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1045626299614371</v>
+        <v>0.02815782633842845</v>
       </c>
       <c r="D154" t="n">
-        <v>3.80357936098957</v>
+        <v>4.943673312100786</v>
       </c>
       <c r="E154" t="n">
-        <v>0.06006850880325625</v>
+        <v>0.01348741136684338</v>
       </c>
       <c r="F154" t="n">
-        <v>3.80357936098957</v>
+        <v>4.943673312100786</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05945153809657093</v>
+        <v>0.01085519491768797</v>
       </c>
       <c r="H154" t="n">
-        <v>3.867984136390444</v>
+        <v>4.33711468726913</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03325340512194312</v>
+        <v>0.03332684552681365</v>
       </c>
       <c r="J154" t="n">
-        <v>3.867984136390444</v>
+        <v>4.33711468726913</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0346974111330987</v>
+        <v>0.02593410785133774</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.896779571591923</v>
+        <v>4.37846682733309</v>
       </c>
       <c r="C155" t="n">
-        <v>0.09891803843137739</v>
+        <v>0.02382070747664961</v>
       </c>
       <c r="D155" t="n">
-        <v>3.83374511056128</v>
+        <v>4.991635982267952</v>
       </c>
       <c r="E155" t="n">
-        <v>0.05447169549522703</v>
+        <v>0.01207529886630808</v>
       </c>
       <c r="F155" t="n">
-        <v>3.83374511056128</v>
+        <v>4.991635982267952</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05382014021695018</v>
+        <v>0.009513084824642989</v>
       </c>
       <c r="H155" t="n">
-        <v>3.896779571591923</v>
+        <v>4.37846682733309</v>
       </c>
       <c r="I155" t="n">
-        <v>0.02943415870358321</v>
+        <v>0.03020727194717747</v>
       </c>
       <c r="J155" t="n">
-        <v>3.896779571591923</v>
+        <v>4.37846682733309</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0306116790761814</v>
+        <v>0.02291042442585672</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.925575006793401</v>
+        <v>4.419818967397049</v>
       </c>
       <c r="C156" t="n">
-        <v>0.09334900147747999</v>
+        <v>0.01997777240122181</v>
       </c>
       <c r="D156" t="n">
-        <v>3.863910860132989</v>
+        <v>5.039598652435118</v>
       </c>
       <c r="E156" t="n">
-        <v>0.04926966564415559</v>
+        <v>0.01078695573213752</v>
       </c>
       <c r="F156" t="n">
-        <v>3.863910860132989</v>
+        <v>5.039598652435118</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04863090581174874</v>
+        <v>0.008315109275212737</v>
       </c>
       <c r="H156" t="n">
-        <v>3.925575006793401</v>
+        <v>4.419818967397049</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0260247857189199</v>
+        <v>0.02730537538013118</v>
       </c>
       <c r="J156" t="n">
-        <v>3.925575006793401</v>
+        <v>4.419818967397049</v>
       </c>
       <c r="K156" t="n">
-        <v>0.02697004912441629</v>
+        <v>0.02022552348152961</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.95437044199488</v>
+        <v>4.461171107461007</v>
       </c>
       <c r="C157" t="n">
-        <v>0.08786169095278611</v>
+        <v>0.01659005436011395</v>
       </c>
       <c r="D157" t="n">
-        <v>3.894076609704699</v>
+        <v>5.087561322602284</v>
       </c>
       <c r="E157" t="n">
-        <v>0.04441477580877549</v>
+        <v>0.009595982043912864</v>
       </c>
       <c r="F157" t="n">
-        <v>3.894076609704699</v>
+        <v>5.087561322602284</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04385682249070272</v>
+        <v>0.007260504366367152</v>
       </c>
       <c r="H157" t="n">
-        <v>3.95437044199488</v>
+        <v>4.461171107461007</v>
       </c>
       <c r="I157" t="n">
-        <v>0.02300122853648319</v>
+        <v>0.02461693181561302</v>
       </c>
       <c r="J157" t="n">
-        <v>3.95437044199488</v>
+        <v>4.461171107461007</v>
       </c>
       <c r="K157" t="n">
-        <v>0.02375558389909945</v>
+        <v>0.01786214398941966</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.983165877196358</v>
+        <v>4.502523247524968</v>
       </c>
       <c r="C158" t="n">
-        <v>0.08246396654230577</v>
+        <v>0.01365492813469837</v>
       </c>
       <c r="D158" t="n">
-        <v>3.924242359276409</v>
+        <v>5.13552399276945</v>
       </c>
       <c r="E158" t="n">
-        <v>0.03991014731056981</v>
+        <v>0.008510187502134227</v>
       </c>
       <c r="F158" t="n">
-        <v>3.924242359276409</v>
+        <v>5.13552399276945</v>
       </c>
       <c r="G158" t="n">
-        <v>0.03945248826029532</v>
+        <v>0.006339179626126284</v>
       </c>
       <c r="H158" t="n">
-        <v>3.983165877196358</v>
+        <v>4.502523247524968</v>
       </c>
       <c r="I158" t="n">
-        <v>0.02034422691700736</v>
+        <v>0.02212259889442186</v>
       </c>
       <c r="J158" t="n">
-        <v>3.983165877196358</v>
+        <v>4.502523247524968</v>
       </c>
       <c r="K158" t="n">
-        <v>0.02090924044550807</v>
+        <v>0.01577007565326384</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.011961312397836</v>
+        <v>4.543875387588926</v>
       </c>
       <c r="C159" t="n">
-        <v>0.07716526861494703</v>
+        <v>0.01112689101463695</v>
       </c>
       <c r="D159" t="n">
-        <v>3.954408108848119</v>
+        <v>5.183486662936616</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03572643511421507</v>
+        <v>0.007505918775345256</v>
       </c>
       <c r="F159" t="n">
-        <v>3.954408108848119</v>
+        <v>5.183486662936616</v>
       </c>
       <c r="G159" t="n">
-        <v>0.03542270175340415</v>
+        <v>0.00555417134094009</v>
       </c>
       <c r="H159" t="n">
-        <v>4.011961312397836</v>
+        <v>4.543875387588926</v>
       </c>
       <c r="I159" t="n">
-        <v>0.01797157385650738</v>
+        <v>0.01980572800540798</v>
       </c>
       <c r="J159" t="n">
-        <v>4.011961312397836</v>
+        <v>4.543875387588926</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0183769963556405</v>
+        <v>0.01391390288212015</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.040756747599315</v>
+        <v>4.585227527652885</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0719764851152575</v>
+        <v>0.00898084968348547</v>
       </c>
       <c r="D160" t="n">
-        <v>3.984573858419829</v>
+        <v>5.231449333103781</v>
       </c>
       <c r="E160" t="n">
-        <v>0.03182625196668023</v>
+        <v>0.0065808613213892</v>
       </c>
       <c r="F160" t="n">
-        <v>3.984573858419829</v>
+        <v>5.231449333103781</v>
       </c>
       <c r="G160" t="n">
-        <v>0.03171333917453141</v>
+        <v>0.004894616511396584</v>
       </c>
       <c r="H160" t="n">
-        <v>4.040756747599315</v>
+        <v>4.585227527652885</v>
       </c>
       <c r="I160" t="n">
-        <v>0.01586004929200967</v>
+        <v>0.01766838147650662</v>
       </c>
       <c r="J160" t="n">
-        <v>4.040756747599315</v>
+        <v>4.585227527652885</v>
       </c>
       <c r="K160" t="n">
-        <v>0.01614190009726408</v>
+        <v>0.01227703294193702</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.069552182800793</v>
+        <v>4.626579667716845</v>
       </c>
       <c r="C161" t="n">
-        <v>0.06690977528819179</v>
+        <v>0.007173154129426576</v>
       </c>
       <c r="D161" t="n">
-        <v>4.014739607991539</v>
+        <v>5.279412003270948</v>
       </c>
       <c r="E161" t="n">
-        <v>0.02821437605828087</v>
+        <v>0.00572363120528738</v>
       </c>
       <c r="F161" t="n">
-        <v>4.014739607991539</v>
+        <v>5.279412003270948</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02830051861281598</v>
+        <v>0.00435072633916981</v>
       </c>
       <c r="H161" t="n">
-        <v>4.069552182800793</v>
+        <v>4.626579667716845</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01398666042819582</v>
+        <v>0.01569377579515414</v>
       </c>
       <c r="J161" t="n">
-        <v>4.069552182800793</v>
+        <v>4.626579667716845</v>
       </c>
       <c r="K161" t="n">
-        <v>0.01417307667299466</v>
+        <v>0.01081851023402642</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.098347618002271</v>
+        <v>4.667931807780803</v>
       </c>
       <c r="C162" t="n">
-        <v>0.06197833367052091</v>
+        <v>0.005667530010031315</v>
       </c>
       <c r="D162" t="n">
-        <v>4.044905357563248</v>
+        <v>5.327374673438114</v>
       </c>
       <c r="E162" t="n">
-        <v>0.02487056801758105</v>
+        <v>0.004938704781682787</v>
       </c>
       <c r="F162" t="n">
-        <v>4.044905357563248</v>
+        <v>5.327374673438114</v>
       </c>
       <c r="G162" t="n">
-        <v>0.02515985640782693</v>
+        <v>0.003916863105387642</v>
       </c>
       <c r="H162" t="n">
-        <v>4.098347618002271</v>
+        <v>4.667931807780803</v>
       </c>
       <c r="I162" t="n">
-        <v>0.01231644731740262</v>
+        <v>0.01386845711849143</v>
       </c>
       <c r="J162" t="n">
-        <v>4.098347618002271</v>
+        <v>4.667931807780803</v>
       </c>
       <c r="K162" t="n">
-        <v>0.01242708670996719</v>
+        <v>0.009525776700751346</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.12714305320375</v>
+        <v>4.709283947844762</v>
       </c>
       <c r="C163" t="n">
-        <v>0.05719608297954699</v>
+        <v>0.004427587886196157</v>
       </c>
       <c r="D163" t="n">
-        <v>4.075071107134958</v>
+        <v>5.375337343605279</v>
       </c>
       <c r="E163" t="n">
-        <v>0.02179898679111063</v>
+        <v>0.004225291689946313</v>
       </c>
       <c r="F163" t="n">
-        <v>4.075071107134958</v>
+        <v>5.375337343605279</v>
       </c>
       <c r="G163" t="n">
-        <v>0.02229925441877441</v>
+        <v>0.003580331641381152</v>
       </c>
       <c r="H163" t="n">
-        <v>4.12714305320375</v>
+        <v>4.709283947844762</v>
       </c>
       <c r="I163" t="n">
-        <v>0.01081923401055169</v>
+        <v>0.0121865449197063</v>
       </c>
       <c r="J163" t="n">
-        <v>4.12714305320375</v>
+        <v>4.709283947844762</v>
       </c>
       <c r="K163" t="n">
-        <v>0.01087730842351294</v>
+        <v>0.00837619502264599</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.155938488405228</v>
+        <v>4.750636087908722</v>
       </c>
       <c r="C164" t="n">
-        <v>0.05258497779738599</v>
+        <v>0.003414747241302579</v>
       </c>
       <c r="D164" t="n">
-        <v>4.105236856706668</v>
+        <v>5.423300013772446</v>
       </c>
       <c r="E164" t="n">
-        <v>0.01898457424072993</v>
+        <v>0.003575313040431697</v>
       </c>
       <c r="F164" t="n">
-        <v>4.105236856706668</v>
+        <v>5.423300013772446</v>
       </c>
       <c r="G164" t="n">
-        <v>0.01969763853689441</v>
+        <v>0.003329532178318235</v>
       </c>
       <c r="H164" t="n">
-        <v>4.155938488405228</v>
+        <v>4.750636087908722</v>
       </c>
       <c r="I164" t="n">
-        <v>0.009484506640386548</v>
+        <v>0.01064366806770128</v>
       </c>
       <c r="J164" t="n">
-        <v>4.155938488405228</v>
+        <v>4.750636087908722</v>
       </c>
       <c r="K164" t="n">
-        <v>0.009494694355732877</v>
+        <v>0.007343863870328132</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.184733923606707</v>
+        <v>4.791988227972681</v>
       </c>
       <c r="C165" t="n">
-        <v>0.04815347923543844</v>
+        <v>0.002601237970027044</v>
       </c>
       <c r="D165" t="n">
-        <v>4.135402606278378</v>
+        <v>5.471262683939612</v>
       </c>
       <c r="E165" t="n">
-        <v>0.01641994797285703</v>
+        <v>0.002997565401659342</v>
       </c>
       <c r="F165" t="n">
-        <v>4.135402606278378</v>
+        <v>5.471262683939612</v>
       </c>
       <c r="G165" t="n">
-        <v>0.01731091759388241</v>
+        <v>0.003149588320770608</v>
       </c>
       <c r="H165" t="n">
-        <v>4.184733923606707</v>
+        <v>4.791988227972681</v>
       </c>
       <c r="I165" t="n">
-        <v>0.008292202839576842</v>
+        <v>0.009226634945638242</v>
       </c>
       <c r="J165" t="n">
-        <v>4.184733923606707</v>
+        <v>4.791988227972681</v>
       </c>
       <c r="K165" t="n">
-        <v>0.008278403717609141</v>
+        <v>0.006419793640478764</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.213529358808185</v>
+        <v>4.833340368036639</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04391428783498461</v>
+        <v>0.001951164734312737</v>
       </c>
       <c r="D166" t="n">
-        <v>4.165568355850088</v>
+        <v>5.519225354106777</v>
       </c>
       <c r="E166" t="n">
-        <v>0.01410373944380466</v>
+        <v>0.002496139332485744</v>
       </c>
       <c r="F166" t="n">
-        <v>4.165568355850088</v>
+        <v>5.519225354106777</v>
       </c>
       <c r="G166" t="n">
-        <v>0.01512579575546033</v>
+        <v>0.003025162480837108</v>
       </c>
       <c r="H166" t="n">
-        <v>4.213529358808185</v>
+        <v>4.833340368036639</v>
       </c>
       <c r="I166" t="n">
-        <v>0.007226084361909016</v>
+        <v>0.007944386420089948</v>
       </c>
       <c r="J166" t="n">
-        <v>4.213529358808185</v>
+        <v>4.833340368036639</v>
       </c>
       <c r="K166" t="n">
-        <v>0.007202947257173098</v>
+        <v>0.005590934837887491</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.242324794009663</v>
+        <v>4.874692508100598</v>
       </c>
       <c r="C167" t="n">
-        <v>0.03987965239943564</v>
+        <v>0.001444181299946386</v>
       </c>
       <c r="D167" t="n">
-        <v>4.195734105421797</v>
+        <v>5.567188024273944</v>
       </c>
       <c r="E167" t="n">
-        <v>0.01202796947595617</v>
+        <v>0.002052433525135702</v>
       </c>
       <c r="F167" t="n">
-        <v>4.195734105421797</v>
+        <v>5.567188024273944</v>
       </c>
       <c r="G167" t="n">
-        <v>0.01314559575061933</v>
+        <v>0.002942574021228621</v>
       </c>
       <c r="H167" t="n">
-        <v>4.242324794009663</v>
+        <v>4.874692508100598</v>
       </c>
       <c r="I167" t="n">
-        <v>0.006271149944582807</v>
+        <v>0.006790760001380426</v>
       </c>
       <c r="J167" t="n">
-        <v>4.242324794009663</v>
+        <v>4.874692508100598</v>
       </c>
       <c r="K167" t="n">
-        <v>0.006247055827916988</v>
+        <v>0.004847108020292546</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.271120229211142</v>
+        <v>4.916044648164558</v>
       </c>
       <c r="C168" t="n">
-        <v>0.03606014840234143</v>
+        <v>0.001049377227793399</v>
       </c>
       <c r="D168" t="n">
-        <v>4.225899854993507</v>
+        <v>5.61515069444111</v>
       </c>
       <c r="E168" t="n">
-        <v>0.01018790726573596</v>
+        <v>0.001675523448381719</v>
       </c>
       <c r="F168" t="n">
-        <v>4.225899854993507</v>
+        <v>5.61515069444111</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0113589565096037</v>
+        <v>0.002889012984267189</v>
       </c>
       <c r="H168" t="n">
-        <v>4.271120229211142</v>
+        <v>4.916044648164558</v>
       </c>
       <c r="I168" t="n">
-        <v>0.005416181050798851</v>
+        <v>0.005757958067832785</v>
       </c>
       <c r="J168" t="n">
-        <v>4.271120229211142</v>
+        <v>4.916044648164558</v>
       </c>
       <c r="K168" t="n">
-        <v>0.005395438228592621</v>
+        <v>0.00418339694754894</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.29991566441262</v>
+        <v>4.957396788228516</v>
       </c>
       <c r="C169" t="n">
-        <v>0.03246425088918674</v>
+        <v>0.0007520515240061395</v>
       </c>
       <c r="D169" t="n">
-        <v>4.256065604565217</v>
+        <v>5.663113364608275</v>
       </c>
       <c r="E169" t="n">
-        <v>0.008565882282975524</v>
+        <v>0.001353706105841476</v>
       </c>
       <c r="F169" t="n">
-        <v>4.256065604565217</v>
+        <v>5.663113364608275</v>
       </c>
       <c r="G169" t="n">
-        <v>0.009748016385144748</v>
+        <v>0.002854221317395742</v>
       </c>
       <c r="H169" t="n">
-        <v>4.29991566441262</v>
+        <v>4.957396788228516</v>
       </c>
       <c r="I169" t="n">
-        <v>0.00465193709044462</v>
+        <v>0.004840833694642505</v>
       </c>
       <c r="J169" t="n">
-        <v>4.29991566441262</v>
+        <v>4.957396788228516</v>
       </c>
       <c r="K169" t="n">
-        <v>0.004656745363079111</v>
+        <v>0.003590158885651833</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.328711099614099</v>
+        <v>4.998748928292475</v>
       </c>
       <c r="C170" t="n">
-        <v>0.02909799804778893</v>
+        <v>0.0005273328985186208</v>
       </c>
       <c r="D170" t="n">
-        <v>4.286231354136927</v>
+        <v>5.711076034775441</v>
       </c>
       <c r="E170" t="n">
-        <v>0.007139158722767489</v>
+        <v>0.001084809305938173</v>
       </c>
       <c r="F170" t="n">
-        <v>4.286231354136927</v>
+        <v>5.711076034775441</v>
       </c>
       <c r="G170" t="n">
-        <v>0.008322513394339009</v>
+        <v>0.002828387323083419</v>
       </c>
       <c r="H170" t="n">
-        <v>4.328711099614099</v>
+        <v>4.998748928292475</v>
       </c>
       <c r="I170" t="n">
-        <v>0.003974060530833878</v>
+        <v>0.004042164152864896</v>
       </c>
       <c r="J170" t="n">
-        <v>4.328711099614099</v>
+        <v>4.998748928292475</v>
       </c>
       <c r="K170" t="n">
-        <v>0.004002804287077965</v>
+        <v>0.003064080568827617</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.357506534815577</v>
+        <v>5.040101068356435</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02596476945722824</v>
+        <v>0.00036481414896219</v>
       </c>
       <c r="D171" t="n">
-        <v>4.316397103708637</v>
+        <v>5.759038704942608</v>
       </c>
       <c r="E171" t="n">
-        <v>0.005909549313049205</v>
+        <v>0.0008672690871136633</v>
       </c>
       <c r="F171" t="n">
-        <v>4.316397103708637</v>
+        <v>5.759038704942608</v>
       </c>
       <c r="G171" t="n">
-        <v>0.007052675993809807</v>
+        <v>0.002798454626350887</v>
       </c>
       <c r="H171" t="n">
-        <v>4.357506534815577</v>
+        <v>5.040101068356435</v>
       </c>
       <c r="I171" t="n">
-        <v>0.003372364666268155</v>
+        <v>0.003345786352403292</v>
       </c>
       <c r="J171" t="n">
-        <v>4.357506534815577</v>
+        <v>5.040101068356435</v>
       </c>
       <c r="K171" t="n">
-        <v>0.003432937473922396</v>
+        <v>0.002602286565810968</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.386301970017056</v>
+        <v>5.081453208420394</v>
       </c>
       <c r="C172" t="n">
-        <v>0.02306519276020991</v>
+        <v>0.0002460074379297318</v>
       </c>
       <c r="D172" t="n">
-        <v>4.346562853280346</v>
+        <v>5.807001375109774</v>
       </c>
       <c r="E172" t="n">
-        <v>0.004855085307559152</v>
+        <v>0.0006891201114796961</v>
       </c>
       <c r="F172" t="n">
-        <v>4.346562853280346</v>
+        <v>5.807001375109774</v>
       </c>
       <c r="G172" t="n">
-        <v>0.005929791091851863</v>
+        <v>0.002756495483146895</v>
       </c>
       <c r="H172" t="n">
-        <v>4.386301970017056</v>
+        <v>5.081453208420394</v>
       </c>
       <c r="I172" t="n">
-        <v>0.002846300756749522</v>
+        <v>0.002746264392571147</v>
       </c>
       <c r="J172" t="n">
-        <v>4.386301970017056</v>
+        <v>5.081453208420394</v>
       </c>
       <c r="K172" t="n">
-        <v>0.002934778860364943</v>
+        <v>0.002201313925556393</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.415097405218535</v>
+        <v>5.122805348484352</v>
       </c>
       <c r="C173" t="n">
-        <v>0.02039718096808837</v>
+        <v>0.0001638992898071057</v>
       </c>
       <c r="D173" t="n">
-        <v>4.376728602852056</v>
+        <v>5.85496404527694</v>
       </c>
       <c r="E173" t="n">
-        <v>0.00395395543682853</v>
+        <v>0.0005507245018012812</v>
       </c>
       <c r="F173" t="n">
-        <v>4.376728602852056</v>
+        <v>5.85496404527694</v>
       </c>
       <c r="G173" t="n">
-        <v>0.004954092519358638</v>
+        <v>0.002698027833940946</v>
       </c>
       <c r="H173" t="n">
-        <v>4.415097405218535</v>
+        <v>5.122805348484352</v>
       </c>
       <c r="I173" t="n">
-        <v>0.002383276637727855</v>
+        <v>0.00223412681771708</v>
       </c>
       <c r="J173" t="n">
-        <v>4.415097405218535</v>
+        <v>5.122805348484352</v>
       </c>
       <c r="K173" t="n">
-        <v>0.002500042124431245</v>
+        <v>0.001855445454599692</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.443892840420013</v>
+        <v>5.164157488548312</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01795609131182814</v>
+        <v>0.0001059807086111757</v>
       </c>
       <c r="D174" t="n">
-        <v>4.406894352423766</v>
+        <v>5.902926715444105</v>
       </c>
       <c r="E174" t="n">
-        <v>0.003204861776746626</v>
+        <v>0.0004421978981366482</v>
       </c>
       <c r="F174" t="n">
-        <v>4.406894352423766</v>
+        <v>5.902926715444105</v>
       </c>
       <c r="G174" t="n">
-        <v>0.004105681204430123</v>
+        <v>0.002620078014650475</v>
       </c>
       <c r="H174" t="n">
-        <v>4.443892840420013</v>
+        <v>5.164157488548312</v>
       </c>
       <c r="I174" t="n">
-        <v>0.001986685896201715</v>
+        <v>0.001797384437916369</v>
       </c>
       <c r="J174" t="n">
-        <v>4.443892840420013</v>
+        <v>5.164157488548312</v>
       </c>
       <c r="K174" t="n">
-        <v>0.002122466905442738</v>
+        <v>0.001561572083124477</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.472688275621492</v>
+        <v>5.205509628612271</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01573498686800908</v>
+        <v>6.788468121732197e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>4.437060101995476</v>
+        <v>5.950889385611271</v>
       </c>
       <c r="E175" t="n">
-        <v>0.002577044300162564</v>
+        <v>0.0003585890522303034</v>
       </c>
       <c r="F175" t="n">
-        <v>4.437060101995476</v>
+        <v>5.950889385611271</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0033767377660871</v>
+        <v>0.002522037392389366</v>
       </c>
       <c r="H175" t="n">
-        <v>4.472688275621492</v>
+        <v>5.205509628612271</v>
       </c>
       <c r="I175" t="n">
-        <v>0.001648068512627226</v>
+        <v>0.001437621595517238</v>
       </c>
       <c r="J175" t="n">
-        <v>4.472688275621492</v>
+        <v>5.205509628612271</v>
       </c>
       <c r="K175" t="n">
-        <v>0.001797137569377956</v>
+        <v>0.0013043179667029</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.50148371082297</v>
+        <v>5.246861768676229</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0137249751634127</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>4.467225851567186</v>
+        <v>5.998852055778437</v>
       </c>
       <c r="E176" t="n">
-        <v>0.002051125362191405</v>
+        <v>0.0002971686360738688</v>
       </c>
       <c r="F176" t="n">
-        <v>4.467225851567186</v>
+        <v>5.998852055778437</v>
       </c>
       <c r="G176" t="n">
-        <v>0.002753612014161531</v>
+        <v>0.002406641952021607</v>
       </c>
       <c r="H176" t="n">
-        <v>4.50148371082297</v>
+        <v>5.246861768676229</v>
       </c>
       <c r="I176" t="n">
-        <v>0.001357686464401297</v>
+        <v>0.001141166413553098</v>
       </c>
       <c r="J176" t="n">
-        <v>4.50148371082297</v>
+        <v>5.246861768676229</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001517128429403323</v>
+        <v>0.001085271007018159</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.530279146024448</v>
+        <v>5.28821390874019</v>
       </c>
       <c r="C177" t="n">
-        <v>0.011915594196337</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>4.497391601138895</v>
+        <v>6.046814725945604</v>
       </c>
       <c r="E177" t="n">
-        <v>0.001622091713304349</v>
+        <v>0.0002507500774136301</v>
       </c>
       <c r="F177" t="n">
-        <v>4.497391601138895</v>
+        <v>6.046814725945604</v>
       </c>
       <c r="G177" t="n">
-        <v>0.002230480043586247</v>
+        <v>0.002271690031667746</v>
       </c>
       <c r="H177" t="n">
-        <v>4.530279146024448</v>
+        <v>5.28821390874019</v>
       </c>
       <c r="I177" t="n">
-        <v>0.001109419141247373</v>
+        <v>0.0008983430493415476</v>
       </c>
       <c r="J177" t="n">
-        <v>4.530279146024448</v>
+        <v>5.28821390874019</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0012774207597652</v>
+        <v>0.0008975065701185043</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.559074581225927</v>
+        <v>5.329566048804148</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01029521592305412</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>4.527557350710605</v>
+        <v>6.09477739611277</v>
       </c>
       <c r="E178" t="n">
-        <v>0.001275924282840178</v>
+        <v>0.0002177824835699753</v>
       </c>
       <c r="F178" t="n">
-        <v>4.527557350710605</v>
+        <v>6.09477739611277</v>
       </c>
       <c r="G178" t="n">
-        <v>0.001797207613393729</v>
+        <v>0.002120272232652999</v>
       </c>
       <c r="H178" t="n">
-        <v>4.559074581225927</v>
+        <v>5.329566048804148</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0009033548235768588</v>
+        <v>0.0007059136757068037</v>
       </c>
       <c r="J178" t="n">
-        <v>4.559074581225927</v>
+        <v>5.329566048804148</v>
       </c>
       <c r="K178" t="n">
-        <v>0.001073113254877494</v>
+        <v>0.0007403972071070908</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.587870016427405</v>
+        <v>5.370918188868107</v>
       </c>
       <c r="C179" t="n">
-        <v>0.008851439909142904</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>4.557723100282315</v>
+        <v>6.142740066279936</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0009963504786090159</v>
+        <v>0.0001941544693924798</v>
       </c>
       <c r="F179" t="n">
-        <v>4.557723100282315</v>
+        <v>6.142740066279936</v>
       </c>
       <c r="G179" t="n">
-        <v>0.001435940606581311</v>
+        <v>0.001955659268803339</v>
       </c>
       <c r="H179" t="n">
-        <v>4.587870016427405</v>
+        <v>5.370918188868107</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0007328692058119329</v>
+        <v>0.0005542662532079769</v>
       </c>
       <c r="J179" t="n">
-        <v>4.587870016427405</v>
+        <v>5.370918188868107</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0009026524509480512</v>
+        <v>0.0006089800157391812</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.616665451628884</v>
+        <v>5.412270328932067</v>
       </c>
       <c r="C180" t="n">
-        <v>0.00757145485195173</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>4.587888849854025</v>
+        <v>6.190702736447101</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0007720745662969117</v>
+        <v>0.0001773634583491427</v>
       </c>
       <c r="F180" t="n">
-        <v>4.587888849854025</v>
+        <v>6.190702736447101</v>
       </c>
       <c r="G180" t="n">
-        <v>0.001142543483911747</v>
+        <v>0.001782956493788117</v>
       </c>
       <c r="H180" t="n">
-        <v>4.616665451628884</v>
+        <v>5.412270328932067</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0005932567128185788</v>
+        <v>0.0004350977097593506</v>
       </c>
       <c r="J180" t="n">
-        <v>4.616665451628884</v>
+        <v>5.412270328932067</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0007617948208978306</v>
+        <v>0.0004994467882539711</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.645460886830362</v>
+        <v>5.453622468996025</v>
       </c>
       <c r="C181" t="n">
-        <v>0.00644235214364317</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>4.618054599425735</v>
+        <v>6.238665406614267</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0005947475811819492</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F181" t="n">
-        <v>4.618054599425735</v>
+        <v>6.238665406614267</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0009072582772216876</v>
+        <v>0.001607004729845134</v>
       </c>
       <c r="H181" t="n">
-        <v>4.645460886830362</v>
+        <v>5.453622468996025</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0004791349617767189</v>
+        <v>0.0003492111451303935</v>
       </c>
       <c r="J181" t="n">
-        <v>4.645460886830362</v>
+        <v>5.453622468996025</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0006449888819917729</v>
+        <v>0.000409638880110185</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.67425632203184</v>
+        <v>5.494974609059984</v>
       </c>
       <c r="C182" t="n">
-        <v>0.005451382604883911</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>4.648220348997445</v>
+        <v>6.286628076781433</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0004551069483340391</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F182" t="n">
-        <v>4.648220348997445</v>
+        <v>6.286628076781433</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0007177739630279496</v>
+        <v>0.001431975905241705</v>
       </c>
       <c r="H182" t="n">
-        <v>4.67425632203184</v>
+        <v>5.494974609059984</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0003887530214124402</v>
+        <v>0.0002879685360586481</v>
       </c>
       <c r="J182" t="n">
-        <v>4.67425632203184</v>
+        <v>5.494974609059984</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0005488711182485134</v>
+        <v>0.0003378779808557719</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.703051757233319</v>
+        <v>5.536326749123944</v>
       </c>
       <c r="C183" t="n">
-        <v>0.004591331413371692</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>4.678386098569154</v>
+        <v>6.334590746948599</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0003465915318056531</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F183" t="n">
-        <v>4.678386098569154</v>
+        <v>6.334590746948599</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0005694798924470721</v>
+        <v>0.001261660587388709</v>
       </c>
       <c r="H183" t="n">
-        <v>4.703051757233319</v>
+        <v>5.536326749123944</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0003175150398018953</v>
+        <v>0.0002411569126340263</v>
       </c>
       <c r="J183" t="n">
-        <v>4.703051757233319</v>
+        <v>5.536326749123944</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0004713972586774048</v>
+        <v>0.0002799600860778069</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.731847192434797</v>
+        <v>5.577678889187903</v>
       </c>
       <c r="C184" t="n">
-        <v>0.003844377440192046</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>4.708551848140864</v>
+        <v>6.382553417115766</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0002684582955909588</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F184" t="n">
-        <v>4.708551848140864</v>
+        <v>6.382553417115766</v>
       </c>
       <c r="G184" t="n">
-        <v>0.000454937925627079</v>
+        <v>0.001099316556298017</v>
       </c>
       <c r="H184" t="n">
-        <v>4.731847192434797</v>
+        <v>5.577678889187903</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0002620516477299087</v>
+        <v>0.000206403439303188</v>
       </c>
       <c r="J184" t="n">
-        <v>4.731847192434797</v>
+        <v>5.577678889187903</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0004102710747429995</v>
+        <v>0.0002337456517362956</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.760642627636275</v>
+        <v>5.619031029251861</v>
       </c>
       <c r="C185" t="n">
-        <v>0.003199023012866445</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>4.738717597712574</v>
+        <v>6.430516087282932</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0002169197030712228</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F185" t="n">
-        <v>4.738717597712574</v>
+        <v>6.430516087282932</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0003691809228830955</v>
+        <v>0.000947569360913057</v>
       </c>
       <c r="H185" t="n">
-        <v>4.760642627636275</v>
+        <v>5.619031029251861</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0002191260300473288</v>
+        <v>0.0001817057360934873</v>
       </c>
       <c r="J185" t="n">
-        <v>4.760642627636275</v>
+        <v>5.619031029251861</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0003613573946697841</v>
+        <v>0.0001973039035251315</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.789438062837754</v>
+        <v>5.66038316931582</v>
       </c>
       <c r="C186" t="n">
-        <v>0.002644700499980089</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>4.768883347284284</v>
+        <v>6.478478757450098</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0001770917599294219</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F186" t="n">
-        <v>4.768883347284284</v>
+        <v>6.478478757450098</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0003058306467966786</v>
+        <v>0.0008084772889400037</v>
       </c>
       <c r="H186" t="n">
-        <v>4.789438062837754</v>
+        <v>5.66038316931582</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0001871507911596406</v>
+        <v>0.000163635048234449</v>
       </c>
       <c r="J186" t="n">
-        <v>4.789438062837754</v>
+        <v>5.66038316931582</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0003226297083372273</v>
+        <v>0.0001689204947803574</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.818233498039232</v>
+        <v>5.70173530937978</v>
       </c>
       <c r="C187" t="n">
-        <v>0.00217151292784193</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>4.799049096855994</v>
+        <v>6.526441427617263</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0001518412621072213</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F187" t="n">
-        <v>4.799049096855994</v>
+        <v>6.526441427617263</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0002637410435665227</v>
+        <v>0.0006845916806626178</v>
       </c>
       <c r="H187" t="n">
-        <v>4.818233498039232</v>
+        <v>5.70173530937978</v>
       </c>
       <c r="I187" t="n">
-        <v>0.0001635201034704263</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J187" t="n">
-        <v>4.818233498039232</v>
+        <v>5.70173530937978</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0002925421590546691</v>
+        <v>0.000147386154618205</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.847028933240711</v>
+        <v>5.743087449443738</v>
       </c>
       <c r="C188" t="n">
-        <v>0.001770237363253649</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>4.829214846427703</v>
+        <v>6.574404097784429</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0001337841162297867</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F188" t="n">
-        <v>4.829214846427703</v>
+        <v>6.574404097784429</v>
       </c>
       <c r="G188" t="n">
-        <v>0.000236385609944972</v>
+        <v>0.0005751330762285688</v>
       </c>
       <c r="H188" t="n">
-        <v>4.847028933240711</v>
+        <v>5.743087449443738</v>
       </c>
       <c r="I188" t="n">
-        <v>0.000146026300132097</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J188" t="n">
-        <v>4.847028933240711</v>
+        <v>5.743087449443738</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0002709517847164987</v>
+        <v>0.0001313218585867181</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.875824368442189</v>
+        <v>5.784439589507697</v>
       </c>
       <c r="C189" t="n">
-        <v>0.001432318220651741</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>4.859380595999413</v>
+        <v>6.622366767951595</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0001202086953729713</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F189" t="n">
-        <v>4.859380595999413</v>
+        <v>6.622366767951595</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0002156588711995705</v>
+        <v>0.0004800178689041916</v>
       </c>
       <c r="H189" t="n">
-        <v>4.875824368442189</v>
+        <v>5.784439589507697</v>
       </c>
       <c r="I189" t="n">
-        <v>0.0001332402315189969</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J189" t="n">
-        <v>4.875824368442189</v>
+        <v>5.784439589507697</v>
       </c>
       <c r="K189" t="n">
-        <v>0.000256910860185945</v>
+        <v>0.0001192317114849283</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.904619803643667</v>
+        <v>5.825791729571657</v>
       </c>
       <c r="C190" t="n">
-        <v>0.001149855828543976</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>4.889546345571123</v>
+        <v>6.670329438118761</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0001104620478879933</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F190" t="n">
-        <v>4.889546345571123</v>
+        <v>6.670329438118761</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0002009475988678297</v>
+        <v>0.0003987095381743998</v>
       </c>
       <c r="H190" t="n">
-        <v>4.904619803643667</v>
+        <v>5.825791729571657</v>
       </c>
       <c r="I190" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J190" t="n">
-        <v>4.904619803643667</v>
+        <v>5.825791729571657</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0002461199745149522</v>
+        <v>0.0001102515967872484</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.933415238845146</v>
+        <v>5.867143869635616</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0009155934460761921</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>4.919712095142833</v>
+        <v>6.718292108285928</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0001035583918840411</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F191" t="n">
-        <v>4.919712095142833</v>
+        <v>6.718292108285928</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0003303218632588747</v>
       </c>
       <c r="H191" t="n">
-        <v>4.933415238845146</v>
+        <v>5.867143869635616</v>
       </c>
       <c r="I191" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J191" t="n">
-        <v>4.933415238845146</v>
+        <v>5.867143869635616</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0002379290881917804</v>
+        <v>0.0001036725894877278</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.962210674046625</v>
+        <v>5.908496009699574</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0007229040532785344</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>4.949877844714543</v>
+        <v>6.766254778453094</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F192" t="n">
-        <v>4.949877844714543</v>
+        <v>6.766254778453094</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0002737222555793103</v>
       </c>
       <c r="H192" t="n">
-        <v>4.962210674046625</v>
+        <v>5.908496009699574</v>
       </c>
       <c r="I192" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J192" t="n">
-        <v>4.962210674046625</v>
+        <v>5.908496009699574</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0002320259771113205</v>
+        <v>9.892166893490479e-05</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.991006109248104</v>
+        <v>5.949848149763534</v>
       </c>
       <c r="C193" t="n">
-        <v>0.000565776831378079</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>4.980043594286252</v>
+        <v>6.814217448620258</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F193" t="n">
-        <v>4.980043594286252</v>
+        <v>6.814217448620258</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0002276285902855349</v>
       </c>
       <c r="H193" t="n">
-        <v>4.991006109248104</v>
+        <v>5.949848149763534</v>
       </c>
       <c r="I193" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J193" t="n">
-        <v>4.991006109248104</v>
+        <v>5.949848149763534</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.019801544449582</v>
+        <v>5.991200289827493</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0004388023772448394</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>5.010209343857962</v>
+        <v>6.862180118787425</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F194" t="n">
-        <v>5.010209343857962</v>
+        <v>6.862180118787425</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0001911331808112274</v>
       </c>
       <c r="H194" t="n">
-        <v>5.019801544449582</v>
+        <v>5.991200289827493</v>
       </c>
       <c r="I194" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J194" t="n">
-        <v>5.019801544449582</v>
+        <v>5.991200289827493</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.04859697965106</v>
+        <v>6.032552429891451</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0003371553397706629</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>5.040375093429672</v>
+        <v>6.910142788954591</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F195" t="n">
-        <v>5.040375093429672</v>
+        <v>6.910142788954591</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0001626473933702313</v>
       </c>
       <c r="H195" t="n">
-        <v>5.04859697965106</v>
+        <v>6.032552429891451</v>
       </c>
       <c r="I195" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J195" t="n">
-        <v>5.04859697965106</v>
+        <v>6.032552429891451</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.077392414852539</v>
+        <v>6.07390456995541</v>
       </c>
       <c r="C196" t="n">
-        <v>0.000256573238573169</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>5.070540843001382</v>
+        <v>6.958105459121757</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F196" t="n">
-        <v>5.070540843001382</v>
+        <v>6.958105459121757</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0001404858100463548</v>
       </c>
       <c r="H196" t="n">
-        <v>5.077392414852539</v>
+        <v>6.07390456995541</v>
       </c>
       <c r="I196" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J196" t="n">
-        <v>5.077392414852539</v>
+        <v>6.07390456995541</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.106187850054017</v>
+        <v>6.11525671001937</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001933306003274555</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>5.100706592573092</v>
+        <v>7.006068129288924</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F197" t="n">
-        <v>5.100706592573092</v>
+        <v>7.006068129288924</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0001235065142289191</v>
       </c>
       <c r="H197" t="n">
-        <v>5.106187850054017</v>
+        <v>6.11525671001937</v>
       </c>
       <c r="I197" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J197" t="n">
-        <v>5.106187850054017</v>
+        <v>6.11525671001937</v>
       </c>
       <c r="K197" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.134983285255496</v>
+        <v>6.156608850083328</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001442080871058183</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>5.130872342144801</v>
+        <v>7.05403079945609</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F198" t="n">
-        <v>5.130872342144801</v>
+        <v>7.05403079945609</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.0001106974759887195</v>
       </c>
       <c r="H198" t="n">
-        <v>5.134983285255496</v>
+        <v>6.156608850083328</v>
       </c>
       <c r="I198" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J198" t="n">
-        <v>5.134983285255496</v>
+        <v>6.156608850083328</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.163778720456974</v>
+        <v>6.197960990147287</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001064568671888643</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>5.161038091716511</v>
+        <v>7.101993469623254</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F199" t="n">
-        <v>5.161038091716511</v>
+        <v>7.101993469623254</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0001943885489410239</v>
+        <v>0.000101184935171563</v>
       </c>
       <c r="H199" t="n">
-        <v>5.163778720456974</v>
+        <v>6.197960990147287</v>
       </c>
       <c r="I199" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J199" t="n">
-        <v>5.163778720456974</v>
+        <v>6.197960990147287</v>
       </c>
       <c r="K199" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.192574155658452</v>
+        <v>6.239313130211247</v>
       </c>
       <c r="C200" t="n">
-        <v>7.775899109600505e-05</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>5.191203841288221</v>
+        <v>7.149956139790421</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F200" t="n">
-        <v>5.191203841288221</v>
+        <v>7.149956139790421</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0001943885489410239</v>
+        <v>9.423253491577445e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>5.192574155658452</v>
+        <v>6.239313130211247</v>
       </c>
       <c r="I200" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J200" t="n">
-        <v>5.192574155658452</v>
+        <v>6.239313130211247</v>
       </c>
       <c r="K200" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
     <row r="201">
@@ -7455,34 +7455,34 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.221369590859931</v>
+        <v>6.280665270275207</v>
       </c>
       <c r="C201" t="n">
-        <v>5.618491728432677e-05</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>5.221369590859931</v>
+        <v>7.197918809957588</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0001012548481122043</v>
+        <v>0.0001692755475931275</v>
       </c>
       <c r="F201" t="n">
-        <v>5.221369590859931</v>
+        <v>7.197918809957588</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0001943885489410239</v>
+        <v>8.92336780457205e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>5.221369590859931</v>
+        <v>6.280665270275207</v>
       </c>
       <c r="I201" t="n">
-        <v>0.000128132502748243</v>
+        <v>0.0001507536334358479</v>
       </c>
       <c r="J201" t="n">
-        <v>5.221369590859931</v>
+        <v>6.280665270275207</v>
       </c>
       <c r="K201" t="n">
-        <v>0.0002289901857526046</v>
+        <v>9.869000179339379e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Downscaleddata/pdfs/bottom o2_pdf.xlsx
+++ b/Downscaleddata/pdfs/bottom o2_pdf.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.948410602452645</v>
+        <v>-0.9962450062461993</v>
       </c>
       <c r="C2" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.346652553308443</v>
+        <v>-1.0888445552447</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0001918658493193486</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.346652553308443</v>
+        <v>-1.0888445552447</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001340528987638154</v>
+        <v>0.0003056704307828117</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.948410602452645</v>
+        <v>-0.9962450062461993</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.000232825036465715</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.948410602452645</v>
+        <v>-0.9962450062461993</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001043157151410829</v>
+        <v>0.0002704858289283722</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.907058462388685</v>
+        <v>-0.9596778144095162</v>
       </c>
       <c r="C3" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.298689883141277</v>
+        <v>-1.047238520888435</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0001918658493193486</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.298689883141277</v>
+        <v>-1.047238520888435</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001401513538925201</v>
+        <v>0.0003451802512772009</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.907058462388685</v>
+        <v>-0.9596778144095162</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.000232825036465715</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.907058462388685</v>
+        <v>-0.9596778144095162</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001043157151410829</v>
+        <v>0.0003060803005096529</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.865706322324727</v>
+        <v>-0.9231106225728329</v>
       </c>
       <c r="C4" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.250727212974111</v>
+        <v>-1.00563248653217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0001918658493193486</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.250727212974111</v>
+        <v>-1.00563248653217</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000148597392765976</v>
+        <v>0.0004276114747446297</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.865706322324727</v>
+        <v>-0.9231106225728329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.000232825036465715</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.865706322324727</v>
+        <v>-0.9231106225728329</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001043157151410829</v>
+        <v>0.0003705098350033473</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.824354182260767</v>
+        <v>-0.8865434307361498</v>
       </c>
       <c r="C5" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.202764542806945</v>
+        <v>-0.9640264521759048</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0001918658493193486</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.202764542806945</v>
+        <v>-0.9640264521759048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001600775582118615</v>
+        <v>0.0005562813299319742</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.824354182260767</v>
+        <v>-0.8865434307361498</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.0002559163155927278</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.824354182260767</v>
+        <v>-0.8865434307361498</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001043157151410829</v>
+        <v>0.0004801638263594534</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.783002042196808</v>
+        <v>-0.8499762388994666</v>
       </c>
       <c r="C6" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.15480187263978</v>
+        <v>-0.9224204178196398</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0001918658493193486</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.15480187263978</v>
+        <v>-0.9224204178196398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001761684536398843</v>
+        <v>0.0007297180478694227</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.783002042196808</v>
+        <v>-0.8499762388994666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.0003063009537081514</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.783002042196808</v>
+        <v>-0.8499762388994666</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001043157151410829</v>
+        <v>0.0006542539642931501</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.741649902132849</v>
+        <v>-0.8134090470627835</v>
       </c>
       <c r="C7" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.106839202472613</v>
+        <v>-0.8808143834633748</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0002134386364859572</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.106839202472613</v>
+        <v>-0.8808143834633748</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001975574116096358</v>
+        <v>0.0009876062218951358</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.741649902132849</v>
+        <v>-0.8134090470627835</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.0003779381619882146</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.741649902132849</v>
+        <v>-0.8134090470627835</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001050504944190141</v>
+        <v>0.0008869563223809369</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.70029776206889</v>
+        <v>-0.7768418552261003</v>
       </c>
       <c r="C8" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.058876532305447</v>
+        <v>-0.8392083491071098</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0002551636547878952</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.058876532305447</v>
+        <v>-0.8392083491071098</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002252365256778486</v>
+        <v>0.001333184728901451</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.70029776206889</v>
+        <v>-0.7768418552261003</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.0004813435462657571</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.70029776206889</v>
+        <v>-0.7768418552261003</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001178118952189671</v>
+        <v>0.001199382250284924</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.658945622004931</v>
+        <v>-0.7402746633894172</v>
       </c>
       <c r="C9" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.010913862138281</v>
+        <v>-0.7976023147508449</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0003200275923910376</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.010913862138281</v>
+        <v>-0.7976023147508449</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002615351893962776</v>
+        <v>0.001789411636140248</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.658945622004931</v>
+        <v>-0.7402746633894172</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.0006400537750067599</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.658945622004931</v>
+        <v>-0.7402746633894172</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001366787752546621</v>
+        <v>0.001603914381964754</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.617593481940972</v>
+        <v>-0.7037074715527341</v>
       </c>
       <c r="C10" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.962951191971115</v>
+        <v>-0.7559962803945799</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0004204247136220533</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.962951191971115</v>
+        <v>-0.7559962803945799</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003077026603490887</v>
+        <v>0.002386568161974252</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.617593481940972</v>
+        <v>-0.7037074715527341</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001409790132483976</v>
+        <v>0.0008526437282869052</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.617593481940972</v>
+        <v>-0.7037074715527341</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001624883357888467</v>
+        <v>0.002127278202191928</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.576241341877013</v>
+        <v>-0.6671402797160508</v>
       </c>
       <c r="C11" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.91498852180395</v>
+        <v>-0.7143902460383149</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0005668789365404966</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.91498852180395</v>
+        <v>-0.7143902460383149</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003645468804736203</v>
+        <v>0.003147728961786817</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.576241341877013</v>
+        <v>-0.6671402797160508</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001501488860653626</v>
+        <v>0.001149050119378528</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.576241341877013</v>
+        <v>-0.6671402797160508</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001969256616545949</v>
+        <v>0.002788225012006625</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.534889201813054</v>
+        <v>-0.6305730878793676</v>
       </c>
       <c r="C12" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.867025851636783</v>
+        <v>-0.6727842116820499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.0007733227514850468</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.867025851636783</v>
+        <v>-0.6727842116820499</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004345358203006525</v>
+        <v>0.004111965349743073</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.534889201813054</v>
+        <v>-0.6305730878793676</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001670658380189481</v>
+        <v>0.001533627467617041</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.534889201813054</v>
+        <v>-0.6305730878793676</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002429119120608419</v>
+        <v>0.003620929836854701</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.493537061749095</v>
+        <v>-0.5940058960426845</v>
       </c>
       <c r="C13" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.819063181469617</v>
+        <v>-0.631178177325785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0001354296346338771</v>
+        <v>0.001053317420845032</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.819063181469617</v>
+        <v>-0.631178177325785</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0005194415839261056</v>
+        <v>0.005325557195999767</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.493537061749095</v>
+        <v>-0.5940058960426845</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000190675187289224</v>
+        <v>0.002027376507873381</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.493537061749095</v>
+        <v>-0.5940058960426845</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003035029948739174</v>
+        <v>0.004662864894322588</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.452184921685136</v>
+        <v>-0.5574387042060014</v>
       </c>
       <c r="C14" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.771100511302452</v>
+        <v>-0.5895721429695201</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001372918713670068</v>
+        <v>0.001447417685056702</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.771100511302452</v>
+        <v>-0.5895721429695201</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0006188940651984044</v>
+        <v>0.006829872886951144</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.452184921685136</v>
+        <v>-0.5574387042060014</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002229157207730681</v>
+        <v>0.002651640159912989</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.452184921685136</v>
+        <v>-0.5574387042060014</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003813160579222172</v>
+        <v>0.005941136382325743</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.410832781621177</v>
+        <v>-0.5208715123693182</v>
       </c>
       <c r="C15" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.723137841135285</v>
+        <v>-0.5479661086132551</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001500614898014366</v>
+        <v>0.001963442249335457</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.723137841135285</v>
+        <v>-0.5479661086132551</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0007343472106150227</v>
+        <v>0.008675792616824</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.410832781621177</v>
+        <v>-0.5208715123693182</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002715353936121929</v>
+        <v>0.003466838888445085</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.410832781621177</v>
+        <v>-0.5208715123693182</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000480110875216648</v>
+        <v>0.007487055515803891</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.369480641557218</v>
+        <v>-0.4843043205326351</v>
       </c>
       <c r="C16" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.67517517096812</v>
+        <v>-0.5063600742569901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0001693683219345278</v>
+        <v>0.002631838807242398</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.67517517096812</v>
+        <v>-0.5063600742569901</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0008676145813637645</v>
+        <v>0.01088468348767501</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.369480641557218</v>
+        <v>-0.4843043205326351</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000342180661063928</v>
+        <v>0.004475947685382988</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.369480641557218</v>
+        <v>-0.4843043205326351</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0006046125454831261</v>
+        <v>0.009339409414739541</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.328128501493259</v>
+        <v>-0.4477371286959518</v>
       </c>
       <c r="C17" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.627212500800953</v>
+        <v>-0.4647540399007252</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001980782600262698</v>
+        <v>0.003502802171354942</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.627212500800953</v>
+        <v>-0.4647540399007252</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001016304597256386</v>
+        <v>0.01350628318549883</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.328128501493259</v>
+        <v>-0.4477371286959518</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004333218530389948</v>
+        <v>0.005702216099105986</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.328128501493259</v>
+        <v>-0.4477371286959518</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007602660200585898</v>
+        <v>0.01154029065141707</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.2867763614293</v>
+        <v>-0.4111699368592687</v>
       </c>
       <c r="C18" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.579249830633787</v>
+        <v>-0.4231480055444602</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0002384552080014217</v>
+        <v>0.004580693725379141</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.579249830633787</v>
+        <v>-0.4231480055444602</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001180032031086746</v>
+        <v>0.01659912958366873</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.2867763614293</v>
+        <v>-0.4111699368592687</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005537457977014145</v>
+        <v>0.007173931782534951</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.2867763614293</v>
+        <v>-0.4111699368592687</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0009604837923906026</v>
+        <v>0.01413163168859658</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.245424221365341</v>
+        <v>-0.3746027450225856</v>
       </c>
       <c r="C19" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.531287160466622</v>
+        <v>-0.3815419711881952</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000295373261480652</v>
+        <v>0.00590648326409775</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.531287160466622</v>
+        <v>-0.3815419711881952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00135993576066962</v>
+        <v>0.02018693385133553</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.245424221365341</v>
+        <v>-0.3746027450225856</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0007026945120658445</v>
+        <v>0.008938511788391333</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.245424221365341</v>
+        <v>-0.3746027450225856</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001203553070247888</v>
+        <v>0.01712553032178758</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.204072081301382</v>
+        <v>-0.3380355531859024</v>
       </c>
       <c r="C20" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.483324490299456</v>
+        <v>-0.3399359368319302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003699980458927838</v>
+        <v>0.007517032560649988</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.483324490299456</v>
+        <v>-0.3399359368319302</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001552071824790745</v>
+        <v>0.02431618368485751</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.204072081301382</v>
+        <v>-0.3380355531859024</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0008832865889915998</v>
+        <v>0.01100772427110509</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.204072081301382</v>
+        <v>-0.3380355531859024</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001499941007512119</v>
+        <v>0.0205571217348611</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.162719941237423</v>
+        <v>-0.3014683613492193</v>
       </c>
       <c r="C21" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.43536182013229</v>
+        <v>-0.2983299024756653</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0004690549738559911</v>
+        <v>0.009426375861926784</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.43536182013229</v>
+        <v>-0.2983299024756653</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001754977251291769</v>
+        <v>0.02897556160982895</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.162719941237423</v>
+        <v>-0.3014683613492193</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001103644170398094</v>
+        <v>0.01340212228653547</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.162719941237423</v>
+        <v>-0.3014683613492193</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001858295208347444</v>
+        <v>0.0244608985360093</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.121367801173464</v>
+        <v>-0.2649011695125361</v>
       </c>
       <c r="C22" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.387399149965124</v>
+        <v>-0.2567238681194003</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000590479939608787</v>
+        <v>0.01166055751458722</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.387399149965124</v>
+        <v>-0.2567238681194003</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001976130081836359</v>
+        <v>0.03421076067761828</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.121367801173464</v>
+        <v>-0.2649011695125361</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001362023633194039</v>
+        <v>0.01612538922068205</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.121367801173464</v>
+        <v>-0.2649011695125361</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002287311320616855</v>
+        <v>0.02883939646103756</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.080015661109505</v>
+        <v>-0.228333977675853</v>
       </c>
       <c r="C23" t="n">
         <v>0.0001461081453750912</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.339436479797958</v>
+        <v>-0.2151178337631353</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0007406576013287443</v>
+        <v>0.01424664232956929</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.339436479797958</v>
+        <v>-0.2151178337631353</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002219045783380245</v>
+        <v>0.03999481400153814</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.080015661109505</v>
+        <v>-0.228333977675853</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001658192272649217</v>
+        <v>0.01921472329091146</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.080015661109505</v>
+        <v>-0.228333977675853</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002799830901520481</v>
+        <v>0.03369927050614711</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.038663521045545</v>
+        <v>-0.1917667858391697</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.0002096316233177067</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.291473809630792</v>
+        <v>-0.1735117994068703</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0009134342232071323</v>
+        <v>0.01717478339907842</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.291473809630792</v>
+        <v>-0.1735117994068703</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002478505395719452</v>
+        <v>0.04631309732571418</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.038663521045545</v>
+        <v>-0.1917667858391697</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001994242789527068</v>
+        <v>0.02265841796558049</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.038663521045545</v>
+        <v>-0.1917667858391697</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003400701283719666</v>
+        <v>0.03901884129535962</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9973113809815866</v>
+        <v>-0.1551995940024866</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.0003214317527068832</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.243511139463626</v>
+        <v>-0.1319057650506054</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001118351937598135</v>
+        <v>0.02045581830560938</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.243511139463626</v>
+        <v>-0.1319057650506054</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002762468061966941</v>
+        <v>0.05315251324861037</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.9973113809815866</v>
+        <v>-0.1551995940024866</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002373062458749649</v>
+        <v>0.02643624864842651</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.9973113809815866</v>
+        <v>-0.1551995940024866</v>
       </c>
       <c r="K25" t="n">
-        <v>0.004099840233225442</v>
+        <v>0.04479882243180864</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9559592409176274</v>
+        <v>-0.1186324021658035</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.0004803609040050863</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.19554846929646</v>
+        <v>-0.0902997306943405</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001344937793686663</v>
+        <v>0.02409182505686343</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.19554846929646</v>
+        <v>-0.0902997306943405</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003089068650036067</v>
+        <v>0.06046947035915471</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.9559592409176274</v>
+        <v>-0.1186324021658035</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002789552831273211</v>
+        <v>0.03054938898116522</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.9559592409176274</v>
+        <v>-0.1186324021658035</v>
       </c>
       <c r="K26" t="n">
-        <v>0.004904292256705393</v>
+        <v>0.05101389830045189</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9146071008536685</v>
+        <v>-0.08206521032912029</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.0007077046905398686</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.147585799129294</v>
+        <v>-0.04869369633807552</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001585893192365416</v>
+        <v>0.02806374225538389</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.147585799129294</v>
+        <v>-0.04869369633807552</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003458714327784842</v>
+        <v>0.06820093854549447</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.9146071008536685</v>
+        <v>-0.08206521032912029</v>
       </c>
       <c r="I27" t="n">
-        <v>0.003240745652181294</v>
+        <v>0.03500007973962539</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.9146071008536685</v>
+        <v>-0.08206521032912029</v>
       </c>
       <c r="K27" t="n">
-        <v>0.005827886741204291</v>
+        <v>0.05762640039108141</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.8732549607897093</v>
+        <v>-0.04549801849243718</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.00103526161459865</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.099623128962128</v>
+        <v>-0.007087661981810545</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00183517277567936</v>
+        <v>0.0323575666605466</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.099623128962128</v>
+        <v>-0.007087661981810545</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003888478407479375</v>
+        <v>0.07627335805986607</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.8732549607897093</v>
+        <v>-0.04549801849243718</v>
       </c>
       <c r="I28" t="n">
-        <v>0.003736486359737635</v>
+        <v>0.03974144215843078</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.8732549607897093</v>
+        <v>-0.04549801849243718</v>
       </c>
       <c r="K28" t="n">
-        <v>0.006890757974064</v>
+        <v>0.06458663409525135</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.8319028207257504</v>
+        <v>-0.008930826655753954</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.001480589799802243</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.051660458794962</v>
+        <v>0.03451837237445443</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00208257809055024</v>
+        <v>0.03696052136091796</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.051660458794962</v>
+        <v>0.03451837237445443</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004389230665715876</v>
+        <v>0.08462917427983994</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.8319028207257504</v>
+        <v>-0.008930826655753954</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004296693631202287</v>
+        <v>0.04474378257751848</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.8319028207257504</v>
+        <v>-0.008930826655753954</v>
       </c>
       <c r="K29" t="n">
-        <v>0.008096245758724786</v>
+        <v>0.07185044237259922</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7905506806617912</v>
+        <v>0.02763636518092916</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.002089797375512987</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.003697788627796</v>
+        <v>0.07612440673071941</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002326573181282282</v>
+        <v>0.04184519601620148</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.003697788627796</v>
+        <v>0.07612440673071941</v>
       </c>
       <c r="G30" t="n">
-        <v>0.004980131641956712</v>
+        <v>0.09317163323134171</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.7905506806617912</v>
+        <v>0.02763636518092916</v>
       </c>
       <c r="I30" t="n">
-        <v>0.004909990095917552</v>
+        <v>0.04999562067275917</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.7905506806617912</v>
+        <v>0.02763636518092916</v>
       </c>
       <c r="K30" t="n">
-        <v>0.009452632344393476</v>
+        <v>0.07936042204224314</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7491985405978323</v>
+        <v>0.06420355701761238</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.002924030809080597</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.9557351184606298</v>
+        <v>0.1177304410869844</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002560281735119401</v>
+        <v>0.04700995105373896</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9557351184606298</v>
+        <v>0.1177304410869844</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005695328659876014</v>
+        <v>0.1018229253656226</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.7491985405978323</v>
+        <v>0.06420355701761238</v>
       </c>
       <c r="I31" t="n">
-        <v>0.005591268365338867</v>
+        <v>0.05546500762392095</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.7491985405978323</v>
+        <v>0.06420355701761238</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01097542485862895</v>
+        <v>0.08705722310062484</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.7078464005338732</v>
+        <v>0.1007707488542956</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.004010793881794576</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9077724482934637</v>
+        <v>0.1593364754432494</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002788825076333611</v>
+        <v>0.0524159542065854</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9077724482934637</v>
+        <v>0.1593364754432494</v>
       </c>
       <c r="G32" t="n">
-        <v>0.006557045373048933</v>
+        <v>0.1104923592593053</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.7078464005338732</v>
+        <v>0.1007707488542956</v>
       </c>
       <c r="I32" t="n">
-        <v>0.006364711860414827</v>
+        <v>0.06112335696470502</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.7078464005338732</v>
+        <v>0.1007707488542956</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01269216809148297</v>
+        <v>0.09489544451967452</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.6664942604699142</v>
+        <v>0.1373379406909786</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.00543445543355509</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.8598097781262979</v>
+        <v>0.2009425097995143</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003020201684596097</v>
+        <v>0.05807787084148736</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.8598097781262979</v>
+        <v>0.2009425097995143</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007590556068254667</v>
+        <v>0.119093779578516</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.6664942604699142</v>
+        <v>0.1373379406909786</v>
       </c>
       <c r="I33" t="n">
-        <v>0.007231430166570883</v>
+        <v>0.06696480332745221</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.6664942604699142</v>
+        <v>0.1373379406909786</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01460407969871865</v>
+        <v>0.1028154869198506</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6251421204059551</v>
+        <v>0.1739051325276618</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.007292109197391029</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.8118471079591318</v>
+        <v>0.2425485441557793</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003275804164878353</v>
+        <v>0.0639503071593422</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.8118471079591318</v>
+        <v>0.2425485441557793</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008826331727599519</v>
+        <v>0.1275541304563705</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.6251421204059551</v>
+        <v>0.1739051325276618</v>
       </c>
       <c r="I34" t="n">
-        <v>0.008213075732585793</v>
+        <v>0.07297059030755747</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.6251421204059551</v>
+        <v>0.1739051325276618</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01672027159269954</v>
+        <v>0.1107608530926437</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5837899803419959</v>
+        <v>0.210472324364345</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.009615029702285593</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.7638844377919658</v>
+        <v>0.2841545785120443</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003572767241445873</v>
+        <v>0.07004368751171301</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7638844377919658</v>
+        <v>0.2841545785120443</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01030675304234303</v>
+        <v>0.1357948729621529</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.5837899803419959</v>
+        <v>0.210472324364345</v>
       </c>
       <c r="I35" t="n">
-        <v>0.009344008150940769</v>
+        <v>0.0790955204659876</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.5837899803419959</v>
+        <v>0.210472324364345</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01906953223883491</v>
+        <v>0.1186923195482888</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.542437840278037</v>
+        <v>0.247039516201028</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.01253249839443783</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7159217676248</v>
+        <v>0.3257606128683093</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003930532912000485</v>
+        <v>0.07636492436184428</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7159217676248</v>
+        <v>0.3257606128683093</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01205781573789533</v>
+        <v>0.1437506882327692</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.542437840278037</v>
+        <v>0.247039516201028</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01065873360999576</v>
+        <v>0.08534282808917547</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.542437840278037</v>
+        <v>0.247039516201028</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02165524798309319</v>
+        <v>0.1265819416697431</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.5010857002140778</v>
+        <v>0.2836067080377113</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.01616789140150984</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.6679590974576339</v>
+        <v>0.3673666472245742</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004385523307065904</v>
+        <v>0.08286601136417342</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6679590974576339</v>
+        <v>0.3673666472245742</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01410195820452923</v>
+        <v>0.1513495657502598</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.5010857002140778</v>
+        <v>0.2836067080377113</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01215420732563159</v>
+        <v>0.09172312364693751</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.5010857002140778</v>
+        <v>0.2836067080377113</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02448698484265117</v>
+        <v>0.1343956062960958</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.4597335601501189</v>
+        <v>0.3201738998743945</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.02053743536443349</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.6199964272904679</v>
+        <v>0.4089726815808392</v>
       </c>
       <c r="E38" t="n">
-        <v>0.004969613741396039</v>
+        <v>0.08957255150501504</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6199964272904679</v>
+        <v>0.4089726815808392</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01650557252736449</v>
+        <v>0.1585886774011596</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.4597335601501189</v>
+        <v>0.3201738998743945</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01385546657302376</v>
+        <v>0.09822704614222764</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.4597335601501189</v>
+        <v>0.3201738998743945</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0275777253593732</v>
+        <v>0.1420989906446547</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.4183814200861597</v>
+        <v>0.3567410917110777</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.02580262670309685</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5720337571233018</v>
+        <v>0.4505787159371042</v>
       </c>
       <c r="E39" t="n">
-        <v>0.005724338473080949</v>
+        <v>0.0964576243215024</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5720337571233018</v>
+        <v>0.4505787159371042</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0192514631527382</v>
+        <v>0.1654340286003297</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.4183814200861597</v>
+        <v>0.3567410917110777</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01578452970210877</v>
+        <v>0.104815898620108</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.4183814200861597</v>
+        <v>0.3567410917110777</v>
       </c>
       <c r="K39" t="n">
-        <v>0.03094730086800112</v>
+        <v>0.1496770606015339</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.3770292800222008</v>
+        <v>0.3933082835477607</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.03207754544525759</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.524071086956136</v>
+        <v>0.4921847502933692</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006659091380194603</v>
+        <v>0.1035026390168783</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.524071086956136</v>
+        <v>0.4921847502933692</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02235936882386866</v>
+        <v>0.1718765686213116</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.3770292800222008</v>
+        <v>0.3933082835477607</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01794041326018199</v>
+        <v>0.1115062762528573</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.3770292800222008</v>
+        <v>0.3933082835477607</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03458154101172854</v>
+        <v>0.1571404349098178</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.3356771399582417</v>
+        <v>0.4298754753844439</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.03933227504557631</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.47610841678897</v>
+        <v>0.5337907846496341</v>
       </c>
       <c r="E41" t="n">
-        <v>0.007828465499303635</v>
+        <v>0.1107138730944655</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.47610841678897</v>
+        <v>0.5337907846496341</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02588417029910818</v>
+        <v>0.1779084667011418</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.3356771399582417</v>
+        <v>0.4298754753844439</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02032833723014429</v>
+        <v>0.1182926903362147</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.3356771399582417</v>
+        <v>0.4298754753844439</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03847969440398074</v>
+        <v>0.1644781450078604</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2943249998942827</v>
+        <v>0.4664426672211271</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.04771915898065996</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4281457466218039</v>
+        <v>0.5753968190058991</v>
       </c>
       <c r="E42" t="n">
-        <v>0.009222315478919099</v>
+        <v>0.1180599877213352</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4281457466218039</v>
+        <v>0.5753968190058991</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0297993962595042</v>
+        <v>0.183545549596399</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.2943249998942827</v>
+        <v>0.4664426672211271</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02296151570251354</v>
+        <v>0.1251435762378106</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.2943249998942827</v>
+        <v>0.4664426672211271</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04266204358387436</v>
+        <v>0.1716789179372054</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2529728598303236</v>
+        <v>0.5030098590578101</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001461081453750912</v>
+        <v>0.05728561274953176</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3801830764546381</v>
+        <v>0.6170028533621641</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01087991515815954</v>
+        <v>0.1255088689225213</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.3801830764546381</v>
+        <v>0.6170028533621641</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03411932658010969</v>
+        <v>0.1888456355934279</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.2529728598303236</v>
+        <v>0.5030098590578101</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0258447336880978</v>
+        <v>0.1320454146694418</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.2529728598303236</v>
+        <v>0.5030098590578101</v>
       </c>
       <c r="K43" t="n">
-        <v>0.04711441527678904</v>
+        <v>0.1787375150541924</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2116207197663647</v>
+        <v>0.5395770508944934</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0001669239932264424</v>
+        <v>0.06792430768844425</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3322204062874721</v>
+        <v>0.6586088877184291</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01279549662543435</v>
+        <v>0.1330612983508121</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.3322204062874721</v>
+        <v>0.6586088877184291</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03884982598269826</v>
+        <v>0.1938432430692505</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.2116207197663647</v>
+        <v>0.5395770508944934</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02896349109008386</v>
+        <v>0.1389955152850719</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.2116207197663647</v>
+        <v>0.5395770508944934</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05181696775260602</v>
+        <v>0.1856730822748343</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1702685797024055</v>
+        <v>0.5761442427311766</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0002690214417930576</v>
+        <v>0.07971490099351931</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2842577361203062</v>
+        <v>0.700214922074694</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01500355626193531</v>
+        <v>0.1406862826119382</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2842577361203062</v>
+        <v>0.700214922074694</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04397886419519828</v>
+        <v>0.198580095923957</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1702685797024055</v>
+        <v>0.5761442427311766</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03231699098382031</v>
+        <v>0.1459771844894669</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.1702685797024055</v>
+        <v>0.5761442427311766</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05678233682818862</v>
+        <v>0.1924875008823566</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1289164396384466</v>
+        <v>0.6127114345678598</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0004305645817727047</v>
+        <v>0.09258654391761915</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.23629506595314</v>
+        <v>0.741820956430959</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01750259706949298</v>
+        <v>0.1483662218797943</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.23629506595314</v>
+        <v>0.741820956430959</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04949592208162193</v>
+        <v>0.2031260122677823</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1289164396384466</v>
+        <v>0.6127114345678598</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03593099833832098</v>
+        <v>0.1529743839203226</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.1289164396384466</v>
+        <v>0.6127114345678598</v>
       </c>
       <c r="K46" t="n">
-        <v>0.06199497050835708</v>
+        <v>0.1991776740981049</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.08756429957448741</v>
+        <v>0.6492786264045428</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0006675064921499628</v>
+        <v>0.1063471287689378</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1883323957859742</v>
+        <v>0.783426990787224</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02031612075894022</v>
+        <v>0.1560698633543574</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1883323957859742</v>
+        <v>0.783426990787224</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05538573994908047</v>
+        <v>0.2075202336792455</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.08756429957448741</v>
+        <v>0.6492786264045428</v>
       </c>
       <c r="I47" t="n">
-        <v>0.03977913642478202</v>
+        <v>0.1599584680832248</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.08756429957448741</v>
+        <v>0.6492786264045428</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06743086379052576</v>
+        <v>0.2057439148586125</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.04621215951052848</v>
+        <v>0.685845818241226</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001027756833285285</v>
+        <v>0.1209485400127624</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1403697256188079</v>
+        <v>0.825033025143489</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02345437440950317</v>
+        <v>0.1637915298971768</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1403697256188079</v>
+        <v>0.825033025143489</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06162696336090673</v>
+        <v>0.2118364246674213</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.04621215951052848</v>
+        <v>0.685845818241226</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04388422619650556</v>
+        <v>0.1669316558825813</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.04621215951052848</v>
+        <v>0.685845818241226</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07309531643953045</v>
+        <v>0.2121963636381924</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00486001944656933</v>
+        <v>0.7224130100779093</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001535016819141524</v>
+        <v>0.1361991103705882</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.09240705545164207</v>
+        <v>0.8666390594997539</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02693607409960217</v>
+        <v>0.1714913469015378</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.09240705545164207</v>
+        <v>0.8666390594997539</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06820283681089953</v>
+        <v>0.2161384049807542</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.00486001944656933</v>
+        <v>0.7224130100779093</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04824413247536825</v>
+        <v>0.1738890606931686</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.00486001944656933</v>
+        <v>0.7224130100779093</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07898037989640815</v>
+        <v>0.2185388130064422</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03649212061738982</v>
+        <v>0.7589802019145923</v>
       </c>
       <c r="C50" t="n">
-        <v>0.002276594224018124</v>
+        <v>0.1518608264015603</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.04444438528447625</v>
+        <v>0.9082450938560187</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03078051910919817</v>
+        <v>0.1791733236455599</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.04444438528447625</v>
+        <v>0.9082450938560187</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07507937432846039</v>
+        <v>0.2204528076361061</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03649212061738982</v>
+        <v>0.7589802019145923</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05288924949864324</v>
+        <v>0.1808141102101125</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03649212061738982</v>
+        <v>0.7589802019145923</v>
       </c>
       <c r="K50" t="n">
-        <v>0.08506646718334603</v>
+        <v>0.224766436950258</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07784426068134875</v>
+        <v>0.7955473937512755</v>
       </c>
       <c r="C51" t="n">
-        <v>0.003280884405823874</v>
+        <v>0.1677541299822856</v>
       </c>
       <c r="D51" t="n">
-        <v>0.003518284882690015</v>
+        <v>0.9498511282122839</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03498453621368251</v>
+        <v>0.1868011384392834</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003518284882690015</v>
+        <v>0.9498511282122839</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08224141591927153</v>
+        <v>0.2248298710309094</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07784426068134875</v>
+        <v>0.7955473937512755</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05780720997366007</v>
+        <v>0.1877207866833669</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07784426068134875</v>
+        <v>0.7955473937512755</v>
       </c>
       <c r="K51" t="n">
-        <v>0.09136327070693158</v>
+        <v>0.2308795238355514</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1191964007453077</v>
+        <v>0.8321145855879587</v>
       </c>
       <c r="C52" t="n">
-        <v>0.004693562180389319</v>
+        <v>0.1836388451926835</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05148095504985584</v>
+        <v>0.9914571625685487</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03959489984962602</v>
+        <v>0.1943580086532022</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05148095504985584</v>
+        <v>0.9914571625685487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08963278971214834</v>
+        <v>0.2293114400468045</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1191964007453077</v>
+        <v>0.8321145855879587</v>
       </c>
       <c r="I52" t="n">
-        <v>0.06303415037324213</v>
+        <v>0.1946119920090884</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1191964007453077</v>
+        <v>0.8321145855879587</v>
       </c>
       <c r="K52" t="n">
-        <v>0.09786133909791785</v>
+        <v>0.2368962621187279</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1605485408092671</v>
+        <v>0.8686817774246419</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006536863028148667</v>
+        <v>0.1993123363281302</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09944362521702166</v>
+        <v>1.033063196924814</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04458313881180736</v>
+        <v>0.2018277382743738</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09944362521702166</v>
+        <v>1.033063196924814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0972462985180136</v>
+        <v>0.2339116445356557</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1605485408092671</v>
+        <v>0.8686817774246419</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06857325439216649</v>
+        <v>0.2014776763751907</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1605485408092671</v>
+        <v>0.8686817774246419</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1045553080189297</v>
+        <v>0.2428152438120646</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.201900680873226</v>
+        <v>0.9052489692613249</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009033197688389262</v>
+        <v>0.2145320076946026</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1474062953841879</v>
+        <v>1.074669231281079</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04998293850545505</v>
+        <v>0.2091871970610868</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1474062953841879</v>
+        <v>1.074669231281079</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1050090865363272</v>
+        <v>0.2386268384372366</v>
       </c>
       <c r="H54" t="n">
-        <v>0.201900680873226</v>
+        <v>0.9052489692613249</v>
       </c>
       <c r="I54" t="n">
-        <v>0.07443402929769048</v>
+        <v>0.208318582197367</v>
       </c>
       <c r="J54" t="n">
-        <v>0.201900680873226</v>
+        <v>0.9052489692613249</v>
       </c>
       <c r="K54" t="n">
-        <v>0.11144617963943</v>
+        <v>0.2486361664388933</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2432528209371849</v>
+        <v>0.9418161610980081</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01217667206237825</v>
+        <v>0.229127969502934</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1953689655513537</v>
+        <v>1.116275265637344</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05579290807450909</v>
+        <v>0.2164096537326086</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1953689655513537</v>
+        <v>1.116275265637344</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1128739387417002</v>
+        <v>0.2434602893021076</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2432528209371849</v>
+        <v>0.9418161610980081</v>
       </c>
       <c r="I55" t="n">
-        <v>0.08062493675554673</v>
+        <v>0.2151365621417455</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2432528209371849</v>
+        <v>0.9418161610980081</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1185267564117983</v>
+        <v>0.2543599359240825</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2846049610011439</v>
+        <v>0.9783833529346914</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01627698153015062</v>
+        <v>0.243014552397585</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2433316357185196</v>
+        <v>1.157881299993609</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06199788138713574</v>
+        <v>0.2234709879844279</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2433316357185196</v>
+        <v>1.157881299993609</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1207996300191816</v>
+        <v>0.2483877277359025</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2846049610011439</v>
+        <v>0.9783833529346914</v>
       </c>
       <c r="I56" t="n">
-        <v>0.08714968431746251</v>
+        <v>0.2219234707842207</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2846049610011439</v>
+        <v>0.9783833529346914</v>
       </c>
       <c r="K56" t="n">
-        <v>0.125797513923172</v>
+        <v>0.2599779397350739</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3259571010651032</v>
+        <v>1.014950544771374</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02127843864322701</v>
+        <v>0.2559947134953008</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2912943058856858</v>
+        <v>1.199487334349874</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06860581540734147</v>
+        <v>0.230362281708246</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2912943058856858</v>
+        <v>1.199487334349874</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1287142204609664</v>
+        <v>0.2533716238921649</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3259571010651032</v>
+        <v>1.014950544771374</v>
       </c>
       <c r="I57" t="n">
-        <v>0.09399107129405582</v>
+        <v>0.2286427923073653</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3259571010651032</v>
+        <v>1.014950544771374</v>
       </c>
       <c r="K57" t="n">
-        <v>0.133240455287734</v>
+        <v>0.2654965001741694</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3673092411290622</v>
+        <v>1.051517736608058</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02753589695126912</v>
+        <v>0.2680557557411393</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3392569760528517</v>
+        <v>1.241093368706139</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07560090681863164</v>
+        <v>0.237034511250678</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3392569760528517</v>
+        <v>1.241093368706139</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1365576352807724</v>
+        <v>0.2583951800871073</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3673092411290622</v>
+        <v>1.051517736608058</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1011378613287059</v>
+        <v>0.2352819797695841</v>
       </c>
       <c r="J58" t="n">
-        <v>0.3673092411290622</v>
+        <v>1.051517736608058</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1408459461739446</v>
+        <v>0.2709000363821086</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4086613811930211</v>
+        <v>1.088084928444741</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03494456820568827</v>
+        <v>0.2792541069900661</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3872196462200175</v>
+        <v>1.282699403062404</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08297472455040211</v>
+        <v>0.2434955918795558</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3872196462200175</v>
+        <v>1.282699403062404</v>
       </c>
       <c r="G59" t="n">
-        <v>0.144278757229105</v>
+        <v>0.2633683914162916</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4086613811930211</v>
+        <v>1.088084928444741</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1085683709942271</v>
+        <v>0.241813435533575</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4086613811930211</v>
+        <v>1.088084928444741</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1485877888916378</v>
+        <v>0.2761767580994435</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.45001352125698</v>
+        <v>1.124652120281424</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04384544712440715</v>
+        <v>0.2895153579029144</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4351823163871837</v>
+        <v>1.324305437418668</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09069217318939837</v>
+        <v>0.2497071235552807</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4351823163871837</v>
+        <v>1.324305437418668</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1518210243203039</v>
+        <v>0.2682429689359115</v>
       </c>
       <c r="H60" t="n">
-        <v>0.45001352125698</v>
+        <v>1.124652120281424</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1162438338704988</v>
+        <v>0.2481785700559052</v>
       </c>
       <c r="J60" t="n">
-        <v>0.45001352125698</v>
+        <v>1.124652120281424</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1564372939593562</v>
+        <v>0.2813084500111646</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4913656613209394</v>
+        <v>1.161219312118107</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05406734010370318</v>
+        <v>0.2989714586633458</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4831449865543496</v>
+        <v>1.365911471774934</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09874112884237313</v>
+        <v>0.2556668883984551</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4831449865543496</v>
+        <v>1.365911471774934</v>
       </c>
       <c r="G61" t="n">
-        <v>0.159140588869714</v>
+        <v>0.2729569645840744</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4913656613209394</v>
+        <v>1.161219312118107</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1241271541049171</v>
+        <v>0.2543514809553526</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4913656613209394</v>
+        <v>1.161219312118107</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1643795016917329</v>
+        <v>0.286274598914797</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5327178013848983</v>
+        <v>1.197786503954791</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06586843403621115</v>
+        <v>0.3077669390052135</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5311076567215158</v>
+        <v>1.407517506131198</v>
       </c>
       <c r="E62" t="n">
-        <v>0.107084716200403</v>
+        <v>0.2613892597892812</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5311076567215158</v>
+        <v>1.407517506131198</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1661994775555207</v>
+        <v>0.2774441515792219</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5327178013848983</v>
+        <v>1.197786503954791</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1321799815068246</v>
+        <v>0.2602974203488215</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5327178013848983</v>
+        <v>1.197786503954791</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1723608069139129</v>
+        <v>0.2910317873725797</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5740699414488573</v>
+        <v>1.234353695791473</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07900076919461688</v>
+        <v>0.3159419432566566</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5790703268886817</v>
+        <v>1.449123540487464</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1156744166898768</v>
+        <v>0.2668630035473192</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5790703268886817</v>
+        <v>1.449123540487464</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1729977653932168</v>
+        <v>0.2816608561493784</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5740699414488573</v>
+        <v>1.234353695791473</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1403484571329238</v>
+        <v>0.2659563844739046</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5740699414488573</v>
+        <v>1.234353695791473</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1803441462373984</v>
+        <v>0.2955617192630871</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6154220815128162</v>
+        <v>1.270920887628157</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09357492596931986</v>
+        <v>0.3236708780541067</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6270329970558475</v>
+        <v>1.490729574843728</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1244831994685873</v>
+        <v>0.272104956025879</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6270329970558475</v>
+        <v>1.490729574843728</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1795341464711799</v>
+        <v>0.2855102781966596</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6154220815128162</v>
+        <v>1.270920887628157</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1486012692347343</v>
+        <v>0.2713148965110662</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6154220815128162</v>
+        <v>1.270920887628157</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1883040276220677</v>
+        <v>0.2998420027750083</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6567742215767756</v>
+        <v>1.30748807946484</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1092713803377431</v>
+        <v>0.3310912479201129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6749956672230137</v>
+        <v>1.532335609199994</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1334435456398483</v>
+        <v>0.277151440535322</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6749956672230137</v>
+        <v>1.532335609199994</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1858175849119008</v>
+        <v>0.2889961356351945</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6567742215767756</v>
+        <v>1.30748807946484</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1568814955727218</v>
+        <v>0.2763660371493311</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6567742215767756</v>
+        <v>1.30748807946484</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1961964403432814</v>
+        <v>0.3038433862947676</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6981263616407345</v>
+        <v>1.344055271301523</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1260196655406048</v>
+        <v>0.3382782159790829</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7229583373901796</v>
+        <v>1.573941643556258</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1425290101379122</v>
+        <v>0.2820436736443402</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7229583373901796</v>
+        <v>1.573941643556258</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1919072776242171</v>
+        <v>0.2920717551459125</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6981263616407345</v>
+        <v>1.344055271301523</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1651778514556713</v>
+        <v>0.2811130910457346</v>
       </c>
       <c r="J66" t="n">
-        <v>0.6981263616407345</v>
+        <v>1.344055271301523</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2039956348475636</v>
+        <v>0.307530238316116</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7394785017046934</v>
+        <v>1.380622463138206</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1434561772564705</v>
+        <v>0.3453399414757984</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7709210075573454</v>
+        <v>1.615547677912523</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1516617535962269</v>
+        <v>0.2867907514874135</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7709210075573454</v>
+        <v>1.615547677912523</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1978243053040816</v>
+        <v>0.2947284956117313</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7394785017046934</v>
+        <v>1.380622463138206</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1734328699172511</v>
+        <v>0.2855454463234194</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7394785017046934</v>
+        <v>1.380622463138206</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2116830611490548</v>
+        <v>0.3108686681501019</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7808306417686528</v>
+        <v>1.417189654974889</v>
       </c>
       <c r="C68" t="n">
-        <v>0.161349593017189</v>
+        <v>0.352337443728709</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8188836777245116</v>
+        <v>1.657153712268788</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1608188573741992</v>
+        <v>0.2915001039757468</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8188836777245116</v>
+        <v>1.657153712268788</v>
       </c>
       <c r="G68" t="n">
-        <v>0.2036372856828173</v>
+        <v>0.2969699432484604</v>
       </c>
       <c r="H68" t="n">
-        <v>0.7808306417686528</v>
+        <v>1.417189654974889</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1816585658394326</v>
+        <v>0.289723806754838</v>
       </c>
       <c r="J68" t="n">
-        <v>0.7808306417686528</v>
+        <v>1.417189654974889</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2192326215366424</v>
+        <v>0.3138520703178739</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8221827818326117</v>
+        <v>1.453756846811573</v>
       </c>
       <c r="C69" t="n">
-        <v>0.179341865947434</v>
+        <v>0.3592937925500153</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8668463478916775</v>
+        <v>1.698759746625053</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1699458934431511</v>
+        <v>0.2961195437015432</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8668463478916775</v>
+        <v>1.698759746625053</v>
       </c>
       <c r="G69" t="n">
-        <v>0.209377484607602</v>
+        <v>0.2988093731882698</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8221827818326117</v>
+        <v>1.453756846811573</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1898140825408221</v>
+        <v>0.2936812705682215</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8221827818326117</v>
+        <v>1.453756846811573</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2266234838129074</v>
+        <v>0.3164729312983939</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8635349218965707</v>
+        <v>1.490324038648255</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1971175662104591</v>
+        <v>0.3662116782282104</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9148090180588433</v>
+        <v>1.740365780981318</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1789911840147862</v>
+        <v>0.3007715867368794</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9148090180588433</v>
+        <v>1.740365780981318</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2151180027070372</v>
+        <v>0.300302300460022</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8635349218965707</v>
+        <v>1.490324038648255</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1978951616861374</v>
+        <v>0.2974644342710454</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8635349218965707</v>
+        <v>1.490324038648255</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2338780207578296</v>
+        <v>0.3187060165230746</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9048870619605296</v>
+        <v>1.526891230484939</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2143854346881092</v>
+        <v>0.3730658370706166</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9627716882260096</v>
+        <v>1.781971815337583</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1879325648626516</v>
+        <v>0.3054327455753533</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9627716882260096</v>
+        <v>1.781971815337583</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2208807366554339</v>
+        <v>0.3014745671716817</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9048870619605296</v>
+        <v>1.526891230484939</v>
       </c>
       <c r="I71" t="n">
-        <v>0.205891457509051</v>
+        <v>0.3011572674604667</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9048870619605296</v>
+        <v>1.526891230484939</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2409817401324409</v>
+        <v>0.320560358048207</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.946239202024489</v>
+        <v>1.563458422321622</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2308552120472565</v>
+        <v>0.379781031762153</v>
       </c>
       <c r="D72" t="n">
-        <v>1.010734358393175</v>
+        <v>1.823577849693848</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1967199044859147</v>
+        <v>0.3101437701864088</v>
       </c>
       <c r="F72" t="n">
-        <v>1.010734358393175</v>
+        <v>1.823577849693848</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2267144309484562</v>
+        <v>0.302394546571579</v>
       </c>
       <c r="H72" t="n">
-        <v>0.946239202024489</v>
+        <v>1.563458422321622</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2137847571974224</v>
+        <v>0.3047920504149514</v>
       </c>
       <c r="J72" t="n">
-        <v>0.946239202024489</v>
+        <v>1.563458422321622</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2479101339905214</v>
+        <v>0.3220555545586946</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9875913420884479</v>
+        <v>1.600025614158305</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2463555647396178</v>
+        <v>0.3862893662673602</v>
       </c>
       <c r="D73" t="n">
-        <v>1.058697028560342</v>
+        <v>1.865183884050113</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2053366129646418</v>
+        <v>0.3148768435157435</v>
       </c>
       <c r="F73" t="n">
-        <v>1.058697028560342</v>
+        <v>1.865183884050113</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2326133597112059</v>
+        <v>0.3031178886022028</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9875913420884479</v>
+        <v>1.600025614158305</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2215443441699678</v>
+        <v>0.3084397035594271</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9875913420884479</v>
+        <v>1.600025614158305</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2546840489492446</v>
+        <v>0.3232108925021827</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.028943482152407</v>
+        <v>1.636592805994988</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2607192267533589</v>
+        <v>0.3925110189706194</v>
       </c>
       <c r="D74" t="n">
-        <v>1.106659698727507</v>
+        <v>1.906789918406378</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2137253241949593</v>
+        <v>0.319658875601509</v>
       </c>
       <c r="F74" t="n">
-        <v>1.106659698727507</v>
+        <v>1.906789918406378</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2385710347578149</v>
+        <v>0.3036729784685036</v>
       </c>
       <c r="H74" t="n">
-        <v>1.028943482152407</v>
+        <v>1.636592805994988</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2291533224708426</v>
+        <v>0.3121800126662495</v>
       </c>
       <c r="J74" t="n">
-        <v>1.028943482152407</v>
+        <v>1.636592805994988</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2612971653504275</v>
+        <v>0.3240244633291404</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.070295622216366</v>
+        <v>1.673159997831672</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2739184692047226</v>
+        <v>0.3982700260155161</v>
       </c>
       <c r="D75" t="n">
-        <v>1.154622368894673</v>
+        <v>1.948395952762643</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2218776632578262</v>
+        <v>0.3244040421324977</v>
       </c>
       <c r="F75" t="n">
-        <v>1.154622368894673</v>
+        <v>1.948395952762643</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2445822871757013</v>
+        <v>0.3041414169919342</v>
       </c>
       <c r="H75" t="n">
-        <v>1.070295622216366</v>
+        <v>1.673159997831672</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2365794936640251</v>
+        <v>0.3159940709038652</v>
       </c>
       <c r="J75" t="n">
-        <v>1.070295622216366</v>
+        <v>1.673159997831672</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2677175239035805</v>
+        <v>0.3245442864341701</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.111647762280325</v>
+        <v>1.709727189668355</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2859525451116745</v>
+        <v>0.4034954095824734</v>
       </c>
       <c r="D76" t="n">
-        <v>1.20258503906184</v>
+        <v>1.990001987118908</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2297523573787807</v>
+        <v>0.3291137133509799</v>
       </c>
       <c r="F76" t="n">
-        <v>1.20258503906184</v>
+        <v>1.990001987118908</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2505902746868726</v>
+        <v>0.3045630609338418</v>
       </c>
       <c r="H76" t="n">
-        <v>1.111647762280325</v>
+        <v>1.709727189668355</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2437560858655762</v>
+        <v>0.3199373555774793</v>
       </c>
       <c r="J76" t="n">
-        <v>1.111647762280325</v>
+        <v>1.709727189668355</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2739329847565819</v>
+        <v>0.324818158284252</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.152999902344284</v>
+        <v>1.746294381505038</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2969193154647669</v>
+        <v>0.4080962812962644</v>
       </c>
       <c r="D77" t="n">
-        <v>1.250547709229005</v>
+        <v>2.031608021475173</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2373209053856985</v>
+        <v>0.3337017915585006</v>
       </c>
       <c r="F77" t="n">
-        <v>1.250547709229005</v>
+        <v>2.031608021475173</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2565311068123164</v>
+        <v>0.304953786188118</v>
       </c>
       <c r="H77" t="n">
-        <v>1.152999902344284</v>
+        <v>1.746294381505038</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2506658090782438</v>
+        <v>0.3240156771644109</v>
       </c>
       <c r="J77" t="n">
-        <v>1.152999902344284</v>
+        <v>1.746294381505038</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2799268539122302</v>
+        <v>0.3248837357651171</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.194352042408243</v>
+        <v>1.782861573341721</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3069562106262808</v>
+        <v>0.4118283506721376</v>
       </c>
       <c r="D78" t="n">
-        <v>1.298510379396171</v>
+        <v>2.073214055831438</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2445738300464244</v>
+        <v>0.338108904466603</v>
       </c>
       <c r="F78" t="n">
-        <v>1.298510379396171</v>
+        <v>2.073214055831438</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2623611329252901</v>
+        <v>0.3053488057134703</v>
       </c>
       <c r="H78" t="n">
-        <v>1.194352042408243</v>
+        <v>1.782861573341721</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2572594307461018</v>
+        <v>0.3281972893173596</v>
       </c>
       <c r="J78" t="n">
-        <v>1.194352042408243</v>
+        <v>1.782861573341721</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2856430381769564</v>
+        <v>0.3247710288867517</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.235704182472202</v>
+        <v>1.819428765178404</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3162318528786019</v>
+        <v>0.414688153718247</v>
       </c>
       <c r="D79" t="n">
-        <v>1.346473049563337</v>
+        <v>2.114820090187703</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2514888006334196</v>
+        <v>0.3422923383258336</v>
       </c>
       <c r="F79" t="n">
-        <v>1.346473049563337</v>
+        <v>2.114820090187703</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2679732829911234</v>
+        <v>0.3057532002416042</v>
       </c>
       <c r="H79" t="n">
-        <v>1.235704182472202</v>
+        <v>1.819428765178404</v>
       </c>
       <c r="I79" t="n">
-        <v>0.263497684081376</v>
+        <v>0.3324493301112131</v>
       </c>
       <c r="J79" t="n">
-        <v>1.235704182472202</v>
+        <v>1.819428765178404</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2910475252121313</v>
+        <v>0.3245175545192194</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.277056322536161</v>
+        <v>1.855995957015087</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3249404967492661</v>
+        <v>0.416620486497719</v>
       </c>
       <c r="D80" t="n">
-        <v>1.394435719730503</v>
+        <v>2.156426124543968</v>
       </c>
       <c r="E80" t="n">
-        <v>0.258079491170009</v>
+        <v>0.346129141075994</v>
       </c>
       <c r="F80" t="n">
-        <v>1.394435719730503</v>
+        <v>2.156426124543968</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2732904795556466</v>
+        <v>0.3061484934731368</v>
       </c>
       <c r="H80" t="n">
-        <v>1.277056322536161</v>
+        <v>1.855995957015087</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2693588403736792</v>
+        <v>0.3367315123425969</v>
       </c>
       <c r="J80" t="n">
-        <v>1.277056322536161</v>
+        <v>1.855995957015087</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2961060724034505</v>
+        <v>0.3241833760686315</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.31840846260012</v>
+        <v>1.89256314885177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3332507971606046</v>
+        <v>0.4173837365359783</v>
       </c>
       <c r="D81" t="n">
-        <v>1.442398389897669</v>
+        <v>2.198032158900233</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2643630549169356</v>
+        <v>0.3496166003695658</v>
       </c>
       <c r="F81" t="n">
-        <v>1.442398389897669</v>
+        <v>2.198032158900233</v>
       </c>
       <c r="G81" t="n">
-        <v>0.278233664051241</v>
+        <v>0.3065393966208023</v>
       </c>
       <c r="H81" t="n">
-        <v>1.31840846260012</v>
+        <v>1.89256314885177</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2748529625955808</v>
+        <v>0.3409999695344889</v>
       </c>
       <c r="J81" t="n">
-        <v>1.31840846260012</v>
+        <v>1.89256314885177</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3007876929530205</v>
+        <v>0.3237967672372795</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.359760602664079</v>
+        <v>1.929130340688454</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3413235101069582</v>
+        <v>0.4170969961984867</v>
       </c>
       <c r="D82" t="n">
-        <v>1.490361060064835</v>
+        <v>2.239638193256498</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2703570328073716</v>
+        <v>0.3526527078356803</v>
       </c>
       <c r="F82" t="n">
-        <v>1.490361060064835</v>
+        <v>2.239638193256498</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2827429417363277</v>
+        <v>0.3068866853265194</v>
       </c>
       <c r="H82" t="n">
-        <v>1.359760602664079</v>
+        <v>1.929130340688454</v>
       </c>
       <c r="I82" t="n">
-        <v>0.279988748315834</v>
+        <v>0.3451722610270019</v>
       </c>
       <c r="J82" t="n">
-        <v>1.359760602664079</v>
+        <v>1.929130340688454</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3050256220057445</v>
+        <v>0.3233828332852612</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.401112742728039</v>
+        <v>1.965697532525137</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3492663577208066</v>
+        <v>0.4157834067926045</v>
       </c>
       <c r="D83" t="n">
-        <v>1.538323730232001</v>
+        <v>2.281244227612762</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2761262627885431</v>
+        <v>0.3552215122540138</v>
       </c>
       <c r="F83" t="n">
-        <v>1.538323730232001</v>
+        <v>2.281244227612762</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2867395952382875</v>
+        <v>0.3071759514200944</v>
       </c>
       <c r="H83" t="n">
-        <v>1.401112742728039</v>
+        <v>1.965697532525137</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2848108918128418</v>
+        <v>0.3491941765098901</v>
       </c>
       <c r="J83" t="n">
-        <v>1.401112742728039</v>
+        <v>1.965697532525137</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3088179393147777</v>
+        <v>0.3229561849238762</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.442464882791997</v>
+        <v>2.00226472436182</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3571494745442767</v>
+        <v>0.4132977418266234</v>
       </c>
       <c r="D84" t="n">
-        <v>1.586286400399167</v>
+        <v>2.322850261969028</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2817213311630088</v>
+        <v>0.3572733160792001</v>
       </c>
       <c r="F84" t="n">
-        <v>1.586286400399167</v>
+        <v>2.322850261969028</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2902331620366288</v>
+        <v>0.3073610058899415</v>
       </c>
       <c r="H84" t="n">
-        <v>1.442464882791997</v>
+        <v>2.00226472436182</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2893542792560909</v>
+        <v>0.3529955478460838</v>
       </c>
       <c r="J84" t="n">
-        <v>1.442464882791997</v>
+        <v>2.00226472436182</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3121278382472342</v>
+        <v>0.3225416464744384</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.483817022855956</v>
+        <v>2.038831916198503</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3649843671510505</v>
+        <v>0.4098825549779338</v>
       </c>
       <c r="D85" t="n">
-        <v>1.634249070566333</v>
+        <v>2.364456296325293</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2871942531387414</v>
+        <v>0.3588052039516858</v>
       </c>
       <c r="F85" t="n">
-        <v>1.634249070566333</v>
+        <v>2.364456296325293</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2931921527250127</v>
+        <v>0.3073916324978501</v>
       </c>
       <c r="H85" t="n">
-        <v>1.483817022855956</v>
+        <v>2.038831916198503</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2937313916329633</v>
+        <v>0.356482870679623</v>
       </c>
       <c r="J85" t="n">
-        <v>1.483817022855956</v>
+        <v>2.038831916198503</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3149517108615437</v>
+        <v>0.3221522068191897</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.525169162919915</v>
+        <v>2.075399108035186</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3727439373193779</v>
+        <v>0.405648530710439</v>
       </c>
       <c r="D86" t="n">
-        <v>1.682211740733499</v>
+        <v>2.406062330681558</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2926054985318973</v>
+        <v>0.3597753782682068</v>
       </c>
       <c r="F86" t="n">
-        <v>1.682211740733499</v>
+        <v>2.406062330681558</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2956316486858827</v>
+        <v>0.3072419407749005</v>
       </c>
       <c r="H86" t="n">
-        <v>1.525169162919915</v>
+        <v>2.075399108035186</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2979933108724418</v>
+        <v>0.3596449318743665</v>
       </c>
       <c r="J86" t="n">
-        <v>1.525169162919915</v>
+        <v>2.075399108035186</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3173026574512409</v>
+        <v>0.3217844476543155</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.566521302983875</v>
+        <v>2.111966299871869</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3803335547630901</v>
+        <v>0.4006031410506756</v>
       </c>
       <c r="D87" t="n">
-        <v>1.730174410900665</v>
+        <v>2.447668365037822</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2980237965024782</v>
+        <v>0.360242809783003</v>
       </c>
       <c r="F87" t="n">
-        <v>1.730174410900665</v>
+        <v>2.447668365037822</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2976123673009725</v>
+        <v>0.3068639524904955</v>
       </c>
       <c r="H87" t="n">
-        <v>1.566521302983875</v>
+        <v>2.111966299871869</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3021969765435676</v>
+        <v>0.3624163307287686</v>
       </c>
       <c r="J87" t="n">
-        <v>1.566521302983875</v>
+        <v>2.111966299871869</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3191700340680101</v>
+        <v>0.3214249168823791</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.607873443047834</v>
+        <v>2.148533491708553</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3876631625138815</v>
+        <v>0.3950290993429912</v>
       </c>
       <c r="D88" t="n">
-        <v>1.778137081067831</v>
+        <v>2.489274399394088</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3034421909068002</v>
+        <v>0.3601666958678422</v>
       </c>
       <c r="F88" t="n">
-        <v>1.778137081067831</v>
+        <v>2.489274399394088</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2991730205644776</v>
+        <v>0.3062080993515223</v>
       </c>
       <c r="H88" t="n">
-        <v>1.607873443047834</v>
+        <v>2.148533491708553</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3064720954820778</v>
+        <v>0.36473397509661</v>
       </c>
       <c r="J88" t="n">
-        <v>1.607873443047834</v>
+        <v>2.148533491708553</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3205952187761103</v>
+        <v>0.3210643807442969</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.649225583111793</v>
+        <v>2.185100683545236</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3945377973796336</v>
+        <v>0.3890779230083653</v>
       </c>
       <c r="D89" t="n">
-        <v>1.826099751234997</v>
+        <v>2.530880433750353</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3089218586131806</v>
+        <v>0.3596103432574587</v>
       </c>
       <c r="F89" t="n">
-        <v>1.826099751234997</v>
+        <v>2.530880433750353</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3003741689097986</v>
+        <v>0.3052645332019375</v>
       </c>
       <c r="H89" t="n">
-        <v>1.649225583111793</v>
+        <v>2.185100683545236</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3108413772823321</v>
+        <v>0.3666072763506666</v>
       </c>
       <c r="J89" t="n">
-        <v>1.649225583111793</v>
+        <v>2.185100683545236</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3216240952777321</v>
+        <v>0.3206857607694225</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.690577723175752</v>
+        <v>2.221667875381919</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4008594855755374</v>
+        <v>0.3828755821759411</v>
       </c>
       <c r="D90" t="n">
-        <v>1.874062421402163</v>
+        <v>2.572486468106618</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3144228663361457</v>
+        <v>0.3585970001419768</v>
       </c>
       <c r="F90" t="n">
-        <v>1.874062421402163</v>
+        <v>2.572486468106618</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3013257879794528</v>
+        <v>0.3039691962701584</v>
       </c>
       <c r="H90" t="n">
-        <v>1.690577723175752</v>
+        <v>2.221667875381919</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3153144900240559</v>
+        <v>0.3679728984805677</v>
       </c>
       <c r="J90" t="n">
-        <v>1.690577723175752</v>
+        <v>2.221667875381919</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3222934818273636</v>
+        <v>0.3202609447160263</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.731929863239711</v>
+        <v>2.258235067218602</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4063488900365232</v>
+        <v>0.3766195657692597</v>
       </c>
       <c r="D91" t="n">
-        <v>1.922025091569329</v>
+        <v>2.614092502462882</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3199212260272807</v>
+        <v>0.3571645657817473</v>
       </c>
       <c r="F91" t="n">
-        <v>1.922025091569329</v>
+        <v>2.614092502462882</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3020731481524195</v>
+        <v>0.302304058689471</v>
       </c>
       <c r="H91" t="n">
-        <v>1.731929863239711</v>
+        <v>2.258235067218602</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3199706340656864</v>
+        <v>0.3688449583856045</v>
       </c>
       <c r="J91" t="n">
-        <v>1.731929863239711</v>
+        <v>2.258235067218602</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3226418446525129</v>
+        <v>0.3197704395540378</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.77328200330367</v>
+        <v>2.294802259055285</v>
       </c>
       <c r="C92" t="n">
-        <v>0.410961082698254</v>
+        <v>0.3704282417362724</v>
       </c>
       <c r="D92" t="n">
-        <v>1.969987761736495</v>
+        <v>2.655698536819147</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3253699568477744</v>
+        <v>0.355338758820014</v>
       </c>
       <c r="F92" t="n">
-        <v>1.969987761736495</v>
+        <v>2.655698536819147</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3026933866536721</v>
+        <v>0.3002710032878744</v>
       </c>
       <c r="H92" t="n">
-        <v>1.77328200330367</v>
+        <v>2.294802259055285</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3247403988857917</v>
+        <v>0.3692526363695676</v>
       </c>
       <c r="J92" t="n">
-        <v>1.77328200330367</v>
+        <v>2.294802259055285</v>
       </c>
       <c r="K92" t="n">
-        <v>0.3227480287471172</v>
+        <v>0.3191937249169005</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.814634143367629</v>
+        <v>2.331369450891968</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4143630450812817</v>
+        <v>0.364446140598571</v>
       </c>
       <c r="D93" t="n">
-        <v>2.017950431903661</v>
+        <v>2.697304571175413</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3306895338850352</v>
+        <v>0.3531589413746407</v>
       </c>
       <c r="F93" t="n">
-        <v>2.017950431903661</v>
+        <v>2.697304571175413</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3032503855864722</v>
+        <v>0.2978328226630139</v>
       </c>
       <c r="H93" t="n">
-        <v>1.814634143367629</v>
+        <v>2.331369450891968</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3296075692381373</v>
+        <v>0.3691753360852827</v>
       </c>
       <c r="J93" t="n">
-        <v>1.814634143367629</v>
+        <v>2.331369450891968</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3226665259080703</v>
+        <v>0.318500783155298</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.855986283431588</v>
+        <v>2.367936642728651</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4166200317554223</v>
+        <v>0.3587192073376405</v>
       </c>
       <c r="D94" t="n">
-        <v>2.065913102070827</v>
+        <v>2.738910605531678</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3357950146886126</v>
+        <v>0.3506802456959915</v>
       </c>
       <c r="F94" t="n">
-        <v>2.065913102070827</v>
+        <v>2.738910605531678</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3037712954049829</v>
+        <v>0.2949855483926318</v>
       </c>
       <c r="H94" t="n">
-        <v>1.855986283431588</v>
+        <v>2.367936642728651</v>
       </c>
       <c r="I94" t="n">
-        <v>0.334509541995993</v>
+        <v>0.3686285695410296</v>
       </c>
       <c r="J94" t="n">
-        <v>1.855986283431588</v>
+        <v>2.367936642728651</v>
       </c>
       <c r="K94" t="n">
-        <v>0.322434580053204</v>
+        <v>0.3176628368257345</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.897338423495547</v>
+        <v>2.404503834565335</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4173975198490425</v>
+        <v>0.3532941364651574</v>
       </c>
       <c r="D95" t="n">
-        <v>2.113875772237993</v>
+        <v>2.780516639887942</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3406021102088949</v>
+        <v>0.3478868959348949</v>
       </c>
       <c r="F95" t="n">
-        <v>2.113875772237993</v>
+        <v>2.780516639887942</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3042508258811877</v>
+        <v>0.2917391788435146</v>
       </c>
       <c r="H95" t="n">
-        <v>1.897338423495547</v>
+        <v>2.404503834565335</v>
       </c>
       <c r="I95" t="n">
-        <v>0.339369161361011</v>
+        <v>0.3676661358360246</v>
       </c>
       <c r="J95" t="n">
-        <v>1.897338423495547</v>
+        <v>2.404503834565335</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3221063860492229</v>
+        <v>0.316659378404155</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.938690563559506</v>
+        <v>2.441071026402018</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4169088832908157</v>
+        <v>0.3482543261055065</v>
       </c>
       <c r="D96" t="n">
-        <v>2.161838442405159</v>
+        <v>2.822122674244207</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3450085177396805</v>
+        <v>0.3448369184268666</v>
       </c>
       <c r="F96" t="n">
-        <v>2.161838442405159</v>
+        <v>2.822122674244207</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3047274345426268</v>
+        <v>0.2881169933859135</v>
       </c>
       <c r="H96" t="n">
-        <v>1.938690563559506</v>
+        <v>2.441071026402018</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3441129044764111</v>
+        <v>0.3663161385964679</v>
       </c>
       <c r="J96" t="n">
-        <v>1.938690563559506</v>
+        <v>2.441071026402018</v>
       </c>
       <c r="K96" t="n">
-        <v>0.3217324307336309</v>
+        <v>0.3154842337462219</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.980042703623465</v>
+        <v>2.477638218238701</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4148863747767704</v>
+        <v>0.3435397941425859</v>
       </c>
       <c r="D97" t="n">
-        <v>2.209801112572325</v>
+        <v>2.863728708600473</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3489411469878614</v>
+        <v>0.3414666549327736</v>
       </c>
       <c r="F97" t="n">
-        <v>2.209801112572325</v>
+        <v>2.863728708600473</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3051586631390195</v>
+        <v>0.2841529895286537</v>
       </c>
       <c r="H97" t="n">
-        <v>1.980042703623465</v>
+        <v>2.477638218238701</v>
       </c>
       <c r="I97" t="n">
-        <v>0.348624385319533</v>
+        <v>0.3646076959569928</v>
       </c>
       <c r="J97" t="n">
-        <v>1.980042703623465</v>
+        <v>2.477638218238701</v>
       </c>
       <c r="K97" t="n">
-        <v>0.3213333572249353</v>
+        <v>0.3141104237266498</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.021394843687424</v>
+        <v>2.514205410075384</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4116822765421561</v>
+        <v>0.339142748018614</v>
       </c>
       <c r="D98" t="n">
-        <v>2.257763782739491</v>
+        <v>2.905334742956737</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3523040964333617</v>
+        <v>0.337792508351853</v>
       </c>
       <c r="F98" t="n">
-        <v>2.257763782739491</v>
+        <v>2.905334742956737</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3055047538395666</v>
+        <v>0.2798208555152656</v>
       </c>
       <c r="H98" t="n">
-        <v>2.021394843687424</v>
+        <v>2.514205410075384</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3528310144562667</v>
+        <v>0.362567526900502</v>
       </c>
       <c r="J98" t="n">
-        <v>2.021394843687424</v>
+        <v>2.514205410075384</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3209243230139665</v>
+        <v>0.3125285553950849</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.062746983751383</v>
+        <v>2.550772601912067</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4071707168717762</v>
+        <v>0.3350871687648661</v>
       </c>
       <c r="D99" t="n">
-        <v>2.305726452906657</v>
+        <v>2.946940777313002</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3550669928285688</v>
+        <v>0.3337712129613871</v>
       </c>
       <c r="F99" t="n">
-        <v>2.305726452906657</v>
+        <v>2.946940777313002</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3057407631283705</v>
+        <v>0.2752037077843831</v>
       </c>
       <c r="H99" t="n">
-        <v>2.062746983751383</v>
+        <v>2.550772601912067</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3566654338861448</v>
+        <v>0.3602639381549874</v>
       </c>
       <c r="J99" t="n">
-        <v>2.062746983751383</v>
+        <v>2.550772601912067</v>
       </c>
       <c r="K99" t="n">
-        <v>0.320522012830339</v>
+        <v>0.3107246754995028</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.104099123815342</v>
+        <v>2.58733979374875</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4017644054025543</v>
+        <v>0.3312889467003123</v>
       </c>
       <c r="D100" t="n">
-        <v>2.353689123073823</v>
+        <v>2.988546811669267</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3571440084109978</v>
+        <v>0.3293626997265527</v>
       </c>
       <c r="F100" t="n">
-        <v>2.353689123073823</v>
+        <v>2.988546811669267</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3057897294024592</v>
+        <v>0.2703305038247616</v>
       </c>
       <c r="H100" t="n">
-        <v>2.104099123815342</v>
+        <v>2.58733979374875</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3600101096025852</v>
+        <v>0.3576866458126293</v>
       </c>
       <c r="J100" t="n">
-        <v>2.104099123815342</v>
+        <v>2.58733979374875</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3201193764467425</v>
+        <v>0.3086959695203981</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.145451263879302</v>
+        <v>2.623906985585434</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3955143178925725</v>
+        <v>0.327723035905513</v>
       </c>
       <c r="D101" t="n">
-        <v>2.401651793240989</v>
+        <v>3.030152846025532</v>
       </c>
       <c r="E101" t="n">
-        <v>0.35856412916949</v>
+        <v>0.3244982100837011</v>
       </c>
       <c r="F101" t="n">
-        <v>2.401651793240989</v>
+        <v>3.030152846025532</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3056137496084186</v>
+        <v>0.2652323317310065</v>
       </c>
       <c r="H101" t="n">
-        <v>2.145451263879302</v>
+        <v>2.623906985585434</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3628372416427846</v>
+        <v>0.3548276119664809</v>
       </c>
       <c r="J101" t="n">
-        <v>2.145451263879302</v>
+        <v>2.623906985585434</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3197041745411998</v>
+        <v>0.3064325114254269</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.18680340394326</v>
+        <v>2.660474177422117</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3887907041209137</v>
+        <v>0.3243822444958093</v>
       </c>
       <c r="D102" t="n">
-        <v>2.449614463408155</v>
+        <v>3.071758880381797</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3592657791575545</v>
+        <v>0.3190854654173884</v>
       </c>
       <c r="F102" t="n">
-        <v>2.449614463408155</v>
+        <v>3.071758880381797</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3051286373764155</v>
+        <v>0.2599352883097754</v>
       </c>
       <c r="H102" t="n">
-        <v>2.18680340394326</v>
+        <v>2.660474177422117</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3651080699901151</v>
+        <v>0.3517370091858609</v>
       </c>
       <c r="J102" t="n">
-        <v>2.18680340394326</v>
+        <v>2.660474177422117</v>
       </c>
       <c r="K102" t="n">
-        <v>0.3192484596124529</v>
+        <v>0.3039294766842797</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.228155544007219</v>
+        <v>2.6970413692588</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3817649809624707</v>
+        <v>0.3211921065848476</v>
       </c>
       <c r="D103" t="n">
-        <v>2.497577133575321</v>
+        <v>3.113364914738062</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3593181890802884</v>
+        <v>0.3131018997496301</v>
       </c>
       <c r="F103" t="n">
-        <v>2.497577133575321</v>
+        <v>3.113364914738062</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3043059992325258</v>
+        <v>0.2544766978516409</v>
       </c>
       <c r="H103" t="n">
-        <v>2.228155544007219</v>
+        <v>2.6970413692588</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3667584061219843</v>
+        <v>0.3484017346902429</v>
       </c>
       <c r="J103" t="n">
-        <v>2.228155544007219</v>
+        <v>2.6970413692588</v>
       </c>
       <c r="K103" t="n">
-        <v>0.3187266294346513</v>
+        <v>0.3011813970336272</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.269507684071179</v>
+        <v>2.733608561095483</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3746969879729765</v>
+        <v>0.3181140556957474</v>
       </c>
       <c r="D104" t="n">
-        <v>2.545539803742487</v>
+        <v>3.154970949094327</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3586851668829083</v>
+        <v>0.3064636467352244</v>
       </c>
       <c r="F104" t="n">
-        <v>2.545539803742487</v>
+        <v>3.154970949094327</v>
       </c>
       <c r="G104" t="n">
-        <v>0.3030704758185098</v>
+        <v>0.2488810044532699</v>
       </c>
       <c r="H104" t="n">
-        <v>2.269507684071179</v>
+        <v>2.733608561095483</v>
       </c>
       <c r="I104" t="n">
-        <v>0.367807920351686</v>
+        <v>0.3447854506644239</v>
       </c>
       <c r="J104" t="n">
-        <v>2.269507684071179</v>
+        <v>2.733608561095483</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3181161772239208</v>
+        <v>0.2981798254599164</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.310859824135137</v>
+        <v>2.770175752932166</v>
       </c>
       <c r="C105" t="n">
-        <v>0.367780093951534</v>
+        <v>0.3150985169555386</v>
       </c>
       <c r="D105" t="n">
-        <v>2.593502473909653</v>
+        <v>3.196576983450591</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3574683444959041</v>
+        <v>0.2991370851233683</v>
       </c>
       <c r="F105" t="n">
-        <v>2.593502473909653</v>
+        <v>3.196576983450591</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3013871169836881</v>
+        <v>0.2431434711186207</v>
       </c>
       <c r="H105" t="n">
-        <v>2.310859824135137</v>
+        <v>2.770175752932166</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3682414937225449</v>
+        <v>0.3408800158955264</v>
       </c>
       <c r="J105" t="n">
-        <v>2.310859824135137</v>
+        <v>2.770175752932166</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3173735671957719</v>
+        <v>0.2949200068426783</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.352211964199097</v>
+        <v>2.806742944768849</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3611342993961817</v>
+        <v>0.3120693997024147</v>
       </c>
       <c r="D106" t="n">
-        <v>2.641465144076819</v>
+        <v>3.238183017806857</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3556689805434523</v>
+        <v>0.2910851954131879</v>
       </c>
       <c r="F106" t="n">
-        <v>2.641465144076819</v>
+        <v>3.238183017806857</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2992184292506394</v>
+        <v>0.2372769995488038</v>
       </c>
       <c r="H106" t="n">
-        <v>2.352211964199097</v>
+        <v>2.806742944768849</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3680937649522717</v>
+        <v>0.3366588263898093</v>
       </c>
       <c r="J106" t="n">
-        <v>2.352211964199097</v>
+        <v>2.806742944768849</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3164612181848366</v>
+        <v>0.2913939568478087</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.393564104263055</v>
+        <v>2.843310136605532</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3548972293758004</v>
+        <v>0.3089523967434906</v>
       </c>
       <c r="D107" t="n">
-        <v>2.689427814243984</v>
+        <v>3.279789052163122</v>
       </c>
       <c r="E107" t="n">
-        <v>0.35335237467565</v>
+        <v>0.2823006990880934</v>
       </c>
       <c r="F107" t="n">
-        <v>2.689427814243984</v>
+        <v>3.279789052163122</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2965317755404405</v>
+        <v>0.2312735729427253</v>
       </c>
       <c r="H107" t="n">
-        <v>2.393564104263055</v>
+        <v>2.843310136605532</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3673520847877265</v>
+        <v>0.3320438111858774</v>
       </c>
       <c r="J107" t="n">
-        <v>2.393564104263055</v>
+        <v>2.843310136605532</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3153596775988584</v>
+        <v>0.287591137790413</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.434916244327014</v>
+        <v>2.879877328442216</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3490701212456928</v>
+        <v>0.3056322151539793</v>
       </c>
       <c r="D108" t="n">
-        <v>2.737390484411151</v>
+        <v>3.321395086519387</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3505724672515578</v>
+        <v>0.2728008062875102</v>
       </c>
       <c r="F108" t="n">
-        <v>2.737390484411151</v>
+        <v>3.321395086519387</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2933487194620638</v>
+        <v>0.2251079758537402</v>
       </c>
       <c r="H108" t="n">
-        <v>2.434916244327014</v>
+        <v>2.879877328442216</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3661052166180033</v>
+        <v>0.3270409839314583</v>
       </c>
       <c r="J108" t="n">
-        <v>2.434916244327014</v>
+        <v>2.879877328442216</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3140300687394923</v>
+        <v>0.2835025001147431</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.476268384390974</v>
+        <v>2.916444520278899</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3437117442495124</v>
+        <v>0.3020424504153054</v>
       </c>
       <c r="D109" t="n">
-        <v>2.785353154578317</v>
+        <v>3.363001120875651</v>
       </c>
       <c r="E109" t="n">
-        <v>0.347346569028279</v>
+        <v>0.2626217556609154</v>
       </c>
       <c r="F109" t="n">
-        <v>2.785353154578317</v>
+        <v>3.363001120875651</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2896231133899093</v>
+        <v>0.2187683389450186</v>
       </c>
       <c r="H109" t="n">
-        <v>2.476268384390974</v>
+        <v>2.916444520278899</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3643490700031902</v>
+        <v>0.3216129246053088</v>
       </c>
       <c r="J109" t="n">
-        <v>2.476268384390974</v>
+        <v>2.916444520278899</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3124474660483789</v>
+        <v>0.2791187785029421</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.517620524454932</v>
+        <v>2.953011712115582</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3387585742117194</v>
+        <v>0.2980810342662846</v>
       </c>
       <c r="D110" t="n">
-        <v>2.833315824745482</v>
+        <v>3.404607155231917</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3436696432688617</v>
+        <v>0.2518561150312797</v>
       </c>
       <c r="F110" t="n">
-        <v>2.833315824745482</v>
+        <v>3.404607155231917</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2854292930413336</v>
+        <v>0.2122199920909225</v>
       </c>
       <c r="H110" t="n">
-        <v>2.517620524454932</v>
+        <v>2.953011712115582</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3621567700761947</v>
+        <v>0.3156865638887121</v>
       </c>
       <c r="J110" t="n">
-        <v>2.517620524454932</v>
+        <v>2.953011712115582</v>
       </c>
       <c r="K110" t="n">
-        <v>0.3105999974276372</v>
+        <v>0.2744226072801868</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.558972664518892</v>
+        <v>2.989578903952265</v>
       </c>
       <c r="C111" t="n">
-        <v>0.334212594351796</v>
+        <v>0.2936023897732554</v>
       </c>
       <c r="D111" t="n">
-        <v>2.881278494912649</v>
+        <v>3.446213189588182</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3395829062392645</v>
+        <v>0.2405367101650292</v>
       </c>
       <c r="F111" t="n">
-        <v>2.881278494912649</v>
+        <v>3.446213189588182</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2807743099093912</v>
+        <v>0.2054406366665012</v>
       </c>
       <c r="H111" t="n">
-        <v>2.558972664518892</v>
+        <v>2.989578903952265</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3595310554135043</v>
+        <v>0.3092778382123907</v>
       </c>
       <c r="J111" t="n">
-        <v>2.558972664518892</v>
+        <v>2.989578903952265</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3084721112158305</v>
+        <v>0.2694020972200941</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.600324804582851</v>
+        <v>3.026146095788948</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3299959126349887</v>
+        <v>0.2886040806803014</v>
       </c>
       <c r="D112" t="n">
-        <v>2.929241165079815</v>
+        <v>3.487819223944447</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3350112734880792</v>
+        <v>0.2288258366748469</v>
       </c>
       <c r="F112" t="n">
-        <v>2.929241165079815</v>
+        <v>3.487819223944447</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2756905425949667</v>
+        <v>0.1984070966756208</v>
       </c>
       <c r="H112" t="n">
-        <v>2.600324804582851</v>
+        <v>3.026146095788948</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3565378102766326</v>
+        <v>0.3023422476430539</v>
       </c>
       <c r="J112" t="n">
-        <v>2.600324804582851</v>
+        <v>3.026146095788948</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3060474230476745</v>
+        <v>0.2640474024650377</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.64167694464681</v>
+        <v>3.062713287625631</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3260817858000488</v>
+        <v>0.2830119453739265</v>
       </c>
       <c r="D113" t="n">
-        <v>2.97720383524698</v>
+        <v>3.529425258300711</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3299165906511796</v>
+        <v>0.2168122930740645</v>
       </c>
       <c r="F113" t="n">
-        <v>2.97720383524698</v>
+        <v>3.529425258300711</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2702667321546581</v>
+        <v>0.1911143434990004</v>
       </c>
       <c r="H113" t="n">
-        <v>2.64167694464681</v>
+        <v>3.062713287625631</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3531768314401821</v>
+        <v>0.2948433592409554</v>
       </c>
       <c r="J113" t="n">
-        <v>2.64167694464681</v>
+        <v>3.062713287625631</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3033081786580873</v>
+        <v>0.2583645386599013</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.683029084710769</v>
+        <v>3.099280479462315</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3223955204091833</v>
+        <v>0.2767376289626158</v>
       </c>
       <c r="D114" t="n">
-        <v>3.025166505414147</v>
+        <v>3.571031292656976</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3242557415803898</v>
+        <v>0.2046341622782201</v>
       </c>
       <c r="F114" t="n">
-        <v>3.025166505414147</v>
+        <v>3.571031292656976</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2645104107187158</v>
+        <v>0.1835469946203228</v>
       </c>
       <c r="H114" t="n">
-        <v>2.683029084710769</v>
+        <v>3.099280479462315</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3494272880356401</v>
+        <v>0.2868425973383349</v>
       </c>
       <c r="J114" t="n">
-        <v>2.683029084710769</v>
+        <v>3.099280479462315</v>
       </c>
       <c r="K114" t="n">
-        <v>0.3002678216614621</v>
+        <v>0.2523501647868547</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.724381224774728</v>
+        <v>3.135847671298998</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3188853294409319</v>
+        <v>0.2698776348202367</v>
       </c>
       <c r="D115" t="n">
-        <v>3.073129175581313</v>
+        <v>3.612637327013242</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3178732528255895</v>
+        <v>0.1924124835786441</v>
       </c>
       <c r="F115" t="n">
-        <v>3.073129175581313</v>
+        <v>3.612637327013242</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2585007045225511</v>
+        <v>0.1757169201225948</v>
       </c>
       <c r="H115" t="n">
-        <v>2.724381224774728</v>
+        <v>3.135847671298998</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3453252257697346</v>
+        <v>0.2782928002447208</v>
       </c>
       <c r="J115" t="n">
-        <v>2.724381224774728</v>
+        <v>3.135847671298998</v>
       </c>
       <c r="K115" t="n">
-        <v>0.296918310035674</v>
+        <v>0.2460079101878624</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.765733364838687</v>
+        <v>3.172414863135681</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3154642038567064</v>
+        <v>0.2624361009958963</v>
       </c>
       <c r="D116" t="n">
-        <v>3.121091845748478</v>
+        <v>3.654243361369507</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3107821605089015</v>
+        <v>0.1803130608936039</v>
       </c>
       <c r="F116" t="n">
-        <v>3.121091845748478</v>
+        <v>3.654243361369507</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2522783579663343</v>
+        <v>0.1676467342776333</v>
       </c>
       <c r="H116" t="n">
-        <v>2.765733364838687</v>
+        <v>3.172414863135681</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3408284823982244</v>
+        <v>0.2692373581570172</v>
       </c>
       <c r="J116" t="n">
-        <v>2.765733364838687</v>
+        <v>3.172414863135681</v>
       </c>
       <c r="K116" t="n">
-        <v>0.293244122664856</v>
+        <v>0.239328955175752</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.807085504902646</v>
+        <v>3.208982054972364</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3120408711423562</v>
+        <v>0.2544337783316054</v>
       </c>
       <c r="D117" t="n">
-        <v>3.169054515915644</v>
+        <v>3.695849395725771</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3028200294897245</v>
+        <v>0.1684259555255568</v>
       </c>
       <c r="F117" t="n">
-        <v>3.169054515915644</v>
+        <v>3.695849395725771</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2458518202151025</v>
+        <v>0.1593662143952221</v>
       </c>
       <c r="H117" t="n">
-        <v>2.807085504902646</v>
+        <v>3.208982054972364</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3359001739613062</v>
+        <v>0.2597391629291659</v>
       </c>
       <c r="J117" t="n">
-        <v>2.807085504902646</v>
+        <v>3.208982054972364</v>
       </c>
       <c r="K117" t="n">
-        <v>0.2892492395945318</v>
+        <v>0.2323516124781894</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.848437644966605</v>
+        <v>3.245549246809047</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3084947345660937</v>
+        <v>0.2460263032433464</v>
       </c>
       <c r="D118" t="n">
-        <v>3.217017186082811</v>
+        <v>3.737455430082036</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2940092025383228</v>
+        <v>0.1568682238465325</v>
       </c>
       <c r="F118" t="n">
-        <v>3.217017186082811</v>
+        <v>3.737455430082036</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2392447436782581</v>
+        <v>0.1509287194623208</v>
       </c>
       <c r="H118" t="n">
-        <v>2.848437644966605</v>
+        <v>3.245549246809047</v>
       </c>
       <c r="I118" t="n">
-        <v>0.330503220849336</v>
+        <v>0.2497912520433555</v>
       </c>
       <c r="J118" t="n">
-        <v>2.848437644966605</v>
+        <v>3.245549246809047</v>
       </c>
       <c r="K118" t="n">
-        <v>0.2848938431132753</v>
+        <v>0.2250986301795415</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.889789785030564</v>
+        <v>3.282116438645731</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3046957819017377</v>
+        <v>0.2372866031388469</v>
       </c>
       <c r="D119" t="n">
-        <v>3.264979856249977</v>
+        <v>3.779061464438302</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2842594983113481</v>
+        <v>0.1457503576447509</v>
       </c>
       <c r="F119" t="n">
-        <v>3.264979856249977</v>
+        <v>3.779061464438302</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2324511610148628</v>
+        <v>0.1423696921802445</v>
       </c>
       <c r="H119" t="n">
-        <v>2.889789785030564</v>
+        <v>3.282116438645731</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3246055981566178</v>
+        <v>0.2395150160036712</v>
       </c>
       <c r="J119" t="n">
-        <v>2.889789785030564</v>
+        <v>3.282116438645731</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2801890689548392</v>
+        <v>0.2175882165883456</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.931141925094523</v>
+        <v>3.318683630482414</v>
       </c>
       <c r="C120" t="n">
-        <v>0.30049381401257</v>
+        <v>0.2283078610336464</v>
       </c>
       <c r="D120" t="n">
-        <v>3.312942526417142</v>
+        <v>3.820667498794567</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2736188682830499</v>
+        <v>0.1351356810051747</v>
       </c>
       <c r="F120" t="n">
-        <v>3.312942526417142</v>
+        <v>3.820667498794567</v>
       </c>
       <c r="G120" t="n">
-        <v>0.2254576458357462</v>
+        <v>0.1337684214527591</v>
       </c>
       <c r="H120" t="n">
-        <v>2.931141925094523</v>
+        <v>3.318683630482414</v>
       </c>
       <c r="I120" t="n">
-        <v>0.318169008454198</v>
+        <v>0.22895572488264</v>
       </c>
       <c r="J120" t="n">
-        <v>2.931141925094523</v>
+        <v>3.318683630482414</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2751304753019279</v>
+        <v>0.2098486137109458</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.972494065158482</v>
+        <v>3.355250822319097</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2957593848025368</v>
+        <v>0.2192200493107631</v>
       </c>
       <c r="D121" t="n">
-        <v>3.360905196584309</v>
+        <v>3.862273533150831</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2621192352592205</v>
+        <v>0.1250992712705418</v>
       </c>
       <c r="F121" t="n">
-        <v>3.360905196584309</v>
+        <v>3.862273533150831</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2182277095051394</v>
+        <v>0.125198640614183</v>
       </c>
       <c r="H121" t="n">
-        <v>2.972494065158482</v>
+        <v>3.355250822319097</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3111269548384691</v>
+        <v>0.2181970680773681</v>
       </c>
       <c r="J121" t="n">
-        <v>2.972494065158482</v>
+        <v>3.355250822319097</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2696899400812012</v>
+        <v>0.201914460053869</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.013846205222441</v>
+        <v>3.39181801415578</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2903504268458387</v>
+        <v>0.2101075154117756</v>
       </c>
       <c r="D122" t="n">
-        <v>3.408867866751475</v>
+        <v>3.903879567507096</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2498424959154735</v>
+        <v>0.1156552398691464</v>
       </c>
       <c r="F122" t="n">
-        <v>3.408867866751475</v>
+        <v>3.903879567507096</v>
       </c>
       <c r="G122" t="n">
-        <v>0.210738896623906</v>
+        <v>0.1167174486285993</v>
       </c>
       <c r="H122" t="n">
-        <v>3.013846205222441</v>
+        <v>3.39181801415578</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3034728651737318</v>
+        <v>0.2073422821216646</v>
       </c>
       <c r="J122" t="n">
-        <v>3.013846205222441</v>
+        <v>3.39181801415578</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2638563488385582</v>
+        <v>0.1938244522862571</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.055198345286401</v>
+        <v>3.428385205992463</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2842018120781075</v>
+        <v>0.201055960465451</v>
       </c>
       <c r="D123" t="n">
-        <v>3.45683053691864</v>
+        <v>3.945485601863362</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2369419173188827</v>
+        <v>0.1068531471580536</v>
       </c>
       <c r="F123" t="n">
-        <v>3.45683053691864</v>
+        <v>3.945485601863362</v>
       </c>
       <c r="G123" t="n">
-        <v>0.20296658766774</v>
+        <v>0.1083919494666344</v>
       </c>
       <c r="H123" t="n">
-        <v>3.055198345286401</v>
+        <v>3.428385205992463</v>
       </c>
       <c r="I123" t="n">
-        <v>0.2951774078641501</v>
+        <v>0.1964664399933142</v>
       </c>
       <c r="J123" t="n">
-        <v>3.055198345286401</v>
+        <v>3.428385205992463</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2576138508565753</v>
+        <v>0.1856050463207827</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.096550485350359</v>
+        <v>3.464952397829146</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2772304110324794</v>
+        <v>0.192116639496255</v>
       </c>
       <c r="D124" t="n">
-        <v>3.504793207085807</v>
+        <v>3.987091636219627</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2235052116819571</v>
+        <v>0.0986377325586066</v>
       </c>
       <c r="F124" t="n">
-        <v>3.504793207085807</v>
+        <v>3.987091636219627</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1948499205940566</v>
+        <v>0.1002941716361947</v>
       </c>
       <c r="H124" t="n">
-        <v>3.096550485350359</v>
+        <v>3.464952397829146</v>
       </c>
       <c r="I124" t="n">
-        <v>0.286259877388495</v>
+        <v>0.1856730686377289</v>
       </c>
       <c r="J124" t="n">
-        <v>3.096550485350359</v>
+        <v>3.464952397829146</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2509615563815616</v>
+        <v>0.1772980285680832</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.137902625414319</v>
+        <v>3.501519589665829</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2694808325236637</v>
+        <v>0.1833380071805852</v>
       </c>
       <c r="D125" t="n">
-        <v>3.552755877252973</v>
+        <v>4.028697670575891</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2097907796343355</v>
+        <v>0.09105983074245404</v>
       </c>
       <c r="F125" t="n">
-        <v>3.552755877252973</v>
+        <v>4.028697670575891</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1864167758620977</v>
+        <v>0.0924954881095003</v>
       </c>
       <c r="H125" t="n">
-        <v>3.137902625414319</v>
+        <v>3.501519589665829</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2766522263039339</v>
+        <v>0.1750497301315814</v>
       </c>
       <c r="J125" t="n">
-        <v>3.137902625414319</v>
+        <v>3.501519589665829</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2439214208875713</v>
+        <v>0.1689417712245683</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.179254765478277</v>
+        <v>3.538086781502512</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2609600922025994</v>
+        <v>0.1747535783491405</v>
       </c>
       <c r="D126" t="n">
-        <v>3.600718547420138</v>
+        <v>4.070303704932156</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1959231775562039</v>
+        <v>0.08403535908841119</v>
       </c>
       <c r="F126" t="n">
-        <v>3.600718547420138</v>
+        <v>4.070303704932156</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1776216538779655</v>
+        <v>0.08501578424128564</v>
       </c>
       <c r="H126" t="n">
-        <v>3.179254765478277</v>
+        <v>3.538086781502512</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2664992458353733</v>
+        <v>0.1646823778617613</v>
       </c>
       <c r="J126" t="n">
-        <v>3.179254765478277</v>
+        <v>3.538086781502512</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2364814990057384</v>
+        <v>0.1605719399699319</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.220606905542236</v>
+        <v>3.574653973339196</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2518143946892887</v>
+        <v>0.1663485980751702</v>
       </c>
       <c r="D127" t="n">
-        <v>3.648681217587304</v>
+        <v>4.111909739288421</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1821334779224966</v>
+        <v>0.07755587799894044</v>
       </c>
       <c r="F127" t="n">
-        <v>3.648681217587304</v>
+        <v>4.111909739288421</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1685240494140206</v>
+        <v>0.07793173595298282</v>
       </c>
       <c r="H127" t="n">
-        <v>3.220606905542236</v>
+        <v>3.574653973339196</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2557737952699448</v>
+        <v>0.1546274447209905</v>
       </c>
       <c r="J127" t="n">
-        <v>3.220606905542236</v>
+        <v>3.574653973339196</v>
       </c>
       <c r="K127" t="n">
-        <v>0.2286690554110139</v>
+        <v>0.1522147445119431</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.261959045606196</v>
+        <v>3.611221165175879</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2421330085549301</v>
+        <v>0.1581327161190895</v>
       </c>
       <c r="D128" t="n">
-        <v>3.696643887754471</v>
+        <v>4.153515773644687</v>
       </c>
       <c r="E128" t="n">
-        <v>0.168591641273042</v>
+        <v>0.07156361673939529</v>
       </c>
       <c r="F128" t="n">
-        <v>3.696643887754471</v>
+        <v>4.153515773644687</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1591461605858524</v>
+        <v>0.07125585859328538</v>
       </c>
       <c r="H128" t="n">
-        <v>3.261959045606196</v>
+        <v>3.611221165175879</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2445503970926135</v>
+        <v>0.1449258918083421</v>
       </c>
       <c r="J128" t="n">
-        <v>3.261959045606196</v>
+        <v>3.611221165175879</v>
       </c>
       <c r="K128" t="n">
-        <v>0.220514347272219</v>
+        <v>0.1438957141801132</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.303311185670154</v>
+        <v>3.647788357012562</v>
       </c>
       <c r="C129" t="n">
-        <v>0.232103951431755</v>
+        <v>0.1501001753278414</v>
       </c>
       <c r="D129" t="n">
-        <v>3.744606557921636</v>
+        <v>4.195121808000951</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1554654986727724</v>
+        <v>0.06601928466853246</v>
       </c>
       <c r="F129" t="n">
-        <v>3.744606557921636</v>
+        <v>4.195121808000951</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1495494549531321</v>
+        <v>0.06500734221554026</v>
       </c>
       <c r="H129" t="n">
-        <v>3.303311185670154</v>
+        <v>3.647788357012562</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2329551772307825</v>
+        <v>0.1356688936314261</v>
       </c>
       <c r="J129" t="n">
-        <v>3.303311185670154</v>
+        <v>3.647788357012562</v>
       </c>
       <c r="K129" t="n">
-        <v>0.2120364684746625</v>
+        <v>0.1356538611231661</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.344663325734114</v>
+        <v>3.684355548849245</v>
       </c>
       <c r="C130" t="n">
-        <v>0.221858182435427</v>
+        <v>0.1422159079525788</v>
       </c>
       <c r="D130" t="n">
-        <v>3.792569228088802</v>
+        <v>4.236727842357216</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1429152782651117</v>
+        <v>0.06088610569366536</v>
       </c>
       <c r="F130" t="n">
-        <v>3.792569228088802</v>
+        <v>4.236727842357216</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1398390019851917</v>
+        <v>0.05921732077361495</v>
       </c>
       <c r="H130" t="n">
-        <v>3.344663325734114</v>
+        <v>3.684355548849245</v>
       </c>
       <c r="I130" t="n">
-        <v>0.2210692433443745</v>
+        <v>0.1268433772417652</v>
       </c>
       <c r="J130" t="n">
-        <v>3.344663325734114</v>
+        <v>3.684355548849245</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2033073347016308</v>
+        <v>0.127515495565155</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.386015465798073</v>
+        <v>3.720922740685928</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2115508690183132</v>
+        <v>0.134476139684257</v>
       </c>
       <c r="D131" t="n">
-        <v>3.840531898255969</v>
+        <v>4.278333876713481</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1310243498722599</v>
+        <v>0.05611484866783339</v>
       </c>
       <c r="F131" t="n">
-        <v>3.840531898255969</v>
+        <v>4.278333876713481</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1300741184278153</v>
+        <v>0.05385121358834286</v>
       </c>
       <c r="H131" t="n">
-        <v>3.386015465798073</v>
+        <v>3.720922740685928</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2090115304102109</v>
+        <v>0.1184665192826037</v>
       </c>
       <c r="J131" t="n">
-        <v>3.386015465798073</v>
+        <v>3.720922740685928</v>
       </c>
       <c r="K131" t="n">
-        <v>0.194363243832279</v>
+        <v>0.1195167864406354</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.427367605862031</v>
+        <v>3.757489932522612</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2013064381950465</v>
+        <v>0.126869388819801</v>
       </c>
       <c r="D132" t="n">
-        <v>3.888494568423134</v>
+        <v>4.319939911069746</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1198953506285709</v>
+        <v>0.05167629792484953</v>
       </c>
       <c r="F132" t="n">
-        <v>3.888494568423134</v>
+        <v>4.319939911069746</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1203652766013723</v>
+        <v>0.04893537306990526</v>
       </c>
       <c r="H132" t="n">
-        <v>3.427367605862031</v>
+        <v>3.757489932522612</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1968975261662479</v>
+        <v>0.1105792019465199</v>
       </c>
       <c r="J132" t="n">
-        <v>3.427367605862031</v>
+        <v>3.757489932522612</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1852410988106993</v>
+        <v>0.1116716414725937</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.468719745925991</v>
+        <v>3.794057124359295</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1912001148169806</v>
+        <v>0.1193719125848225</v>
       </c>
       <c r="D133" t="n">
-        <v>3.9364572385903</v>
+        <v>4.361545945426011</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1095346992521012</v>
+        <v>0.04754298949722526</v>
       </c>
       <c r="F133" t="n">
-        <v>3.9364572385903</v>
+        <v>4.361545945426011</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1108158612831491</v>
+        <v>0.04444491739343686</v>
       </c>
       <c r="H133" t="n">
-        <v>3.468719745925991</v>
+        <v>3.794057124359295</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1848762652064713</v>
+        <v>0.1031315133814133</v>
       </c>
       <c r="J133" t="n">
-        <v>3.468719745925991</v>
+        <v>3.794057124359295</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1759874188728991</v>
+        <v>0.1040041306374873</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.51007188598995</v>
+        <v>3.830624316195978</v>
       </c>
       <c r="C134" t="n">
-        <v>0.181318782502303</v>
+        <v>0.1119880870403939</v>
       </c>
       <c r="D134" t="n">
-        <v>3.984419908757467</v>
+        <v>4.403151979782276</v>
       </c>
       <c r="E134" t="n">
-        <v>0.09999581446523836</v>
+        <v>0.04368087147165334</v>
       </c>
       <c r="F134" t="n">
-        <v>3.984419908757467</v>
+        <v>4.403151979782276</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1015293194208451</v>
+        <v>0.04033651269694683</v>
       </c>
       <c r="H134" t="n">
-        <v>3.51007188598995</v>
+        <v>3.830624316195978</v>
       </c>
       <c r="I134" t="n">
-        <v>0.1730565649577461</v>
+        <v>0.09611960423387488</v>
       </c>
       <c r="J134" t="n">
-        <v>3.51007188598995</v>
+        <v>3.830624316195978</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1666706410584181</v>
+        <v>0.0965433489274355</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.551424026053909</v>
+        <v>3.867191508032661</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1716568661601834</v>
+        <v>0.1047190320669433</v>
       </c>
       <c r="D135" t="n">
-        <v>4.032382578924632</v>
+        <v>4.444758014138541</v>
       </c>
       <c r="E135" t="n">
-        <v>0.09121158638982114</v>
+        <v>0.04009307043561203</v>
       </c>
       <c r="F135" t="n">
-        <v>4.032382578924632</v>
+        <v>4.444758014138541</v>
       </c>
       <c r="G135" t="n">
-        <v>0.09259521959946822</v>
+        <v>0.0366138666451945</v>
       </c>
       <c r="H135" t="n">
-        <v>3.551424026053909</v>
+        <v>3.867191508032661</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1615354171795416</v>
+        <v>0.08953574483343173</v>
       </c>
       <c r="J135" t="n">
-        <v>3.551424026053909</v>
+        <v>3.867191508032661</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1573369221620433</v>
+        <v>0.08931729444475812</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.592776166117868</v>
+        <v>3.903758699869345</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1622597047781799</v>
+        <v>0.09755760559175872</v>
       </c>
       <c r="D136" t="n">
-        <v>4.080345249091798</v>
+        <v>4.486364048494806</v>
       </c>
       <c r="E136" t="n">
-        <v>0.08318321501269156</v>
+        <v>0.0367353720793801</v>
       </c>
       <c r="F136" t="n">
-        <v>4.080345249091798</v>
+        <v>4.486364048494806</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0840777399006194</v>
+        <v>0.03322908734844834</v>
       </c>
       <c r="H136" t="n">
-        <v>3.592776166117868</v>
+        <v>3.903758699869345</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1504106271684441</v>
+        <v>0.08335039386828391</v>
       </c>
       <c r="J136" t="n">
-        <v>3.592776166117868</v>
+        <v>3.903758699869345</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1480252767550528</v>
+        <v>0.08235534108896868</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.634128306181827</v>
+        <v>3.940325891706028</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1530737265737968</v>
+        <v>0.09052412317838766</v>
       </c>
       <c r="D137" t="n">
-        <v>4.128307919258964</v>
+        <v>4.527970082851071</v>
       </c>
       <c r="E137" t="n">
-        <v>0.07583379189823715</v>
+        <v>0.03363779193437469</v>
       </c>
       <c r="F137" t="n">
-        <v>4.128307919258964</v>
+        <v>4.527970082851071</v>
       </c>
       <c r="G137" t="n">
-        <v>0.07606043352274726</v>
+        <v>0.03014859253977245</v>
       </c>
       <c r="H137" t="n">
-        <v>3.634128306181827</v>
+        <v>3.940325891706028</v>
       </c>
       <c r="I137" t="n">
-        <v>0.1397901224880954</v>
+        <v>0.07754238662614782</v>
       </c>
       <c r="J137" t="n">
-        <v>3.634128306181827</v>
+        <v>3.940325891706028</v>
       </c>
       <c r="K137" t="n">
-        <v>0.138790143013615</v>
+        <v>0.07567408092443516</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.675480446245786</v>
+        <v>3.97689308354271</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1441185505116972</v>
+        <v>0.08363394774167696</v>
       </c>
       <c r="D138" t="n">
-        <v>4.17627058942613</v>
+        <v>4.569576117207336</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0690977725383511</v>
+        <v>0.03074898042799696</v>
       </c>
       <c r="F138" t="n">
-        <v>4.17627058942613</v>
+        <v>4.569576117207336</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06858248614035699</v>
+        <v>0.02735458852739102</v>
       </c>
       <c r="H138" t="n">
-        <v>3.675480446245786</v>
+        <v>3.97689308354271</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1296693625335589</v>
+        <v>0.0720746576205248</v>
       </c>
       <c r="J138" t="n">
-        <v>3.675480446245786</v>
+        <v>3.97689308354271</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1296662905692514</v>
+        <v>0.06929550545770842</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.716832586309745</v>
+        <v>4.013460275379393</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1353310029354197</v>
+        <v>0.07689072008331146</v>
       </c>
       <c r="D139" t="n">
-        <v>4.224233259593296</v>
+        <v>4.611182151563601</v>
       </c>
       <c r="E139" t="n">
-        <v>0.06294098704536903</v>
+        <v>0.02809645545469104</v>
       </c>
       <c r="F139" t="n">
-        <v>4.224233259593296</v>
+        <v>4.611182151563601</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06165069756818149</v>
+        <v>0.02480123783017334</v>
       </c>
       <c r="H139" t="n">
-        <v>3.716832586309745</v>
+        <v>4.013460275379393</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1201104492791977</v>
+        <v>0.06694036381444925</v>
       </c>
       <c r="J139" t="n">
-        <v>3.716832586309745</v>
+        <v>4.013460275379393</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1206886381835802</v>
+        <v>0.06324611074362506</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.758184726373704</v>
+        <v>4.050027467216077</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1267259466922131</v>
+        <v>0.07033278931777698</v>
       </c>
       <c r="D140" t="n">
-        <v>4.272195929760462</v>
+        <v>4.652788185919865</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0572670049946987</v>
+        <v>0.0256420771328006</v>
       </c>
       <c r="F140" t="n">
-        <v>4.272195929760462</v>
+        <v>4.652788185919865</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05532209419286968</v>
+        <v>0.02247286767854636</v>
       </c>
       <c r="H140" t="n">
-        <v>3.758184726373704</v>
+        <v>4.050027467216077</v>
       </c>
       <c r="I140" t="n">
-        <v>0.111144796277829</v>
+        <v>0.06212350788409423</v>
       </c>
       <c r="J140" t="n">
-        <v>3.758184726373704</v>
+        <v>4.050027467216077</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1118991990806401</v>
+        <v>0.05753519199778171</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.799536866437663</v>
+        <v>4.08659465905276</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1182544250973054</v>
+        <v>0.06398551555490425</v>
       </c>
       <c r="D141" t="n">
-        <v>4.320158599927628</v>
+        <v>4.694394220276131</v>
       </c>
       <c r="E141" t="n">
-        <v>0.05206588133741716</v>
+        <v>0.02339744505672958</v>
       </c>
       <c r="F141" t="n">
-        <v>4.320158599927628</v>
+        <v>4.694394220276131</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04955227533922238</v>
+        <v>0.02034479875734463</v>
       </c>
       <c r="H141" t="n">
-        <v>3.799536866437663</v>
+        <v>4.08659465905276</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1027426636416207</v>
+        <v>0.05757738480630725</v>
       </c>
       <c r="J141" t="n">
-        <v>3.799536866437663</v>
+        <v>4.08659465905276</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1033430695825811</v>
+        <v>0.05218968078800664</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.840889006501623</v>
+        <v>4.123161850889443</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1099389441290881</v>
+        <v>0.05785617210095663</v>
       </c>
       <c r="D142" t="n">
-        <v>4.368121270094794</v>
+        <v>4.736000254632396</v>
       </c>
       <c r="E142" t="n">
-        <v>0.04725379705262833</v>
+        <v>0.02135656282478912</v>
       </c>
       <c r="F142" t="n">
-        <v>4.368121270094794</v>
+        <v>4.736000254632396</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04433755959051744</v>
+        <v>0.01838253658546454</v>
       </c>
       <c r="H142" t="n">
-        <v>3.840889006501623</v>
+        <v>4.123161850889443</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0948688406199056</v>
+        <v>0.05330496601493488</v>
       </c>
       <c r="J142" t="n">
-        <v>3.840889006501623</v>
+        <v>4.123161850889443</v>
       </c>
       <c r="K142" t="n">
-        <v>0.09505508483339402</v>
+        <v>0.04720592776215507</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.882241146565581</v>
+        <v>4.159729042726126</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1017519654259593</v>
+        <v>0.05199933524401548</v>
       </c>
       <c r="D143" t="n">
-        <v>4.41608394026196</v>
+        <v>4.777606288988661</v>
       </c>
       <c r="E143" t="n">
-        <v>0.04283553949526419</v>
+        <v>0.01947805145575758</v>
       </c>
       <c r="F143" t="n">
-        <v>4.41608394026196</v>
+        <v>4.777606288988661</v>
       </c>
       <c r="G143" t="n">
-        <v>0.03965072161044051</v>
+        <v>0.01658169220132218</v>
       </c>
       <c r="H143" t="n">
-        <v>3.882241146565581</v>
+        <v>4.159729042726126</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0875573241027679</v>
+        <v>0.04930516901286004</v>
       </c>
       <c r="J143" t="n">
-        <v>3.882241146565581</v>
+        <v>4.159729042726126</v>
       </c>
       <c r="K143" t="n">
-        <v>0.08706974345191613</v>
+        <v>0.04259305829786747</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.92359328662954</v>
+        <v>4.196296234562809</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0937301905560491</v>
+        <v>0.0464400133676998</v>
       </c>
       <c r="D144" t="n">
-        <v>4.464046610429127</v>
+        <v>4.819212323344925</v>
       </c>
       <c r="E144" t="n">
-        <v>0.03875776554499175</v>
+        <v>0.01776446790427162</v>
       </c>
       <c r="F144" t="n">
-        <v>4.464046610429127</v>
+        <v>4.819212323344925</v>
       </c>
       <c r="G144" t="n">
-        <v>0.03544240311134326</v>
+        <v>0.01492257011279782</v>
       </c>
       <c r="H144" t="n">
-        <v>3.92359328662954</v>
+        <v>4.196296234562809</v>
       </c>
       <c r="I144" t="n">
-        <v>0.08072423104078284</v>
+        <v>0.04553195873468041</v>
       </c>
       <c r="J144" t="n">
-        <v>3.92359328662954</v>
+        <v>4.196296234562809</v>
       </c>
       <c r="K144" t="n">
-        <v>0.07941405963394882</v>
+        <v>0.03833665737989896</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.964945426693499</v>
+        <v>4.232863426399493</v>
       </c>
       <c r="C145" t="n">
-        <v>0.08586240477621908</v>
+        <v>0.04117863754769426</v>
       </c>
       <c r="D145" t="n">
-        <v>4.512009280596292</v>
+        <v>4.860818357701191</v>
       </c>
       <c r="E145" t="n">
-        <v>0.03501072978316943</v>
+        <v>0.01619281032083814</v>
       </c>
       <c r="F145" t="n">
-        <v>4.512009280596292</v>
+        <v>4.860818357701191</v>
       </c>
       <c r="G145" t="n">
-        <v>0.03167151447403018</v>
+        <v>0.01339868851435296</v>
       </c>
       <c r="H145" t="n">
-        <v>3.964945426693499</v>
+        <v>4.232863426399493</v>
       </c>
       <c r="I145" t="n">
-        <v>0.07434029099805578</v>
+        <v>0.04199074719164567</v>
       </c>
       <c r="J145" t="n">
-        <v>3.964945426693499</v>
+        <v>4.232863426399493</v>
       </c>
       <c r="K145" t="n">
-        <v>0.07212421489143069</v>
+        <v>0.03444629723602585</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.006297566757459</v>
+        <v>4.269430618236176</v>
       </c>
       <c r="C146" t="n">
-        <v>0.07820258777061209</v>
+        <v>0.03627491064946236</v>
       </c>
       <c r="D146" t="n">
-        <v>4.559971950763458</v>
+        <v>4.902424392057456</v>
       </c>
       <c r="E146" t="n">
-        <v>0.031583722193056</v>
+        <v>0.01474866970338422</v>
       </c>
       <c r="F146" t="n">
-        <v>4.559971950763458</v>
+        <v>4.902424392057456</v>
       </c>
       <c r="G146" t="n">
-        <v>0.02830014232989535</v>
+        <v>0.01200537253715684</v>
       </c>
       <c r="H146" t="n">
-        <v>4.006297566757459</v>
+        <v>4.269430618236176</v>
       </c>
       <c r="I146" t="n">
-        <v>0.06841637741817475</v>
+        <v>0.03868252450064481</v>
       </c>
       <c r="J146" t="n">
-        <v>4.006297566757459</v>
+        <v>4.269430618236176</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06522731283684716</v>
+        <v>0.03091379320925712</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.047649706821417</v>
+        <v>4.305997810072859</v>
       </c>
       <c r="C147" t="n">
-        <v>0.07074965224400842</v>
+        <v>0.03173704673298355</v>
       </c>
       <c r="D147" t="n">
-        <v>4.607934620930624</v>
+        <v>4.944030426413721</v>
       </c>
       <c r="E147" t="n">
-        <v>0.02845636659727939</v>
+        <v>0.01342673728498541</v>
       </c>
       <c r="F147" t="n">
-        <v>4.607934620930624</v>
+        <v>4.944030426413721</v>
       </c>
       <c r="G147" t="n">
-        <v>0.02527203692081654</v>
+        <v>0.01072439908680864</v>
       </c>
       <c r="H147" t="n">
-        <v>4.047649706821417</v>
+        <v>4.305997810072859</v>
       </c>
       <c r="I147" t="n">
-        <v>0.06286976000048644</v>
+        <v>0.03557153444873731</v>
       </c>
       <c r="J147" t="n">
-        <v>4.047649706821417</v>
+        <v>4.305997810072859</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05876398795865728</v>
+        <v>0.02771526472982688</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.089001846885376</v>
+        <v>4.342565001909542</v>
       </c>
       <c r="C148" t="n">
-        <v>0.06357441170441087</v>
+        <v>0.02754806360515674</v>
       </c>
       <c r="D148" t="n">
-        <v>4.65589729109779</v>
+        <v>4.985636460769985</v>
       </c>
       <c r="E148" t="n">
-        <v>0.02560052061284534</v>
+        <v>0.01220590302963993</v>
       </c>
       <c r="F148" t="n">
-        <v>4.65589729109779</v>
+        <v>4.985636460769985</v>
       </c>
       <c r="G148" t="n">
-        <v>0.02254821218814737</v>
+        <v>0.009554769971278429</v>
       </c>
       <c r="H148" t="n">
-        <v>4.089001846885376</v>
+        <v>4.342565001909542</v>
       </c>
       <c r="I148" t="n">
-        <v>0.05769861865410388</v>
+        <v>0.03265477337972517</v>
       </c>
       <c r="J148" t="n">
-        <v>4.089001846885376</v>
+        <v>4.342565001909542</v>
       </c>
       <c r="K148" t="n">
-        <v>0.05273016213393401</v>
+        <v>0.02482455716497054</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.130353986949336</v>
+        <v>4.379132193746226</v>
       </c>
       <c r="C149" t="n">
-        <v>0.05668038656432527</v>
+        <v>0.02375654807169129</v>
       </c>
       <c r="D149" t="n">
-        <v>4.703859961264956</v>
+        <v>5.02724249512625</v>
       </c>
       <c r="E149" t="n">
-        <v>0.02303301772824045</v>
+        <v>0.0110724863415484</v>
       </c>
       <c r="F149" t="n">
-        <v>4.703859961264956</v>
+        <v>5.02724249512625</v>
       </c>
       <c r="G149" t="n">
-        <v>0.02008976796140296</v>
+        <v>0.008494105008262027</v>
       </c>
       <c r="H149" t="n">
-        <v>4.130353986949336</v>
+        <v>4.379132193746226</v>
       </c>
       <c r="I149" t="n">
-        <v>0.05289051303852941</v>
+        <v>0.02993642262182537</v>
       </c>
       <c r="J149" t="n">
-        <v>4.130353986949336</v>
+        <v>4.379132193746226</v>
       </c>
       <c r="K149" t="n">
-        <v>0.04714445011951485</v>
+        <v>0.02221909191243699</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.171706127013294</v>
+        <v>4.415699385582909</v>
       </c>
       <c r="C150" t="n">
-        <v>0.05014889744935383</v>
+        <v>0.02034370319987279</v>
       </c>
       <c r="D150" t="n">
-        <v>4.751822631432122</v>
+        <v>5.068848529482516</v>
       </c>
       <c r="E150" t="n">
-        <v>0.02070767826502097</v>
+        <v>0.01002278455959811</v>
       </c>
       <c r="F150" t="n">
-        <v>4.751822631432122</v>
+        <v>5.068848529482516</v>
       </c>
       <c r="G150" t="n">
-        <v>0.01786542994274675</v>
+        <v>0.007538237151783017</v>
       </c>
       <c r="H150" t="n">
-        <v>4.171706127013294</v>
+        <v>4.415699385582909</v>
       </c>
       <c r="I150" t="n">
-        <v>0.04839741138466509</v>
+        <v>0.02738182434040833</v>
       </c>
       <c r="J150" t="n">
-        <v>4.171706127013294</v>
+        <v>4.415699385582909</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0420281324735187</v>
+        <v>0.01989302368392778</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.213058267077253</v>
+        <v>4.452266577419592</v>
       </c>
       <c r="C151" t="n">
-        <v>0.04398093594450218</v>
+        <v>0.01727437297896622</v>
       </c>
       <c r="D151" t="n">
-        <v>4.799785301599288</v>
+        <v>5.110454563838781</v>
       </c>
       <c r="E151" t="n">
-        <v>0.01862665046821134</v>
+        <v>0.009045077268066191</v>
       </c>
       <c r="F151" t="n">
-        <v>4.799785301599288</v>
+        <v>5.110454563838781</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01584275556362279</v>
+        <v>0.006691657503379429</v>
       </c>
       <c r="H151" t="n">
-        <v>4.213058267077253</v>
+        <v>4.452266577419592</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04420847691418948</v>
+        <v>0.0249904272952796</v>
       </c>
       <c r="J151" t="n">
-        <v>4.213058267077253</v>
+        <v>4.452266577419592</v>
       </c>
       <c r="K151" t="n">
-        <v>0.03735317669601858</v>
+        <v>0.01781498156640841</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.254410407141213</v>
+        <v>4.488833769256274</v>
       </c>
       <c r="C152" t="n">
-        <v>0.03825478197388563</v>
+        <v>0.0145773083019227</v>
       </c>
       <c r="D152" t="n">
-        <v>4.847747971766454</v>
+        <v>5.152060598195045</v>
       </c>
       <c r="E152" t="n">
-        <v>0.01674109147343976</v>
+        <v>0.008138670705391768</v>
       </c>
       <c r="F152" t="n">
-        <v>4.847747971766454</v>
+        <v>5.152060598195045</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01401450484326834</v>
+        <v>0.005946071504802417</v>
       </c>
       <c r="H152" t="n">
-        <v>4.254410407141213</v>
+        <v>4.488833769256274</v>
       </c>
       <c r="I152" t="n">
-        <v>0.04031754621462724</v>
+        <v>0.02276067400338662</v>
       </c>
       <c r="J152" t="n">
-        <v>4.254410407141213</v>
+        <v>4.488833769256274</v>
       </c>
       <c r="K152" t="n">
-        <v>0.03313022430700867</v>
+        <v>0.01595552317423203</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.295762547205172</v>
+        <v>4.525400961092958</v>
       </c>
       <c r="C153" t="n">
-        <v>0.03296080106246691</v>
+        <v>0.01221247748206605</v>
       </c>
       <c r="D153" t="n">
-        <v>4.89571064193362</v>
+        <v>5.19366663255131</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0150347406643743</v>
+        <v>0.007291722752397603</v>
       </c>
       <c r="F153" t="n">
-        <v>4.89571064193362</v>
+        <v>5.19366663255131</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0123520924435225</v>
+        <v>0.005298330758149669</v>
       </c>
       <c r="H153" t="n">
-        <v>4.295762547205172</v>
+        <v>4.525400961092958</v>
       </c>
       <c r="I153" t="n">
-        <v>0.03669966739880896</v>
+        <v>0.02067379597018552</v>
       </c>
       <c r="J153" t="n">
-        <v>4.295762547205172</v>
+        <v>4.525400961092958</v>
       </c>
       <c r="K153" t="n">
-        <v>0.02933566707677816</v>
+        <v>0.01428600807649246</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.33711468726913</v>
+        <v>4.561968152929641</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02815782633842845</v>
+        <v>0.01013688014368925</v>
       </c>
       <c r="D154" t="n">
-        <v>4.943673312100786</v>
+        <v>5.235272666907576</v>
       </c>
       <c r="E154" t="n">
-        <v>0.01348741136684338</v>
+        <v>0.006500063334756016</v>
       </c>
       <c r="F154" t="n">
-        <v>4.943673312100786</v>
+        <v>5.235272666907576</v>
       </c>
       <c r="G154" t="n">
-        <v>0.01085519491768797</v>
+        <v>0.004748810321840134</v>
       </c>
       <c r="H154" t="n">
-        <v>4.33711468726913</v>
+        <v>4.561968152929641</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03332684552681365</v>
+        <v>0.01872136926913143</v>
       </c>
       <c r="J154" t="n">
-        <v>4.33711468726913</v>
+        <v>4.561968152929641</v>
       </c>
       <c r="K154" t="n">
-        <v>0.02593410785133774</v>
+        <v>0.01279685349315806</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.37846682733309</v>
+        <v>4.598535344766324</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02382070747664961</v>
+        <v>0.008362574056189226</v>
       </c>
       <c r="D155" t="n">
-        <v>4.991635982267952</v>
+        <v>5.276878701263841</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01207529886630808</v>
+        <v>0.005763189476600025</v>
       </c>
       <c r="F155" t="n">
-        <v>4.991635982267952</v>
+        <v>5.276878701263841</v>
       </c>
       <c r="G155" t="n">
-        <v>0.009513084824642989</v>
+        <v>0.004287412752690426</v>
       </c>
       <c r="H155" t="n">
-        <v>4.37846682733309</v>
+        <v>4.598535344766324</v>
       </c>
       <c r="I155" t="n">
-        <v>0.03020727194717747</v>
+        <v>0.01690873812137558</v>
       </c>
       <c r="J155" t="n">
-        <v>4.37846682733309</v>
+        <v>4.598535344766324</v>
       </c>
       <c r="K155" t="n">
-        <v>0.02291042442585672</v>
+        <v>0.01145657170796658</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.419818967397049</v>
+        <v>4.635102536603007</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01997777240122181</v>
+        <v>0.00684327333418786</v>
       </c>
       <c r="D156" t="n">
-        <v>5.039598652435118</v>
+        <v>5.318484735620105</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01078695573213752</v>
+        <v>0.00507818347279356</v>
       </c>
       <c r="F156" t="n">
-        <v>5.039598652435118</v>
+        <v>5.318484735620105</v>
       </c>
       <c r="G156" t="n">
-        <v>0.008315109275212737</v>
+        <v>0.003908669346471798</v>
       </c>
       <c r="H156" t="n">
-        <v>4.419818967397049</v>
+        <v>4.635102536603007</v>
       </c>
       <c r="I156" t="n">
-        <v>0.02730537538013118</v>
+        <v>0.01521274832760449</v>
       </c>
       <c r="J156" t="n">
-        <v>4.419818967397049</v>
+        <v>4.635102536603007</v>
       </c>
       <c r="K156" t="n">
-        <v>0.02022552348152961</v>
+        <v>0.01024694535422738</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.461171107461007</v>
+        <v>4.67166972843969</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01659005436011395</v>
+        <v>0.005539780995237131</v>
       </c>
       <c r="D157" t="n">
-        <v>5.087561322602284</v>
+        <v>5.36009076997637</v>
       </c>
       <c r="E157" t="n">
-        <v>0.009595982043912864</v>
+        <v>0.004440333863408687</v>
       </c>
       <c r="F157" t="n">
-        <v>5.087561322602284</v>
+        <v>5.36009076997637</v>
       </c>
       <c r="G157" t="n">
-        <v>0.007260504366367152</v>
+        <v>0.003608059359552306</v>
       </c>
       <c r="H157" t="n">
-        <v>4.461171107461007</v>
+        <v>4.67166972843969</v>
       </c>
       <c r="I157" t="n">
-        <v>0.02461693181561302</v>
+        <v>0.01362612956221539</v>
       </c>
       <c r="J157" t="n">
-        <v>4.461171107461007</v>
+        <v>4.67166972843969</v>
       </c>
       <c r="K157" t="n">
-        <v>0.01786214398941966</v>
+        <v>0.009158483475778436</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.502523247524968</v>
+        <v>4.708236920276374</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01365492813469837</v>
+        <v>0.004455097013749864</v>
       </c>
       <c r="D158" t="n">
-        <v>5.13552399276945</v>
+        <v>5.401696804332635</v>
       </c>
       <c r="E158" t="n">
-        <v>0.008510187502134227</v>
+        <v>0.003855279790290237</v>
       </c>
       <c r="F158" t="n">
-        <v>5.13552399276945</v>
+        <v>5.401696804332635</v>
       </c>
       <c r="G158" t="n">
-        <v>0.006339179626126284</v>
+        <v>0.003372395935921714</v>
       </c>
       <c r="H158" t="n">
-        <v>4.502523247524968</v>
+        <v>4.708236920276374</v>
       </c>
       <c r="I158" t="n">
-        <v>0.02212259889442186</v>
+        <v>0.01214980129081924</v>
       </c>
       <c r="J158" t="n">
-        <v>4.502523247524968</v>
+        <v>4.708236920276374</v>
       </c>
       <c r="K158" t="n">
-        <v>0.01577007565326384</v>
+        <v>0.008175172043512195</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.543875387588926</v>
+        <v>4.744804112113057</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01112689101463695</v>
+        <v>0.003548101745075004</v>
       </c>
       <c r="D159" t="n">
-        <v>5.183486662936616</v>
+        <v>5.443302838688901</v>
       </c>
       <c r="E159" t="n">
-        <v>0.007505918775345256</v>
+        <v>0.003322897704494113</v>
       </c>
       <c r="F159" t="n">
-        <v>5.183486662936616</v>
+        <v>5.443302838688901</v>
       </c>
       <c r="G159" t="n">
-        <v>0.00555417134094009</v>
+        <v>0.003193955040220779</v>
       </c>
       <c r="H159" t="n">
-        <v>4.543875387588926</v>
+        <v>4.744804112113057</v>
       </c>
       <c r="I159" t="n">
-        <v>0.01980572800540798</v>
+        <v>0.0107864854065227</v>
       </c>
       <c r="J159" t="n">
-        <v>4.543875387588926</v>
+        <v>4.744804112113057</v>
       </c>
       <c r="K159" t="n">
-        <v>0.01391390288212015</v>
+        <v>0.007281906061080941</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.585227527652885</v>
+        <v>4.78137130394974</v>
       </c>
       <c r="C160" t="n">
-        <v>0.00898084968348547</v>
+        <v>0.002788680196790876</v>
       </c>
       <c r="D160" t="n">
-        <v>5.231449333103781</v>
+        <v>5.484908873045165</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0065808613213892</v>
+        <v>0.002847919516788982</v>
       </c>
       <c r="F160" t="n">
-        <v>5.231449333103781</v>
+        <v>5.484908873045165</v>
       </c>
       <c r="G160" t="n">
-        <v>0.004894616511396584</v>
+        <v>0.003063361054533308</v>
       </c>
       <c r="H160" t="n">
-        <v>4.585227527652885</v>
+        <v>4.78137130394974</v>
       </c>
       <c r="I160" t="n">
-        <v>0.01766838147650662</v>
+        <v>0.009522815986649445</v>
       </c>
       <c r="J160" t="n">
-        <v>4.585227527652885</v>
+        <v>4.78137130394974</v>
       </c>
       <c r="K160" t="n">
-        <v>0.01227703294193702</v>
+        <v>0.006468859142697454</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.626579667716845</v>
+        <v>4.817938495786423</v>
       </c>
       <c r="C161" t="n">
-        <v>0.007173154129426576</v>
+        <v>0.002175814782286932</v>
       </c>
       <c r="D161" t="n">
-        <v>5.279412003270948</v>
+        <v>5.52651490740143</v>
       </c>
       <c r="E161" t="n">
-        <v>0.00572363120528738</v>
+        <v>0.002422276235682001</v>
       </c>
       <c r="F161" t="n">
-        <v>5.279412003270948</v>
+        <v>5.52651490740143</v>
       </c>
       <c r="G161" t="n">
-        <v>0.00435072633916981</v>
+        <v>0.002972014342793006</v>
       </c>
       <c r="H161" t="n">
-        <v>4.626579667716845</v>
+        <v>4.817938495786423</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01569377579515414</v>
+        <v>0.008357221195304181</v>
       </c>
       <c r="J161" t="n">
-        <v>4.626579667716845</v>
+        <v>4.817938495786423</v>
       </c>
       <c r="K161" t="n">
-        <v>0.01081851023402642</v>
+        <v>0.005730559103770607</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.667931807780803</v>
+        <v>4.854505687623107</v>
       </c>
       <c r="C162" t="n">
-        <v>0.005667530010031315</v>
+        <v>0.001677483009478489</v>
       </c>
       <c r="D162" t="n">
-        <v>5.327374673438114</v>
+        <v>5.568120941757695</v>
       </c>
       <c r="E162" t="n">
-        <v>0.004938704781682787</v>
+        <v>0.002042399910811226</v>
       </c>
       <c r="F162" t="n">
-        <v>5.327374673438114</v>
+        <v>5.568120941757695</v>
       </c>
       <c r="G162" t="n">
-        <v>0.003916863105387642</v>
+        <v>0.002911570240714858</v>
       </c>
       <c r="H162" t="n">
-        <v>4.667931807780803</v>
+        <v>4.854505687623107</v>
       </c>
       <c r="I162" t="n">
-        <v>0.01386845711849143</v>
+        <v>0.00729477943175328</v>
       </c>
       <c r="J162" t="n">
-        <v>4.667931807780803</v>
+        <v>4.854505687623107</v>
       </c>
       <c r="K162" t="n">
-        <v>0.009525776700751346</v>
+        <v>0.005060574622500462</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.709283947844762</v>
+        <v>4.89107287945979</v>
       </c>
       <c r="C163" t="n">
-        <v>0.004427587886196157</v>
+        <v>0.001272487160944325</v>
       </c>
       <c r="D163" t="n">
-        <v>5.375337343605279</v>
+        <v>5.60972697611396</v>
       </c>
       <c r="E163" t="n">
-        <v>0.004225291689946313</v>
+        <v>0.001712409948529818</v>
       </c>
       <c r="F163" t="n">
-        <v>5.375337343605279</v>
+        <v>5.60972697611396</v>
       </c>
       <c r="G163" t="n">
-        <v>0.003580331641381152</v>
+        <v>0.002872380820441097</v>
       </c>
       <c r="H163" t="n">
-        <v>4.709283947844762</v>
+        <v>4.89107287945979</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0121865449197063</v>
+        <v>0.006331780621810009</v>
       </c>
       <c r="J163" t="n">
-        <v>4.709283947844762</v>
+        <v>4.89107287945979</v>
       </c>
       <c r="K163" t="n">
-        <v>0.00837619502264599</v>
+        <v>0.004452313273000315</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.750636087908722</v>
+        <v>4.927640071296473</v>
       </c>
       <c r="C164" t="n">
-        <v>0.003414747241302579</v>
+        <v>0.0009578981994963543</v>
       </c>
       <c r="D164" t="n">
-        <v>5.423300013772446</v>
+        <v>5.651333010470225</v>
       </c>
       <c r="E164" t="n">
-        <v>0.003575313040431697</v>
+        <v>0.00142637040373396</v>
       </c>
       <c r="F164" t="n">
-        <v>5.423300013772446</v>
+        <v>5.651333010470225</v>
       </c>
       <c r="G164" t="n">
-        <v>0.003329532178318235</v>
+        <v>0.002847856043359169</v>
       </c>
       <c r="H164" t="n">
-        <v>4.750636087908722</v>
+        <v>4.927640071296473</v>
       </c>
       <c r="I164" t="n">
-        <v>0.01064366806770128</v>
+        <v>0.00546131508113689</v>
       </c>
       <c r="J164" t="n">
-        <v>4.750636087908722</v>
+        <v>4.927640071296473</v>
       </c>
       <c r="K164" t="n">
-        <v>0.007343863870328132</v>
+        <v>0.003899771456227923</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.791988227972681</v>
+        <v>4.964207263133156</v>
       </c>
       <c r="C165" t="n">
-        <v>0.002601237970027044</v>
+        <v>0.0007108143395802717</v>
       </c>
       <c r="D165" t="n">
-        <v>5.471262683939612</v>
+        <v>5.69293904482649</v>
       </c>
       <c r="E165" t="n">
-        <v>0.002997565401659342</v>
+        <v>0.001180324399168423</v>
       </c>
       <c r="F165" t="n">
-        <v>5.471262683939612</v>
+        <v>5.69293904482649</v>
       </c>
       <c r="G165" t="n">
-        <v>0.003149588320770608</v>
+        <v>0.002830022331609729</v>
       </c>
       <c r="H165" t="n">
-        <v>4.791988227972681</v>
+        <v>4.964207263133156</v>
       </c>
       <c r="I165" t="n">
-        <v>0.009226634945638242</v>
+        <v>0.004683194622770644</v>
       </c>
       <c r="J165" t="n">
-        <v>4.791988227972681</v>
+        <v>4.964207263133156</v>
       </c>
       <c r="K165" t="n">
-        <v>0.006419793640478764</v>
+        <v>0.003400117730250493</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.833340368036639</v>
+        <v>5.000774454969839</v>
       </c>
       <c r="C166" t="n">
-        <v>0.001951164734312737</v>
+        <v>0.0005172760342882013</v>
       </c>
       <c r="D166" t="n">
-        <v>5.519225354106777</v>
+        <v>5.734545079182755</v>
       </c>
       <c r="E166" t="n">
-        <v>0.002496139332485744</v>
+        <v>0.000971266609063624</v>
       </c>
       <c r="F166" t="n">
-        <v>5.519225354106777</v>
+        <v>5.734545079182755</v>
       </c>
       <c r="G166" t="n">
-        <v>0.003025162480837108</v>
+        <v>0.002810570499655798</v>
       </c>
       <c r="H166" t="n">
-        <v>4.833340368036639</v>
+        <v>5.000774454969839</v>
       </c>
       <c r="I166" t="n">
-        <v>0.007944386420089948</v>
+        <v>0.003988847004626653</v>
       </c>
       <c r="J166" t="n">
-        <v>4.833340368036639</v>
+        <v>5.000774454969839</v>
       </c>
       <c r="K166" t="n">
-        <v>0.005590934837887491</v>
+        <v>0.002949994597859398</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.874692508100598</v>
+        <v>5.037341646806522</v>
       </c>
       <c r="C167" t="n">
-        <v>0.001444181299946386</v>
+        <v>0.0003737976439819568</v>
       </c>
       <c r="D167" t="n">
-        <v>5.567188024273944</v>
+        <v>5.77615111353902</v>
       </c>
       <c r="E167" t="n">
-        <v>0.002052433525135702</v>
+        <v>0.0007961887025296301</v>
       </c>
       <c r="F167" t="n">
-        <v>5.567188024273944</v>
+        <v>5.77615111353902</v>
       </c>
       <c r="G167" t="n">
-        <v>0.002942574021228621</v>
+        <v>0.002784619128157497</v>
       </c>
       <c r="H167" t="n">
-        <v>4.874692508100598</v>
+        <v>5.037341646806522</v>
       </c>
       <c r="I167" t="n">
-        <v>0.006790760001380426</v>
+        <v>0.003374690675099044</v>
       </c>
       <c r="J167" t="n">
-        <v>4.874692508100598</v>
+        <v>5.037341646806522</v>
       </c>
       <c r="K167" t="n">
-        <v>0.004847108020292546</v>
+        <v>0.002550061597328749</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.916044648164558</v>
+        <v>5.073908838643205</v>
       </c>
       <c r="C168" t="n">
-        <v>0.001049377227793399</v>
+        <v>0.0002656368152590032</v>
       </c>
       <c r="D168" t="n">
-        <v>5.61515069444111</v>
+        <v>5.817757147895285</v>
       </c>
       <c r="E168" t="n">
-        <v>0.001675523448381719</v>
+        <v>0.0006548707307991545</v>
       </c>
       <c r="F168" t="n">
-        <v>5.61515069444111</v>
+        <v>5.817757147895285</v>
       </c>
       <c r="G168" t="n">
-        <v>0.002889012984267189</v>
+        <v>0.002747775924375755</v>
       </c>
       <c r="H168" t="n">
-        <v>4.916044648164558</v>
+        <v>5.073908838643205</v>
       </c>
       <c r="I168" t="n">
-        <v>0.005757958067832785</v>
+        <v>0.002834874651002637</v>
       </c>
       <c r="J168" t="n">
-        <v>4.916044648164558</v>
+        <v>5.073908838643205</v>
       </c>
       <c r="K168" t="n">
-        <v>0.00418339694754894</v>
+        <v>0.002201944920778511</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.957396788228516</v>
+        <v>5.110476030479888</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0007520515240061395</v>
+        <v>0.0001844939904566032</v>
       </c>
       <c r="D169" t="n">
-        <v>5.663113364608275</v>
+        <v>5.85936318225155</v>
       </c>
       <c r="E169" t="n">
-        <v>0.001353706105841476</v>
+        <v>0.0005392256115048459</v>
       </c>
       <c r="F169" t="n">
-        <v>5.663113364608275</v>
+        <v>5.85936318225155</v>
       </c>
       <c r="G169" t="n">
-        <v>0.002854221317395742</v>
+        <v>0.002697013691310859</v>
       </c>
       <c r="H169" t="n">
-        <v>4.957396788228516</v>
+        <v>5.110476030479888</v>
       </c>
       <c r="I169" t="n">
-        <v>0.004840833694642505</v>
+        <v>0.002365245315499574</v>
       </c>
       <c r="J169" t="n">
-        <v>4.957396788228516</v>
+        <v>5.110476030479888</v>
       </c>
       <c r="K169" t="n">
-        <v>0.003590158885651833</v>
+        <v>0.001897195315061291</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.998748928292475</v>
+        <v>5.147043222316571</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0005273328985186208</v>
+        <v>0.000127491165947836</v>
       </c>
       <c r="D170" t="n">
-        <v>5.711076034775441</v>
+        <v>5.900969216607815</v>
       </c>
       <c r="E170" t="n">
-        <v>0.001084809305938173</v>
+        <v>0.0004457963934299774</v>
       </c>
       <c r="F170" t="n">
-        <v>5.711076034775441</v>
+        <v>5.900969216607815</v>
       </c>
       <c r="G170" t="n">
-        <v>0.002828387323083419</v>
+        <v>0.002630523421783046</v>
       </c>
       <c r="H170" t="n">
-        <v>4.998748928292475</v>
+        <v>5.147043222316571</v>
       </c>
       <c r="I170" t="n">
-        <v>0.004042164152864896</v>
+        <v>0.001960058915947974</v>
       </c>
       <c r="J170" t="n">
-        <v>4.998748928292475</v>
+        <v>5.147043222316571</v>
       </c>
       <c r="K170" t="n">
-        <v>0.003064080568827617</v>
+        <v>0.001629686016186112</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.040101068356435</v>
+        <v>5.183610414153255</v>
       </c>
       <c r="C171" t="n">
-        <v>0.00036481414896219</v>
+        <v>8.643239992930685e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>5.759038704942608</v>
+        <v>5.942575250964079</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0008672690871136633</v>
+        <v>0.0003713071887145941</v>
       </c>
       <c r="F171" t="n">
-        <v>5.759038704942608</v>
+        <v>5.942575250964079</v>
       </c>
       <c r="G171" t="n">
-        <v>0.002798454626350887</v>
+        <v>0.00254994417406635</v>
       </c>
       <c r="H171" t="n">
-        <v>5.040101068356435</v>
+        <v>5.183610414153255</v>
       </c>
       <c r="I171" t="n">
-        <v>0.003345786352403292</v>
+        <v>0.001613283187236816</v>
       </c>
       <c r="J171" t="n">
-        <v>5.040101068356435</v>
+        <v>5.183610414153255</v>
       </c>
       <c r="K171" t="n">
-        <v>0.002602286565810968</v>
+        <v>0.001392168272623278</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.081453208420394</v>
+        <v>5.220177605989938</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0002460074379297318</v>
+        <v>5.706418236692908e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>5.807001375109774</v>
+        <v>5.984181285320345</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0006891201114796961</v>
+        <v>0.0003134145858028914</v>
       </c>
       <c r="F172" t="n">
-        <v>5.807001375109774</v>
+        <v>5.984181285320345</v>
       </c>
       <c r="G172" t="n">
-        <v>0.002756495483146895</v>
+        <v>0.002453298699109671</v>
       </c>
       <c r="H172" t="n">
-        <v>5.081453208420394</v>
+        <v>5.220177605989938</v>
       </c>
       <c r="I172" t="n">
-        <v>0.002746264392571147</v>
+        <v>0.001318782782419539</v>
       </c>
       <c r="J172" t="n">
-        <v>5.081453208420394</v>
+        <v>5.220177605989938</v>
       </c>
       <c r="K172" t="n">
-        <v>0.002201313925556393</v>
+        <v>0.001183038833869261</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.122805348484352</v>
+        <v>5.256744797826621</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0001638992898071057</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>5.85496404527694</v>
+        <v>6.02578731967661</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0005507245018012812</v>
+        <v>0.000269498999398292</v>
       </c>
       <c r="F173" t="n">
-        <v>5.85496404527694</v>
+        <v>6.02578731967661</v>
       </c>
       <c r="G173" t="n">
-        <v>0.002698027833940946</v>
+        <v>0.002340808792945193</v>
       </c>
       <c r="H173" t="n">
-        <v>5.122805348484352</v>
+        <v>5.256744797826621</v>
       </c>
       <c r="I173" t="n">
-        <v>0.00223412681771708</v>
+        <v>0.001071278180010857</v>
       </c>
       <c r="J173" t="n">
-        <v>5.122805348484352</v>
+        <v>5.256744797826621</v>
       </c>
       <c r="K173" t="n">
-        <v>0.001855445454599692</v>
+        <v>0.001000428250425645</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.164157488548312</v>
+        <v>5.293311989663304</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0001059807086111757</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>5.902926715444105</v>
+        <v>6.067393354032875</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0004421978981366482</v>
+        <v>0.0002357714606271834</v>
       </c>
       <c r="F174" t="n">
-        <v>5.902926715444105</v>
+        <v>6.067393354032875</v>
       </c>
       <c r="G174" t="n">
-        <v>0.002620078014650475</v>
+        <v>0.002214462906221566</v>
       </c>
       <c r="H174" t="n">
-        <v>5.164157488548312</v>
+        <v>5.293311989663304</v>
       </c>
       <c r="I174" t="n">
-        <v>0.001797384437916369</v>
+        <v>0.0008667713050707402</v>
       </c>
       <c r="J174" t="n">
-        <v>5.164157488548312</v>
+        <v>5.293311989663304</v>
       </c>
       <c r="K174" t="n">
-        <v>0.001561572083124477</v>
+        <v>0.0008447897628178603</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.205509628612271</v>
+        <v>5.329879181499988</v>
       </c>
       <c r="C175" t="n">
-        <v>6.788468121732197e-05</v>
+        <v>5.618491811321819e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>5.950889385611271</v>
+        <v>6.108999388389139</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0003585890522303034</v>
+        <v>0.0002102201888507732</v>
       </c>
       <c r="F175" t="n">
-        <v>5.950889385611271</v>
+        <v>6.108999388389139</v>
       </c>
       <c r="G175" t="n">
-        <v>0.002522037392389366</v>
+        <v>0.002076752548337308</v>
       </c>
       <c r="H175" t="n">
-        <v>5.205509628612271</v>
+        <v>5.329879181499988</v>
       </c>
       <c r="I175" t="n">
-        <v>0.001437621595517238</v>
+        <v>0.0007006306782729126</v>
       </c>
       <c r="J175" t="n">
-        <v>5.205509628612271</v>
+        <v>5.329879181499988</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0013043179667029</v>
+        <v>0.0007111928750851951</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.246861768676229</v>
+        <v>5.366446373336671</v>
       </c>
       <c r="C176" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>5.998852055778437</v>
+        <v>6.150605422745405</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0002971686360738688</v>
+        <v>0.0001911363957139116</v>
       </c>
       <c r="F176" t="n">
-        <v>5.998852055778437</v>
+        <v>6.150605422745405</v>
       </c>
       <c r="G176" t="n">
-        <v>0.002406641952021607</v>
+        <v>0.001930508564619411</v>
       </c>
       <c r="H176" t="n">
-        <v>5.246861768676229</v>
+        <v>5.366446373336671</v>
       </c>
       <c r="I176" t="n">
-        <v>0.001141166413553098</v>
+        <v>0.0005659498024591496</v>
       </c>
       <c r="J176" t="n">
-        <v>5.246861768676229</v>
+        <v>5.366446373336671</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001085271007018159</v>
+        <v>0.0005971199856040266</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.28821390874019</v>
+        <v>5.403013565173354</v>
       </c>
       <c r="C177" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>6.046814725945604</v>
+        <v>6.19221145710167</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0002507500774136301</v>
+        <v>0.0001774590165329072</v>
       </c>
       <c r="F177" t="n">
-        <v>6.046814725945604</v>
+        <v>6.19221145710167</v>
       </c>
       <c r="G177" t="n">
-        <v>0.002271690031667746</v>
+        <v>0.001778738500968812</v>
       </c>
       <c r="H177" t="n">
-        <v>5.28821390874019</v>
+        <v>5.403013565173354</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0008983430493415476</v>
+        <v>0.0004575287110113674</v>
       </c>
       <c r="J177" t="n">
-        <v>5.28821390874019</v>
+        <v>5.403013565173354</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0008975065701185043</v>
+        <v>0.0005005681541377091</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.329566048804148</v>
+        <v>5.439580757010037</v>
       </c>
       <c r="C178" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>6.09477739611277</v>
+        <v>6.233817491457935</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0002177824835699753</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F178" t="n">
-        <v>6.09477739611277</v>
+        <v>6.233817491457935</v>
       </c>
       <c r="G178" t="n">
-        <v>0.002120272232652999</v>
+        <v>0.001624473226529214</v>
       </c>
       <c r="H178" t="n">
-        <v>5.329566048804148</v>
+        <v>5.439580757010037</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0007059136757068037</v>
+        <v>0.0003744757308438303</v>
       </c>
       <c r="J178" t="n">
-        <v>5.329566048804148</v>
+        <v>5.439580757010037</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0007403972071070908</v>
+        <v>0.0004195673224450724</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.370918188868107</v>
+        <v>5.47614794884672</v>
       </c>
       <c r="C179" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>6.142740066279936</v>
+        <v>6.275423525814199</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0001941544693924798</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F179" t="n">
-        <v>6.142740066279936</v>
+        <v>6.275423525814199</v>
       </c>
       <c r="G179" t="n">
-        <v>0.001955659268803339</v>
+        <v>0.001470629753688833</v>
       </c>
       <c r="H179" t="n">
-        <v>5.370918188868107</v>
+        <v>5.47614794884672</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0005542662532079769</v>
+        <v>0.0003132065454106744</v>
       </c>
       <c r="J179" t="n">
-        <v>5.370918188868107</v>
+        <v>5.47614794884672</v>
       </c>
       <c r="K179" t="n">
-        <v>0.0006089800157391812</v>
+        <v>0.000352221288543782</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.412270328932067</v>
+        <v>5.512715140683403</v>
       </c>
       <c r="C180" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>6.190702736447101</v>
+        <v>6.317029560170464</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0001773634583491427</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F180" t="n">
-        <v>6.190702736447101</v>
+        <v>6.317029560170464</v>
       </c>
       <c r="G180" t="n">
-        <v>0.001782956493788117</v>
+        <v>0.001319895624366005</v>
       </c>
       <c r="H180" t="n">
-        <v>5.412270328932067</v>
+        <v>5.512715140683403</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0004350977097593506</v>
+        <v>0.0002653814537695219</v>
       </c>
       <c r="J180" t="n">
-        <v>5.412270328932067</v>
+        <v>5.512715140683403</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0004994467882539711</v>
+        <v>0.0002967387303116882</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.453622468996025</v>
+        <v>5.549282332520086</v>
       </c>
       <c r="C181" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>6.238665406614267</v>
+        <v>6.35863559452673</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F181" t="n">
-        <v>6.238665406614267</v>
+        <v>6.35863559452673</v>
       </c>
       <c r="G181" t="n">
-        <v>0.001607004729845134</v>
+        <v>0.001174638454821981</v>
       </c>
       <c r="H181" t="n">
-        <v>5.453622468996025</v>
+        <v>5.549282332520086</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0003492111451303935</v>
+        <v>0.0002291912774959135</v>
       </c>
       <c r="J181" t="n">
-        <v>5.453622468996025</v>
+        <v>5.549282332520086</v>
       </c>
       <c r="K181" t="n">
-        <v>0.000409638880110185</v>
+        <v>0.0002514553775477511</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.494974609059984</v>
+        <v>5.585849524356769</v>
       </c>
       <c r="C182" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>6.286628076781433</v>
+        <v>6.400241628882995</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F182" t="n">
-        <v>6.286628076781433</v>
+        <v>6.400241628882995</v>
       </c>
       <c r="G182" t="n">
-        <v>0.001431975905241705</v>
+        <v>0.001036842389250609</v>
       </c>
       <c r="H182" t="n">
-        <v>5.494974609059984</v>
+        <v>5.585849524356769</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0002879685360586481</v>
+        <v>0.0002014053681133159</v>
       </c>
       <c r="J182" t="n">
-        <v>5.494974609059984</v>
+        <v>5.585849524356769</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0003378779808557719</v>
+        <v>0.0002148484637267898</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.536326749123944</v>
+        <v>5.622416716193452</v>
       </c>
       <c r="C183" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>6.334590746948599</v>
+        <v>6.441847663239259</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F183" t="n">
-        <v>6.334590746948599</v>
+        <v>6.441847663239259</v>
       </c>
       <c r="G183" t="n">
-        <v>0.001261660587388709</v>
+        <v>0.0009080714416707897</v>
       </c>
       <c r="H183" t="n">
-        <v>5.536326749123944</v>
+        <v>5.622416716193452</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0002411569126340263</v>
+        <v>0.0001803352279582105</v>
       </c>
       <c r="J183" t="n">
-        <v>5.536326749123944</v>
+        <v>5.622416716193452</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0002799600860778069</v>
+        <v>0.0001857361846531075</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.577678889187903</v>
+        <v>5.658983908030136</v>
       </c>
       <c r="C184" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>6.382553417115766</v>
+        <v>6.483453697595524</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F184" t="n">
-        <v>6.382553417115766</v>
+        <v>6.483453697595524</v>
       </c>
       <c r="G184" t="n">
-        <v>0.001099316556298017</v>
+        <v>0.0007894581265209356</v>
       </c>
       <c r="H184" t="n">
-        <v>5.577678889187903</v>
+        <v>5.658983908030136</v>
       </c>
       <c r="I184" t="n">
-        <v>0.000206403439303188</v>
+        <v>0.0001645597221868795</v>
       </c>
       <c r="J184" t="n">
-        <v>5.577678889187903</v>
+        <v>5.658983908030136</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0002337456517362956</v>
+        <v>0.0001628062693274508</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.619031029251861</v>
+        <v>5.695551099866819</v>
       </c>
       <c r="C185" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>6.430516087282932</v>
+        <v>6.52505973195179</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F185" t="n">
-        <v>6.430516087282932</v>
+        <v>6.52505973195179</v>
       </c>
       <c r="G185" t="n">
-        <v>0.000947569360913057</v>
+        <v>0.0006817144854942801</v>
       </c>
       <c r="H185" t="n">
-        <v>5.619031029251861</v>
+        <v>5.695551099866819</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0001817057360934873</v>
+        <v>0.0001529020715799888</v>
       </c>
       <c r="J185" t="n">
-        <v>5.619031029251861</v>
+        <v>5.695551099866819</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0001973039035251315</v>
+        <v>0.000144776249796031</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.66038316931582</v>
+        <v>5.732118291703502</v>
       </c>
       <c r="C186" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>6.478478757450098</v>
+        <v>6.566665766308055</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F186" t="n">
-        <v>6.478478757450098</v>
+        <v>6.566665766308055</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0008084772889400037</v>
+        <v>0.000585161674288699</v>
       </c>
       <c r="H186" t="n">
-        <v>5.66038316931582</v>
+        <v>5.732118291703502</v>
       </c>
       <c r="I186" t="n">
-        <v>0.000163635048234449</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J186" t="n">
-        <v>5.66038316931582</v>
+        <v>5.732118291703502</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0001689204947803574</v>
+        <v>0.000130739969747798</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.70173530937978</v>
+        <v>5.768685483540185</v>
       </c>
       <c r="C187" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>6.526441427617263</v>
+        <v>6.608271800664319</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F187" t="n">
-        <v>6.526441427617263</v>
+        <v>6.608271800664319</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0006845916806626178</v>
+        <v>0.0004997737061862668</v>
       </c>
       <c r="H187" t="n">
-        <v>5.70173530937978</v>
+        <v>5.768685483540185</v>
       </c>
       <c r="I187" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J187" t="n">
-        <v>5.70173530937978</v>
+        <v>5.768685483540185</v>
       </c>
       <c r="K187" t="n">
-        <v>0.000147386154618205</v>
+        <v>0.0001199236646375658</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.743087449443738</v>
+        <v>5.805252675376869</v>
       </c>
       <c r="C188" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>6.574404097784429</v>
+        <v>6.649877835020584</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F188" t="n">
-        <v>6.574404097784429</v>
+        <v>6.649877835020584</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0005751330762285688</v>
+        <v>0.0004252307541474257</v>
       </c>
       <c r="H188" t="n">
-        <v>5.743087449443738</v>
+        <v>5.805252675376869</v>
       </c>
       <c r="I188" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J188" t="n">
-        <v>5.743087449443738</v>
+        <v>5.805252675376869</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0001313218585867181</v>
+        <v>0.0001116749682142369</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.784439589507697</v>
+        <v>5.841819867213552</v>
       </c>
       <c r="C189" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>6.622366767951595</v>
+        <v>6.691483869376849</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F189" t="n">
-        <v>6.622366767951595</v>
+        <v>6.691483869376849</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0004800178689041916</v>
+        <v>0.0003609775542688526</v>
       </c>
       <c r="H189" t="n">
-        <v>5.784439589507697</v>
+        <v>5.841819867213552</v>
       </c>
       <c r="I189" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J189" t="n">
-        <v>5.784439589507697</v>
+        <v>5.841819867213552</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0001192317114849283</v>
+        <v>0.0001054508300708068</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.825791729571657</v>
+        <v>5.878387059050235</v>
       </c>
       <c r="C190" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>6.670329438118761</v>
+        <v>6.733089903733115</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F190" t="n">
-        <v>6.670329438118761</v>
+        <v>6.733089903733115</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0003987095381743998</v>
+        <v>0.0003062828729185019</v>
       </c>
       <c r="H190" t="n">
-        <v>5.825791729571657</v>
+        <v>5.878387059050235</v>
       </c>
       <c r="I190" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J190" t="n">
-        <v>5.825791729571657</v>
+        <v>5.878387059050235</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0001102515967872484</v>
+        <v>0.0001008049475180326</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.867143869635616</v>
+        <v>5.914954250886918</v>
       </c>
       <c r="C191" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>6.718292108285928</v>
+        <v>6.774695938089379</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F191" t="n">
-        <v>6.718292108285928</v>
+        <v>6.774695938089379</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0003303218632588747</v>
+        <v>0.0002602966246769336</v>
       </c>
       <c r="H191" t="n">
-        <v>5.867143869635616</v>
+        <v>5.914954250886918</v>
       </c>
       <c r="I191" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J191" t="n">
-        <v>5.867143869635616</v>
+        <v>5.914954250886918</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0001036725894877278</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.908496009699574</v>
+        <v>5.951521442723601</v>
       </c>
       <c r="C192" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>6.766254778453094</v>
+        <v>6.816301972445644</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F192" t="n">
-        <v>6.766254778453094</v>
+        <v>6.816301972445644</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0002737222555793103</v>
+        <v>0.0002221019791574404</v>
       </c>
       <c r="H192" t="n">
-        <v>5.908496009699574</v>
+        <v>5.951521442723601</v>
       </c>
       <c r="I192" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J192" t="n">
-        <v>5.908496009699574</v>
+        <v>5.951521442723601</v>
       </c>
       <c r="K192" t="n">
-        <v>9.892166893490479e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.949848149763534</v>
+        <v>5.988088634560285</v>
       </c>
       <c r="C193" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>6.814217448620258</v>
+        <v>6.857908006801909</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F193" t="n">
-        <v>6.814217448620258</v>
+        <v>6.857908006801909</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0002276285902855349</v>
+        <v>0.0001907605944281601</v>
       </c>
       <c r="H193" t="n">
-        <v>5.949848149763534</v>
+        <v>5.988088634560285</v>
       </c>
       <c r="I193" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J193" t="n">
-        <v>5.949848149763534</v>
+        <v>5.988088634560285</v>
       </c>
       <c r="K193" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.991200289827493</v>
+        <v>6.024655826396967</v>
       </c>
       <c r="C194" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>6.862180118787425</v>
+        <v>6.899514041158174</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F194" t="n">
-        <v>6.862180118787425</v>
+        <v>6.899514041158174</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0001911331808112274</v>
+        <v>0.0001653498942695035</v>
       </c>
       <c r="H194" t="n">
-        <v>5.991200289827493</v>
+        <v>6.024655826396967</v>
       </c>
       <c r="I194" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J194" t="n">
-        <v>5.991200289827493</v>
+        <v>6.024655826396967</v>
       </c>
       <c r="K194" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6.032552429891451</v>
+        <v>6.06122301823365</v>
       </c>
       <c r="C195" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>6.910142788954591</v>
+        <v>6.941120075514439</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F195" t="n">
-        <v>6.910142788954591</v>
+        <v>6.941120075514439</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0001626473933702313</v>
+        <v>0.0001449920105039522</v>
       </c>
       <c r="H195" t="n">
-        <v>6.032552429891451</v>
+        <v>6.06122301823365</v>
       </c>
       <c r="I195" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J195" t="n">
-        <v>6.032552429891451</v>
+        <v>6.06122301823365</v>
       </c>
       <c r="K195" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6.07390456995541</v>
+        <v>6.097790210070333</v>
       </c>
       <c r="C196" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>6.958105459121757</v>
+        <v>6.982726109870704</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F196" t="n">
-        <v>6.958105459121757</v>
+        <v>6.982726109870704</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0001404858100463548</v>
+        <v>0.0001288746010384453</v>
       </c>
       <c r="H196" t="n">
-        <v>6.07390456995541</v>
+        <v>6.097790210070333</v>
       </c>
       <c r="I196" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J196" t="n">
-        <v>6.07390456995541</v>
+        <v>6.097790210070333</v>
       </c>
       <c r="K196" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6.11525671001937</v>
+        <v>6.134357401907017</v>
       </c>
       <c r="C197" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>7.006068129288924</v>
+        <v>7.024332144226969</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F197" t="n">
-        <v>7.006068129288924</v>
+        <v>7.024332144226969</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0001235065142289191</v>
+        <v>0.000116264206935428</v>
       </c>
       <c r="H197" t="n">
-        <v>6.11525671001937</v>
+        <v>6.134357401907017</v>
       </c>
       <c r="I197" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J197" t="n">
-        <v>6.11525671001937</v>
+        <v>6.134357401907017</v>
       </c>
       <c r="K197" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6.156608850083328</v>
+        <v>6.1709245937437</v>
       </c>
       <c r="C198" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>7.05403079945609</v>
+        <v>7.065938178583234</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F198" t="n">
-        <v>7.05403079945609</v>
+        <v>7.065938178583234</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0001106974759887195</v>
+        <v>0.0001065131214893133</v>
       </c>
       <c r="H198" t="n">
-        <v>6.156608850083328</v>
+        <v>6.1709245937437</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J198" t="n">
-        <v>6.156608850083328</v>
+        <v>6.1709245937437</v>
       </c>
       <c r="K198" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6.197960990147287</v>
+        <v>6.207491785580383</v>
       </c>
       <c r="C199" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>7.101993469623254</v>
+        <v>7.1075442129395</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F199" t="n">
-        <v>7.101993469623254</v>
+        <v>7.1075442129395</v>
       </c>
       <c r="G199" t="n">
-        <v>0.000101184935171563</v>
+        <v>9.90609179692019e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>6.197960990147287</v>
+        <v>6.207491785580383</v>
       </c>
       <c r="I199" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J199" t="n">
-        <v>6.197960990147287</v>
+        <v>6.207491785580383</v>
       </c>
       <c r="K199" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6.239313130211247</v>
+        <v>6.244058977417066</v>
       </c>
       <c r="C200" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>7.149956139790421</v>
+        <v>7.149150247295763</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F200" t="n">
-        <v>7.149956139790421</v>
+        <v>7.149150247295763</v>
       </c>
       <c r="G200" t="n">
-        <v>9.423253491577445e-05</v>
+        <v>9.343183739325072e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>6.239313130211247</v>
+        <v>6.244058977417066</v>
       </c>
       <c r="I200" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J200" t="n">
-        <v>6.239313130211247</v>
+        <v>6.244058977417066</v>
       </c>
       <c r="K200" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
     <row r="201">
@@ -7455,34 +7455,34 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>6.280665270275207</v>
+        <v>6.28062616925375</v>
       </c>
       <c r="C201" t="n">
         <v>5.618491811321819e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>7.197918809957588</v>
+        <v>7.190756281652028</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0001692755475931275</v>
+        <v>0.0001699500680723307</v>
       </c>
       <c r="F201" t="n">
-        <v>7.197918809957588</v>
+        <v>7.190756281652028</v>
       </c>
       <c r="G201" t="n">
-        <v>8.92336780457205e-05</v>
+        <v>8.922919669101299e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>6.280665270275207</v>
+        <v>6.28062616925375</v>
       </c>
       <c r="I201" t="n">
-        <v>0.0001507536334358479</v>
+        <v>0.0001514369729706202</v>
       </c>
       <c r="J201" t="n">
-        <v>6.280665270275207</v>
+        <v>6.28062616925375</v>
       </c>
       <c r="K201" t="n">
-        <v>9.869000179339379e-05</v>
+        <v>9.913507748712939e-05</v>
       </c>
     </row>
   </sheetData>
